--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2B5312-A863-45D0-B762-50465D669665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAE5FD2-1863-480E-8816-4235684CD3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{479CF3AA-260E-4E31-88AC-4C0599CDC74D}"/>
+    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{479CF3AA-260E-4E31-88AC-4C0599CDC74D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>Amazon</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Douglas J. Herrington</t>
+  </si>
+  <si>
+    <t>Founded: 1994 by Jeff Bezos</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,6 +753,11 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAE5FD2-1863-480E-8816-4235684CD3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3091C23A-7801-431E-A94A-507FE017E28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{479CF3AA-260E-4E31-88AC-4C0599CDC74D}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{479CF3AA-260E-4E31-88AC-4C0599CDC74D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>Amazon</t>
   </si>
@@ -227,6 +227,21 @@
   <si>
     <t>Founded: 1994 by Jeff Bezos</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>AWS Growth</t>
+  </si>
 </sst>
 </file>
 
@@ -307,7 +322,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -323,6 +338,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -662,7 +678,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="I3">
-        <v>173.13</v>
+        <v>192.18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -697,10 +713,10 @@
         <v>5</v>
       </c>
       <c r="I4" s="5">
-        <v>10597.729352</v>
+        <v>10616.352407</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -709,7 +725,7 @@
       </c>
       <c r="I5" s="5">
         <f>I3*I4</f>
-        <v>1834784.88271176</v>
+        <v>2040250.60557726</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -723,11 +739,11 @@
         <v>7</v>
       </c>
       <c r="I6" s="5">
-        <f>78779+22423</f>
-        <v>101202</v>
+        <f>66207+28358</f>
+        <v>94565</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -735,10 +751,10 @@
         <v>8</v>
       </c>
       <c r="I7" s="5">
-        <v>52623</v>
+        <v>53374</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -747,7 +763,7 @@
       </c>
       <c r="I8" s="5">
         <f>I5-I6+I7</f>
-        <v>1786205.88271176</v>
+        <v>1999059.60557726</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -799,13 +815,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4851AB-88E4-47B4-A48F-9BD557A151E9}">
-  <dimension ref="A1:R483"/>
+  <dimension ref="A1:V484"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,12 +830,12 @@
     <col min="2" max="2" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
@@ -844,29 +860,41 @@
       <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="L2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>44</v>
       </c>
@@ -880,7 +908,7 @@
         <v>87887</v>
       </c>
       <c r="F3" s="5">
-        <f>+R3-SUM(C3:E3)</f>
+        <f>+V3-SUM(C3:E3)</f>
         <v>140183</v>
       </c>
       <c r="G3" s="5">
@@ -893,23 +921,29 @@
         <v>95537</v>
       </c>
       <c r="J3" s="5">
-        <f>+R3-SUM(G3:I3)</f>
+        <f>+V3-SUM(G3:I3)</f>
         <v>115586</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5">
+        <v>92887</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="5">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5">
         <v>352828</v>
       </c>
-      <c r="R3" s="5">
+      <c r="V3" s="5">
         <v>387497</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>45</v>
       </c>
@@ -923,7 +957,7 @@
         <v>32137</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F7" si="0">+R4-SUM(C4:E4)</f>
+        <f t="shared" ref="F4:F22" si="0">+V4-SUM(C4:E4)</f>
         <v>51949</v>
       </c>
       <c r="G4" s="5">
@@ -936,23 +970,29 @@
         <v>35888</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4:J7" si="1">+R4-SUM(G4:I4)</f>
+        <f t="shared" ref="J4:J22" si="1">+V4-SUM(G4:I4)</f>
         <v>43420</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="5">
+        <v>33513</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="5">
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5">
         <v>131200</v>
       </c>
-      <c r="R4" s="5">
+      <c r="V4" s="5">
         <v>142906</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>46</v>
       </c>
@@ -982,20 +1022,26 @@
         <f t="shared" si="1"/>
         <v>27786</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="5">
+        <v>29267</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="5">
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5">
         <v>90757</v>
       </c>
-      <c r="R5" s="5">
+      <c r="V5" s="5">
         <v>106556</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -1025,22 +1071,28 @@
         <f t="shared" si="1"/>
         <v>82226</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="5">
+        <v>63970</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="5">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5">
         <v>242901</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="U6" s="5">
         <v>255887</v>
       </c>
-      <c r="R6" s="5">
+      <c r="V6" s="5">
         <v>272311</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -1070,22 +1122,28 @@
         <f t="shared" si="1"/>
         <v>105566</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="5">
+        <v>91697</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="5">
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5">
         <v>271082</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="U7" s="5">
         <v>318898</v>
       </c>
-      <c r="R7" s="5">
+      <c r="V7" s="5">
         <v>365648</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1114,30 +1172,37 @@
         <v>147977</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" ref="I8:J8" si="3">SUM(I6:I7)</f>
+        <f t="shared" ref="I8:K8" si="3">SUM(I6:I7)</f>
         <v>158877</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="3"/>
         <v>187792</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="K8" s="7">
+        <f t="shared" si="3"/>
+        <v>155667</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7">
-        <f>+P6+P7</f>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7">
+        <f>+T6+T7</f>
         <v>513983</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="U8" s="7">
         <v>574785</v>
       </c>
-      <c r="R8" s="7">
+      <c r="V8" s="7">
         <v>637959</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1150,7 +1215,10 @@
       <c r="E9" s="5">
         <v>75022</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>114102</v>
+      </c>
       <c r="G9" s="5">
         <v>72633</v>
       </c>
@@ -1160,23 +1228,32 @@
       <c r="I9" s="5">
         <v>80977</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="5">
+        <f t="shared" si="1"/>
+        <v>98893</v>
+      </c>
+      <c r="K9" s="5">
+        <v>76976</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="5">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5">
         <v>288831</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="U9" s="5">
         <v>304739</v>
       </c>
-      <c r="R9" s="5">
+      <c r="V9" s="5">
         <v>326288</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1189,12 +1266,12 @@
         <v>65010</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" ref="E10:J10" si="5">E8-E9</f>
+        <f t="shared" ref="E10:K10" si="5">E8-E9</f>
         <v>68061</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="5"/>
-        <v>233135</v>
+        <v>119033</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="5"/>
@@ -1210,30 +1287,37 @@
       </c>
       <c r="J10" s="5">
         <f t="shared" si="5"/>
-        <v>187792</v>
-      </c>
-      <c r="K10" s="5"/>
+        <v>88899</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="5"/>
+        <v>78691</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="5">
-        <f t="shared" ref="O10:Q10" si="6">+O8-O9</f>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5">
+        <f t="shared" ref="S10:U10" si="6">+S8-S9</f>
         <v>0</v>
       </c>
-      <c r="P10" s="5">
+      <c r="T10" s="5">
         <f t="shared" si="6"/>
         <v>225152</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="U10" s="5">
         <f t="shared" si="6"/>
         <v>270046</v>
       </c>
-      <c r="R10" s="5">
-        <f>+R8-R9</f>
+      <c r="V10" s="5">
+        <f>+V8-V9</f>
         <v>311671</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1246,7 +1330,10 @@
       <c r="E11" s="5">
         <v>22314</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>33981</v>
+      </c>
       <c r="G11" s="5">
         <v>22317</v>
       </c>
@@ -1256,23 +1343,32 @@
       <c r="I11" s="5">
         <v>24660</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="5">
+        <f t="shared" si="1"/>
+        <v>27962</v>
+      </c>
+      <c r="K11" s="5">
+        <v>24593</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5">
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5">
         <v>84299</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="U11" s="5">
         <v>90619</v>
       </c>
-      <c r="R11" s="5">
+      <c r="V11" s="5">
         <v>98505</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1285,7 +1381,10 @@
       <c r="E12" s="5">
         <v>21203</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>24960</v>
+      </c>
       <c r="G12" s="5">
         <v>20424</v>
       </c>
@@ -1295,23 +1394,32 @@
       <c r="I12" s="5">
         <v>22245</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="J12" s="5">
+        <f t="shared" si="1"/>
+        <v>23571</v>
+      </c>
+      <c r="K12" s="5">
+        <v>22994</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="5">
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5">
         <v>73213</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="U12" s="5">
         <v>85622</v>
       </c>
-      <c r="R12" s="5">
+      <c r="V12" s="5">
         <v>88544</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -1324,7 +1432,10 @@
       <c r="E13" s="5">
         <v>10551</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>12439</v>
+      </c>
       <c r="G13" s="5">
         <v>9662</v>
       </c>
@@ -1334,23 +1445,32 @@
       <c r="I13" s="5">
         <v>10609</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="J13" s="5">
+        <f t="shared" si="1"/>
+        <v>13124</v>
+      </c>
+      <c r="K13" s="5">
+        <v>9763</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="5">
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5">
         <v>42238</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="U13" s="5">
         <v>44370</v>
       </c>
-      <c r="R13" s="5">
+      <c r="V13" s="5">
         <v>43907</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -1363,7 +1483,10 @@
       <c r="E14" s="5">
         <v>2561</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>2553</v>
+      </c>
       <c r="G14" s="5">
         <v>2742</v>
       </c>
@@ -1373,23 +1496,32 @@
       <c r="I14" s="5">
         <v>2713</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="J14" s="5">
+        <f t="shared" si="1"/>
+        <v>2863</v>
+      </c>
+      <c r="K14" s="5">
+        <v>2628</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="5">
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5">
         <v>11891</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="U14" s="5">
         <v>11816</v>
       </c>
-      <c r="R14" s="5">
+      <c r="V14" s="5">
         <v>11359</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -1402,7 +1534,10 @@
       <c r="E15" s="5">
         <v>244</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
       <c r="G15" s="5">
         <v>228</v>
       </c>
@@ -1412,23 +1547,32 @@
       <c r="I15" s="5">
         <v>262</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="J15" s="5">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="K15" s="5">
+        <v>308</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="5">
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5">
         <v>1263</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="U15" s="5">
         <v>767</v>
       </c>
-      <c r="R15" s="5">
+      <c r="V15" s="5">
         <v>763</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -1446,7 +1590,7 @@
       </c>
       <c r="F16" s="5">
         <f t="shared" si="7"/>
-        <v>233135</v>
+        <v>44950</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="7"/>
@@ -1457,44 +1601,51 @@
         <v>14672</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" ref="I16:R16" si="8">I10-SUM(I11:I15)</f>
+        <f t="shared" ref="I16:V16" si="8">I10-SUM(I11:I15)</f>
         <v>17411</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" si="8"/>
-        <v>187792</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5">
+        <v>21203</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="8"/>
+        <v>18405</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M16" s="5">
+      <c r="Q16" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N16" s="5">
+      <c r="R16" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O16" s="5">
+      <c r="S16" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P16" s="5">
+      <c r="T16" s="5">
         <f t="shared" si="8"/>
         <v>12248</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="U16" s="5">
         <f t="shared" si="8"/>
         <v>36852</v>
       </c>
-      <c r="R16" s="5">
+      <c r="V16" s="5">
         <f t="shared" si="8"/>
         <v>68593</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>31</v>
       </c>
@@ -1507,7 +1658,10 @@
       <c r="E17" s="5">
         <v>776</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>2629</v>
+      </c>
       <c r="G17" s="5">
         <v>993</v>
       </c>
@@ -1517,23 +1671,32 @@
       <c r="I17" s="5">
         <v>1256</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="J17" s="5">
+        <f t="shared" si="1"/>
+        <v>1248</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1066</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="5">
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5">
         <v>989</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="U17" s="5">
         <v>2949</v>
       </c>
-      <c r="R17" s="5">
+      <c r="V17" s="5">
         <v>4677</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -1546,7 +1709,10 @@
       <c r="E18" s="5">
         <v>806</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>-63</v>
+      </c>
       <c r="G18" s="5">
         <v>644</v>
       </c>
@@ -1556,23 +1722,32 @@
       <c r="I18" s="5">
         <v>603</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="J18" s="5">
+        <f t="shared" si="1"/>
+        <v>570</v>
+      </c>
+      <c r="K18" s="5">
+        <v>541</v>
+      </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="5">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5">
         <v>2367</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="U18" s="5">
         <v>3182</v>
       </c>
-      <c r="R18" s="5">
+      <c r="V18" s="5">
         <v>2406</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>29</v>
       </c>
@@ -1585,7 +1760,10 @@
       <c r="E19" s="5">
         <v>-1031</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>2899</v>
+      </c>
       <c r="G19" s="5">
         <v>2673</v>
       </c>
@@ -1595,23 +1773,32 @@
       <c r="I19" s="5">
         <v>27</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="J19" s="5">
+        <f t="shared" si="1"/>
+        <v>-468</v>
+      </c>
+      <c r="K19" s="5">
+        <v>-2749</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="5">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5">
         <v>16806</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="U19" s="5">
         <v>-938</v>
       </c>
-      <c r="R19" s="5">
+      <c r="V19" s="5">
         <v>2250</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -1629,7 +1816,7 @@
       </c>
       <c r="F20" s="5">
         <f t="shared" si="9"/>
-        <v>233135</v>
+        <v>44743</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="9"/>
@@ -1640,44 +1827,51 @@
         <v>15245</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" ref="I20:R20" si="10">I16+I17-I18-I19</f>
+        <f t="shared" ref="I20:V20" si="10">I16+I17-I18-I19</f>
         <v>18037</v>
       </c>
       <c r="J20" s="5">
         <f t="shared" si="10"/>
-        <v>187792</v>
-      </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5">
+        <v>22349</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="10"/>
+        <v>21679</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M20" s="5">
+      <c r="Q20" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N20" s="5">
+      <c r="R20" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O20" s="5">
+      <c r="S20" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P20" s="5">
+      <c r="T20" s="5">
         <f t="shared" si="10"/>
         <v>-5936</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="U20" s="5">
         <f t="shared" si="10"/>
         <v>37557</v>
       </c>
-      <c r="R20" s="5">
+      <c r="V20" s="5">
         <f t="shared" si="10"/>
         <v>68614</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>33</v>
       </c>
@@ -1691,7 +1885,10 @@
       <c r="E21" s="5">
         <v>2306</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
+        <v>5207</v>
+      </c>
       <c r="G21" s="5">
         <v>2467</v>
       </c>
@@ -1702,23 +1899,32 @@
       <c r="I21" s="5">
         <v>2706</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="J21" s="5">
+        <f t="shared" si="1"/>
+        <v>2325</v>
+      </c>
+      <c r="K21" s="5">
+        <v>4553</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="5">
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5">
         <v>-3217</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="U21" s="5">
         <v>7120</v>
       </c>
-      <c r="R21" s="5">
+      <c r="V21" s="5">
         <v>9265</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>41</v>
       </c>
@@ -1731,7 +1937,10 @@
       <c r="E22" s="5">
         <v>4</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
       <c r="G22" s="5">
         <v>85</v>
       </c>
@@ -1741,23 +1950,32 @@
       <c r="I22" s="5">
         <v>3</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="J22" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K22" s="5">
+        <v>-1</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="5">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5">
         <v>3</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="U22" s="5">
         <v>12</v>
       </c>
-      <c r="R22" s="5">
+      <c r="V22" s="5">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -1775,7 +1993,7 @@
       </c>
       <c r="F23" s="5">
         <f t="shared" si="11"/>
-        <v>233135</v>
+        <v>39447</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="11"/>
@@ -1790,40 +2008,47 @@
         <v>15328</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" ref="J23:R23" si="12">+J20-J21-J22</f>
-        <v>187792</v>
-      </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5">
+        <f t="shared" ref="J23:V23" si="12">+J20-J21-J22</f>
+        <v>20004</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="12"/>
+        <v>17127</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M23" s="5">
+      <c r="Q23" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N23" s="5">
+      <c r="R23" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O23" s="5">
+      <c r="S23" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P23" s="5">
+      <c r="T23" s="5">
         <f t="shared" si="12"/>
         <v>-2722</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="U23" s="5">
         <f t="shared" si="12"/>
         <v>30425</v>
       </c>
-      <c r="R23" s="5">
+      <c r="V23" s="5">
         <f t="shared" si="12"/>
         <v>59248</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1840,8 +2065,12 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>35</v>
       </c>
@@ -1854,12 +2083,12 @@
         <v>0.65629557608167233</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" ref="E25:J25" si="14">E23/E26</f>
+        <f t="shared" ref="E25:I25" si="14">E23/E26</f>
         <v>0.9570819608602984</v>
       </c>
-      <c r="F25" s="8" t="e">
+      <c r="F25" s="8">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>3.828319099378882</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="14"/>
@@ -1873,38 +2102,45 @@
         <f t="shared" si="14"/>
         <v>1.4596705075707075</v>
       </c>
-      <c r="J25" s="8" t="e">
-        <f t="shared" si="14"/>
+      <c r="J25" s="8">
+        <f>J23/J26</f>
+        <v>1.9100544256659984</v>
+      </c>
+      <c r="K25" s="8">
+        <f>K23/K26</f>
+        <v>1.6152975572951052</v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="8" t="e">
+        <f t="shared" ref="Q25:U25" si="15">+Q23/Q26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="8" t="e">
-        <f t="shared" ref="M25:Q25" si="15">+M23/M26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="8" t="e">
+      <c r="R25" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O25" s="8" t="e">
+      <c r="S25" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P25" s="8">
+      <c r="T25" s="8">
         <f t="shared" si="15"/>
         <v>-0.2671508489547551</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="U25" s="8">
         <f t="shared" si="15"/>
         <v>2.9527368012422359</v>
       </c>
-      <c r="R25" s="8">
-        <f>+R23/R26</f>
+      <c r="V25" s="8">
+        <f>+V23/V26</f>
         <v>5.6572137878353859</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>5</v>
       </c>
@@ -1917,7 +2153,9 @@
       <c r="E26" s="5">
         <v>10322</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5">
+        <v>10304</v>
+      </c>
       <c r="G26" s="5">
         <v>10393</v>
       </c>
@@ -1927,23 +2165,31 @@
       <c r="I26" s="5">
         <v>10501</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="J26" s="5">
+        <v>10473</v>
+      </c>
+      <c r="K26" s="5">
+        <v>10603</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="5">
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5">
         <v>10189</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="U26" s="5">
         <v>10304</v>
       </c>
-      <c r="R26" s="5">
+      <c r="V26" s="5">
         <v>10473</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1960,32 +2206,39 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="9">
-        <f>G6/C6-1</f>
-        <v>6.9040557378775347E-2</v>
+        <f>G5/C5-1</f>
+        <v>0.17247354125690739</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" ref="H28:H29" si="16">H6/D6-1</f>
-        <v>4.2976690608483636E-2</v>
+        <f t="shared" ref="H28:K28" si="16">H5/D5-1</f>
+        <v>0.18703703703703711</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" ref="I28:J30" si="17">I6/E6-1</f>
-        <v>7.0127115290243847E-2</v>
+        <f t="shared" si="16"/>
+        <v>0.1905112971074201</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" si="17"/>
-        <v>-0.11705520418353432</v>
-      </c>
-      <c r="K28" s="5"/>
+        <f t="shared" si="16"/>
+        <v>-0.30540209484288683</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="16"/>
+        <v>0.1689499540679793</v>
+      </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -1993,227 +2246,288 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="9">
-        <f>G7/C7-1</f>
-        <v>0.17080864486977276</v>
+        <f>G6/C6-1</f>
+        <v>6.9040557378775347E-2</v>
       </c>
       <c r="H29" s="9">
-        <f t="shared" si="16"/>
-        <v>0.14673992382317413</v>
+        <f t="shared" ref="H29:H30" si="17">H6/D6-1</f>
+        <v>4.2976690608483636E-2</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" si="17"/>
-        <v>0.14220642706977671</v>
+        <f t="shared" ref="I29:K31" si="18">I6/E6-1</f>
+        <v>7.0127115290243847E-2</v>
       </c>
       <c r="J29" s="9">
-        <f t="shared" si="17"/>
-        <v>-0.24600022855836812</v>
-      </c>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+        <f t="shared" si="18"/>
+        <v>-0.11705520418353432</v>
+      </c>
+      <c r="K29" s="9">
+        <f t="shared" si="18"/>
+        <v>5.0151850939834208E-2</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="9">
-        <f>G8/C8-1</f>
-        <v>0.12527677884388888</v>
+        <f>G7/C7-1</f>
+        <v>0.17080864486977276</v>
       </c>
       <c r="H30" s="9">
-        <f>H8/D8-1</f>
-        <v>0.10115862869559389</v>
+        <f t="shared" si="17"/>
+        <v>0.14673992382317413</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" si="17"/>
-        <v>0.11038348371225104</v>
+        <f t="shared" si="18"/>
+        <v>0.14220642706977671</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" si="17"/>
-        <v>-0.19449246144937482</v>
-      </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+        <f t="shared" si="18"/>
+        <v>-0.24600022855836812</v>
+      </c>
+      <c r="K30" s="9">
+        <f t="shared" si="18"/>
+        <v>0.11285468093885775</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="9">
-        <f t="shared" ref="C31:G31" si="18">C10/C8</f>
-        <v>0.46771306082067871</v>
-      </c>
-      <c r="D31" s="9">
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="11">
+        <f>G8/C8-1</f>
+        <v>0.12527677884388888</v>
+      </c>
+      <c r="H31" s="11">
+        <f>H8/D8-1</f>
+        <v>0.10115862869559389</v>
+      </c>
+      <c r="I31" s="11">
         <f t="shared" si="18"/>
-        <v>0.48376654785203488</v>
-      </c>
-      <c r="E31" s="9">
+        <v>0.11038348371225104</v>
+      </c>
+      <c r="J31" s="11">
         <f t="shared" si="18"/>
-        <v>0.47567495789157344</v>
-      </c>
-      <c r="F31" s="9">
+        <v>-0.19449246144937482</v>
+      </c>
+      <c r="K31" s="11">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="G31" s="9">
-        <f t="shared" si="18"/>
-        <v>0.49318624269954575</v>
-      </c>
-      <c r="H31" s="9">
-        <f>H10/H8</f>
-        <v>0.50137521371564497</v>
-      </c>
-      <c r="I31" s="9">
-        <f t="shared" ref="I31:J31" si="19">I10/I8</f>
-        <v>0.49031640829069029</v>
-      </c>
-      <c r="J31" s="9">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
+        <v>8.6202926461660834E-2</v>
+      </c>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="9">
-        <f t="shared" ref="C32:G32" si="20">C16/C8</f>
-        <v>3.7484885126964934E-2</v>
+        <f t="shared" ref="C32:G32" si="19">C10/C8</f>
+        <v>0.46771306082067871</v>
       </c>
       <c r="D32" s="9">
+        <f t="shared" si="19"/>
+        <v>0.48376654785203488</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="19"/>
+        <v>0.47567495789157344</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="19"/>
+        <v>0.51057541767645354</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" si="19"/>
+        <v>0.49318624269954575</v>
+      </c>
+      <c r="H32" s="9">
+        <f>H10/H8</f>
+        <v>0.50137521371564497</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" ref="I32:J32" si="20">I10/I8</f>
+        <v>0.49031640829069029</v>
+      </c>
+      <c r="J32" s="9">
         <f t="shared" si="20"/>
-        <v>5.7157527365812637E-2</v>
-      </c>
-      <c r="E32" s="9">
-        <f t="shared" si="20"/>
-        <v>7.8192377850618167E-2</v>
-      </c>
-      <c r="F32" s="9">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="G32" s="9">
-        <f t="shared" si="20"/>
-        <v>0.10680817511321374</v>
-      </c>
-      <c r="H32" s="9">
-        <f>H16/H8</f>
-        <v>9.9150543665569649E-2</v>
-      </c>
-      <c r="I32" s="9">
-        <f t="shared" ref="I32:J32" si="21">I16/I8</f>
-        <v>0.1095879202150091</v>
-      </c>
-      <c r="J32" s="9">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
+        <v>0.47339077276987307</v>
+      </c>
+      <c r="K32" s="9">
+        <f t="shared" ref="K32" si="21">K10/K8</f>
+        <v>0.50550855351487467</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" s="9">
-        <f t="shared" ref="C33:G33" si="22">C21/C20</f>
-        <v>0.23015294974508377</v>
+        <f t="shared" ref="C33:G33" si="22">C16/C8</f>
+        <v>3.7484885126964934E-2</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" si="22"/>
-        <v>0.10630702102340341</v>
+        <v>5.7157527365812637E-2</v>
       </c>
       <c r="E33" s="9">
         <f t="shared" si="22"/>
-        <v>0.18918697185987365</v>
+        <v>7.8192377850618167E-2</v>
       </c>
       <c r="F33" s="9">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.1928067428743003</v>
       </c>
       <c r="G33" s="9">
         <f t="shared" si="22"/>
-        <v>0.1900177154740815</v>
+        <v>0.10680817511321374</v>
       </c>
       <c r="H33" s="9">
-        <f>H21/H20</f>
-        <v>0.11590685470646113</v>
+        <f>H16/H8</f>
+        <v>9.9150543665569649E-2</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" ref="I33:J33" si="23">I21/I20</f>
-        <v>0.15002494871652713</v>
+        <f t="shared" ref="I33:J33" si="23">I16/I8</f>
+        <v>0.1095879202150091</v>
       </c>
       <c r="J33" s="9">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+        <v>0.1129068330919315</v>
+      </c>
+      <c r="K33" s="9">
+        <f t="shared" ref="K33" si="24">K16/K8</f>
+        <v>0.11823315153500742</v>
+      </c>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" ref="C34:G34" si="25">C21/C20</f>
+        <v>0.23015294974508377</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" si="25"/>
+        <v>0.10630702102340341</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="25"/>
+        <v>0.18918697185987365</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="25"/>
+        <v>0.11637574592673715</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" si="25"/>
+        <v>0.1900177154740815</v>
+      </c>
+      <c r="H34" s="9">
+        <f>H21/H20</f>
+        <v>0.11590685470646113</v>
+      </c>
+      <c r="I34" s="9">
+        <f t="shared" ref="I34:J34" si="26">I21/I20</f>
+        <v>0.15002494871652713</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" si="26"/>
+        <v>0.10403150029084075</v>
+      </c>
+      <c r="K34" s="9">
+        <f t="shared" ref="K34" si="27">K21/K20</f>
+        <v>0.21001891231145348</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -2230,8 +2544,12 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2248,8 +2566,12 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -2266,8 +2588,12 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2284,8 +2610,12 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -2302,8 +2632,12 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2320,8 +2654,12 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -2338,8 +2676,12 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -2356,8 +2698,12 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -2374,8 +2720,12 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -2392,8 +2742,12 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -2410,8 +2764,12 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -2428,8 +2786,12 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -2446,8 +2808,12 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2464,8 +2830,12 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2482,8 +2852,12 @@
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -2500,8 +2874,12 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -2518,8 +2896,12 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2536,8 +2918,12 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -2554,8 +2940,12 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2572,8 +2962,12 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -2590,8 +2984,12 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -2608,8 +3006,12 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -2626,8 +3028,12 @@
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -2644,8 +3050,12 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -2662,8 +3072,12 @@
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -2680,8 +3094,12 @@
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -2698,8 +3116,12 @@
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -2716,8 +3138,12 @@
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -2734,8 +3160,12 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -2752,8 +3182,12 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
-    </row>
-    <row r="65" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+    </row>
+    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -2770,8 +3204,12 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
-    </row>
-    <row r="66" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+    </row>
+    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -2788,8 +3226,12 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
-    </row>
-    <row r="67" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+    </row>
+    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -2806,8 +3248,12 @@
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
-    </row>
-    <row r="68" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+    </row>
+    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -2824,8 +3270,12 @@
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
-    </row>
-    <row r="69" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+    </row>
+    <row r="69" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -2842,8 +3292,12 @@
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
-    </row>
-    <row r="70" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+    </row>
+    <row r="70" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -2860,8 +3314,12 @@
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
-    </row>
-    <row r="71" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+    </row>
+    <row r="71" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -2878,8 +3336,12 @@
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
-    </row>
-    <row r="72" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+    </row>
+    <row r="72" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -2896,8 +3358,12 @@
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
-    </row>
-    <row r="73" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+    </row>
+    <row r="73" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -2914,8 +3380,12 @@
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
-    </row>
-    <row r="74" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+    </row>
+    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -2932,8 +3402,12 @@
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
-    </row>
-    <row r="75" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+    </row>
+    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -2950,8 +3424,12 @@
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
-    </row>
-    <row r="76" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+    </row>
+    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -2968,8 +3446,12 @@
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
-    </row>
-    <row r="77" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+    </row>
+    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -2986,8 +3468,12 @@
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
-    </row>
-    <row r="78" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+    </row>
+    <row r="78" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -3004,8 +3490,12 @@
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
-    </row>
-    <row r="79" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+    </row>
+    <row r="79" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -3022,8 +3512,12 @@
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
-    </row>
-    <row r="80" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+    </row>
+    <row r="80" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -3040,8 +3534,12 @@
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -3058,8 +3556,12 @@
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -3076,8 +3578,12 @@
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -3094,8 +3600,12 @@
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -3112,8 +3622,12 @@
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -3130,8 +3644,12 @@
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -3148,8 +3666,12 @@
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -3166,8 +3688,12 @@
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -3184,8 +3710,12 @@
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -3202,8 +3732,12 @@
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -3220,8 +3754,12 @@
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -3238,8 +3776,12 @@
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -3256,8 +3798,12 @@
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -3274,8 +3820,12 @@
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -3292,8 +3842,12 @@
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -3310,8 +3864,12 @@
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -3328,8 +3886,12 @@
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -3346,8 +3908,12 @@
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+      <c r="V97" s="5"/>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -3364,8 +3930,12 @@
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -3382,8 +3952,12 @@
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -3400,8 +3974,12 @@
       <c r="P100" s="5"/>
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
+      <c r="V100" s="5"/>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -3418,8 +3996,12 @@
       <c r="P101" s="5"/>
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5"/>
+      <c r="V101" s="5"/>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -3436,8 +4018,12 @@
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
-    </row>
-    <row r="103" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+      <c r="V102" s="5"/>
+    </row>
+    <row r="103" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -3454,8 +4040,12 @@
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
-    </row>
-    <row r="104" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+      <c r="V103" s="5"/>
+    </row>
+    <row r="104" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -3472,8 +4062,12 @@
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
-    </row>
-    <row r="105" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+      <c r="V104" s="5"/>
+    </row>
+    <row r="105" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -3490,8 +4084,12 @@
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
-    </row>
-    <row r="106" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+      <c r="V105" s="5"/>
+    </row>
+    <row r="106" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -3508,8 +4106,12 @@
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
-    </row>
-    <row r="107" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S106" s="5"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5"/>
+      <c r="V106" s="5"/>
+    </row>
+    <row r="107" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -3526,8 +4128,12 @@
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
-    </row>
-    <row r="108" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S107" s="5"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="5"/>
+      <c r="V107" s="5"/>
+    </row>
+    <row r="108" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -3544,8 +4150,12 @@
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
-    </row>
-    <row r="109" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S108" s="5"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5"/>
+      <c r="V108" s="5"/>
+    </row>
+    <row r="109" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -3562,8 +4172,12 @@
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
-    </row>
-    <row r="110" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S109" s="5"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="5"/>
+      <c r="V109" s="5"/>
+    </row>
+    <row r="110" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -3580,8 +4194,12 @@
       <c r="P110" s="5"/>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
-    </row>
-    <row r="111" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S110" s="5"/>
+      <c r="T110" s="5"/>
+      <c r="U110" s="5"/>
+      <c r="V110" s="5"/>
+    </row>
+    <row r="111" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -3598,8 +4216,12 @@
       <c r="P111" s="5"/>
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
-    </row>
-    <row r="112" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S111" s="5"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="5"/>
+      <c r="V111" s="5"/>
+    </row>
+    <row r="112" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -3616,8 +4238,12 @@
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
-    </row>
-    <row r="113" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S112" s="5"/>
+      <c r="T112" s="5"/>
+      <c r="U112" s="5"/>
+      <c r="V112" s="5"/>
+    </row>
+    <row r="113" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -3634,8 +4260,12 @@
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
-    </row>
-    <row r="114" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S113" s="5"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="5"/>
+      <c r="V113" s="5"/>
+    </row>
+    <row r="114" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -3652,8 +4282,12 @@
       <c r="P114" s="5"/>
       <c r="Q114" s="5"/>
       <c r="R114" s="5"/>
-    </row>
-    <row r="115" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S114" s="5"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="5"/>
+      <c r="V114" s="5"/>
+    </row>
+    <row r="115" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -3670,8 +4304,12 @@
       <c r="P115" s="5"/>
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
-    </row>
-    <row r="116" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S115" s="5"/>
+      <c r="T115" s="5"/>
+      <c r="U115" s="5"/>
+      <c r="V115" s="5"/>
+    </row>
+    <row r="116" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -3688,8 +4326,12 @@
       <c r="P116" s="5"/>
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
-    </row>
-    <row r="117" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S116" s="5"/>
+      <c r="T116" s="5"/>
+      <c r="U116" s="5"/>
+      <c r="V116" s="5"/>
+    </row>
+    <row r="117" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -3706,8 +4348,12 @@
       <c r="P117" s="5"/>
       <c r="Q117" s="5"/>
       <c r="R117" s="5"/>
-    </row>
-    <row r="118" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S117" s="5"/>
+      <c r="T117" s="5"/>
+      <c r="U117" s="5"/>
+      <c r="V117" s="5"/>
+    </row>
+    <row r="118" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -3724,8 +4370,12 @@
       <c r="P118" s="5"/>
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
-    </row>
-    <row r="119" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S118" s="5"/>
+      <c r="T118" s="5"/>
+      <c r="U118" s="5"/>
+      <c r="V118" s="5"/>
+    </row>
+    <row r="119" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -3742,8 +4392,12 @@
       <c r="P119" s="5"/>
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
-    </row>
-    <row r="120" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S119" s="5"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="5"/>
+      <c r="V119" s="5"/>
+    </row>
+    <row r="120" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -3760,8 +4414,12 @@
       <c r="P120" s="5"/>
       <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
-    </row>
-    <row r="121" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S120" s="5"/>
+      <c r="T120" s="5"/>
+      <c r="U120" s="5"/>
+      <c r="V120" s="5"/>
+    </row>
+    <row r="121" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -3778,8 +4436,12 @@
       <c r="P121" s="5"/>
       <c r="Q121" s="5"/>
       <c r="R121" s="5"/>
-    </row>
-    <row r="122" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S121" s="5"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="5"/>
+      <c r="V121" s="5"/>
+    </row>
+    <row r="122" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -3796,8 +4458,12 @@
       <c r="P122" s="5"/>
       <c r="Q122" s="5"/>
       <c r="R122" s="5"/>
-    </row>
-    <row r="123" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S122" s="5"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="5"/>
+      <c r="V122" s="5"/>
+    </row>
+    <row r="123" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -3814,8 +4480,12 @@
       <c r="P123" s="5"/>
       <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
-    </row>
-    <row r="124" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S123" s="5"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5"/>
+      <c r="V123" s="5"/>
+    </row>
+    <row r="124" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -3832,8 +4502,12 @@
       <c r="P124" s="5"/>
       <c r="Q124" s="5"/>
       <c r="R124" s="5"/>
-    </row>
-    <row r="125" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S124" s="5"/>
+      <c r="T124" s="5"/>
+      <c r="U124" s="5"/>
+      <c r="V124" s="5"/>
+    </row>
+    <row r="125" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -3850,8 +4524,12 @@
       <c r="P125" s="5"/>
       <c r="Q125" s="5"/>
       <c r="R125" s="5"/>
-    </row>
-    <row r="126" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S125" s="5"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="5"/>
+      <c r="V125" s="5"/>
+    </row>
+    <row r="126" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -3868,8 +4546,12 @@
       <c r="P126" s="5"/>
       <c r="Q126" s="5"/>
       <c r="R126" s="5"/>
-    </row>
-    <row r="127" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S126" s="5"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="5"/>
+      <c r="V126" s="5"/>
+    </row>
+    <row r="127" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -3886,8 +4568,12 @@
       <c r="P127" s="5"/>
       <c r="Q127" s="5"/>
       <c r="R127" s="5"/>
-    </row>
-    <row r="128" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S127" s="5"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="5"/>
+      <c r="V127" s="5"/>
+    </row>
+    <row r="128" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -3904,8 +4590,12 @@
       <c r="P128" s="5"/>
       <c r="Q128" s="5"/>
       <c r="R128" s="5"/>
-    </row>
-    <row r="129" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S128" s="5"/>
+      <c r="T128" s="5"/>
+      <c r="U128" s="5"/>
+      <c r="V128" s="5"/>
+    </row>
+    <row r="129" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -3922,8 +4612,12 @@
       <c r="P129" s="5"/>
       <c r="Q129" s="5"/>
       <c r="R129" s="5"/>
-    </row>
-    <row r="130" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S129" s="5"/>
+      <c r="T129" s="5"/>
+      <c r="U129" s="5"/>
+      <c r="V129" s="5"/>
+    </row>
+    <row r="130" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -3940,8 +4634,12 @@
       <c r="P130" s="5"/>
       <c r="Q130" s="5"/>
       <c r="R130" s="5"/>
-    </row>
-    <row r="131" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S130" s="5"/>
+      <c r="T130" s="5"/>
+      <c r="U130" s="5"/>
+      <c r="V130" s="5"/>
+    </row>
+    <row r="131" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -3958,8 +4656,12 @@
       <c r="P131" s="5"/>
       <c r="Q131" s="5"/>
       <c r="R131" s="5"/>
-    </row>
-    <row r="132" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S131" s="5"/>
+      <c r="T131" s="5"/>
+      <c r="U131" s="5"/>
+      <c r="V131" s="5"/>
+    </row>
+    <row r="132" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -3976,8 +4678,12 @@
       <c r="P132" s="5"/>
       <c r="Q132" s="5"/>
       <c r="R132" s="5"/>
-    </row>
-    <row r="133" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S132" s="5"/>
+      <c r="T132" s="5"/>
+      <c r="U132" s="5"/>
+      <c r="V132" s="5"/>
+    </row>
+    <row r="133" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -3994,8 +4700,12 @@
       <c r="P133" s="5"/>
       <c r="Q133" s="5"/>
       <c r="R133" s="5"/>
-    </row>
-    <row r="134" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S133" s="5"/>
+      <c r="T133" s="5"/>
+      <c r="U133" s="5"/>
+      <c r="V133" s="5"/>
+    </row>
+    <row r="134" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -4012,8 +4722,12 @@
       <c r="P134" s="5"/>
       <c r="Q134" s="5"/>
       <c r="R134" s="5"/>
-    </row>
-    <row r="135" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S134" s="5"/>
+      <c r="T134" s="5"/>
+      <c r="U134" s="5"/>
+      <c r="V134" s="5"/>
+    </row>
+    <row r="135" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -4030,8 +4744,12 @@
       <c r="P135" s="5"/>
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
-    </row>
-    <row r="136" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S135" s="5"/>
+      <c r="T135" s="5"/>
+      <c r="U135" s="5"/>
+      <c r="V135" s="5"/>
+    </row>
+    <row r="136" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -4048,8 +4766,12 @@
       <c r="P136" s="5"/>
       <c r="Q136" s="5"/>
       <c r="R136" s="5"/>
-    </row>
-    <row r="137" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S136" s="5"/>
+      <c r="T136" s="5"/>
+      <c r="U136" s="5"/>
+      <c r="V136" s="5"/>
+    </row>
+    <row r="137" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -4066,8 +4788,12 @@
       <c r="P137" s="5"/>
       <c r="Q137" s="5"/>
       <c r="R137" s="5"/>
-    </row>
-    <row r="138" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S137" s="5"/>
+      <c r="T137" s="5"/>
+      <c r="U137" s="5"/>
+      <c r="V137" s="5"/>
+    </row>
+    <row r="138" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -4084,8 +4810,12 @@
       <c r="P138" s="5"/>
       <c r="Q138" s="5"/>
       <c r="R138" s="5"/>
-    </row>
-    <row r="139" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S138" s="5"/>
+      <c r="T138" s="5"/>
+      <c r="U138" s="5"/>
+      <c r="V138" s="5"/>
+    </row>
+    <row r="139" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -4102,8 +4832,12 @@
       <c r="P139" s="5"/>
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
-    </row>
-    <row r="140" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S139" s="5"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="5"/>
+      <c r="V139" s="5"/>
+    </row>
+    <row r="140" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -4120,8 +4854,12 @@
       <c r="P140" s="5"/>
       <c r="Q140" s="5"/>
       <c r="R140" s="5"/>
-    </row>
-    <row r="141" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S140" s="5"/>
+      <c r="T140" s="5"/>
+      <c r="U140" s="5"/>
+      <c r="V140" s="5"/>
+    </row>
+    <row r="141" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -4138,8 +4876,12 @@
       <c r="P141" s="5"/>
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
-    </row>
-    <row r="142" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S141" s="5"/>
+      <c r="T141" s="5"/>
+      <c r="U141" s="5"/>
+      <c r="V141" s="5"/>
+    </row>
+    <row r="142" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -4156,8 +4898,12 @@
       <c r="P142" s="5"/>
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
-    </row>
-    <row r="143" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S142" s="5"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5"/>
+      <c r="V142" s="5"/>
+    </row>
+    <row r="143" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -4174,8 +4920,12 @@
       <c r="P143" s="5"/>
       <c r="Q143" s="5"/>
       <c r="R143" s="5"/>
-    </row>
-    <row r="144" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S143" s="5"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="5"/>
+      <c r="V143" s="5"/>
+    </row>
+    <row r="144" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -4192,8 +4942,12 @@
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
       <c r="R144" s="5"/>
-    </row>
-    <row r="145" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S144" s="5"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="5"/>
+      <c r="V144" s="5"/>
+    </row>
+    <row r="145" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -4210,8 +4964,12 @@
       <c r="P145" s="5"/>
       <c r="Q145" s="5"/>
       <c r="R145" s="5"/>
-    </row>
-    <row r="146" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5"/>
+      <c r="V145" s="5"/>
+    </row>
+    <row r="146" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -4228,8 +4986,12 @@
       <c r="P146" s="5"/>
       <c r="Q146" s="5"/>
       <c r="R146" s="5"/>
-    </row>
-    <row r="147" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S146" s="5"/>
+      <c r="T146" s="5"/>
+      <c r="U146" s="5"/>
+      <c r="V146" s="5"/>
+    </row>
+    <row r="147" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -4246,8 +5008,12 @@
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
       <c r="R147" s="5"/>
-    </row>
-    <row r="148" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S147" s="5"/>
+      <c r="T147" s="5"/>
+      <c r="U147" s="5"/>
+      <c r="V147" s="5"/>
+    </row>
+    <row r="148" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -4264,8 +5030,12 @@
       <c r="P148" s="5"/>
       <c r="Q148" s="5"/>
       <c r="R148" s="5"/>
-    </row>
-    <row r="149" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S148" s="5"/>
+      <c r="T148" s="5"/>
+      <c r="U148" s="5"/>
+      <c r="V148" s="5"/>
+    </row>
+    <row r="149" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -4282,8 +5052,12 @@
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
-    </row>
-    <row r="150" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S149" s="5"/>
+      <c r="T149" s="5"/>
+      <c r="U149" s="5"/>
+      <c r="V149" s="5"/>
+    </row>
+    <row r="150" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -4300,8 +5074,12 @@
       <c r="P150" s="5"/>
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
-    </row>
-    <row r="151" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5"/>
+      <c r="V150" s="5"/>
+    </row>
+    <row r="151" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -4318,8 +5096,12 @@
       <c r="P151" s="5"/>
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
-    </row>
-    <row r="152" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S151" s="5"/>
+      <c r="T151" s="5"/>
+      <c r="U151" s="5"/>
+      <c r="V151" s="5"/>
+    </row>
+    <row r="152" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -4336,8 +5118,12 @@
       <c r="P152" s="5"/>
       <c r="Q152" s="5"/>
       <c r="R152" s="5"/>
-    </row>
-    <row r="153" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="5"/>
+      <c r="V152" s="5"/>
+    </row>
+    <row r="153" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -4354,8 +5140,12 @@
       <c r="P153" s="5"/>
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
-    </row>
-    <row r="154" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S153" s="5"/>
+      <c r="T153" s="5"/>
+      <c r="U153" s="5"/>
+      <c r="V153" s="5"/>
+    </row>
+    <row r="154" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -4372,8 +5162,12 @@
       <c r="P154" s="5"/>
       <c r="Q154" s="5"/>
       <c r="R154" s="5"/>
-    </row>
-    <row r="155" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S154" s="5"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="5"/>
+      <c r="V154" s="5"/>
+    </row>
+    <row r="155" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -4390,8 +5184,12 @@
       <c r="P155" s="5"/>
       <c r="Q155" s="5"/>
       <c r="R155" s="5"/>
-    </row>
-    <row r="156" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S155" s="5"/>
+      <c r="T155" s="5"/>
+      <c r="U155" s="5"/>
+      <c r="V155" s="5"/>
+    </row>
+    <row r="156" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -4408,8 +5206,12 @@
       <c r="P156" s="5"/>
       <c r="Q156" s="5"/>
       <c r="R156" s="5"/>
-    </row>
-    <row r="157" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S156" s="5"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="5"/>
+      <c r="V156" s="5"/>
+    </row>
+    <row r="157" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -4426,8 +5228,12 @@
       <c r="P157" s="5"/>
       <c r="Q157" s="5"/>
       <c r="R157" s="5"/>
-    </row>
-    <row r="158" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S157" s="5"/>
+      <c r="T157" s="5"/>
+      <c r="U157" s="5"/>
+      <c r="V157" s="5"/>
+    </row>
+    <row r="158" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -4444,8 +5250,12 @@
       <c r="P158" s="5"/>
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
-    </row>
-    <row r="159" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S158" s="5"/>
+      <c r="T158" s="5"/>
+      <c r="U158" s="5"/>
+      <c r="V158" s="5"/>
+    </row>
+    <row r="159" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -4462,8 +5272,12 @@
       <c r="P159" s="5"/>
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
-    </row>
-    <row r="160" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S159" s="5"/>
+      <c r="T159" s="5"/>
+      <c r="U159" s="5"/>
+      <c r="V159" s="5"/>
+    </row>
+    <row r="160" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -4480,8 +5294,12 @@
       <c r="P160" s="5"/>
       <c r="Q160" s="5"/>
       <c r="R160" s="5"/>
-    </row>
-    <row r="161" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S160" s="5"/>
+      <c r="T160" s="5"/>
+      <c r="U160" s="5"/>
+      <c r="V160" s="5"/>
+    </row>
+    <row r="161" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -4498,8 +5316,12 @@
       <c r="P161" s="5"/>
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
-    </row>
-    <row r="162" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S161" s="5"/>
+      <c r="T161" s="5"/>
+      <c r="U161" s="5"/>
+      <c r="V161" s="5"/>
+    </row>
+    <row r="162" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -4516,8 +5338,12 @@
       <c r="P162" s="5"/>
       <c r="Q162" s="5"/>
       <c r="R162" s="5"/>
-    </row>
-    <row r="163" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S162" s="5"/>
+      <c r="T162" s="5"/>
+      <c r="U162" s="5"/>
+      <c r="V162" s="5"/>
+    </row>
+    <row r="163" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -4534,8 +5360,12 @@
       <c r="P163" s="5"/>
       <c r="Q163" s="5"/>
       <c r="R163" s="5"/>
-    </row>
-    <row r="164" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S163" s="5"/>
+      <c r="T163" s="5"/>
+      <c r="U163" s="5"/>
+      <c r="V163" s="5"/>
+    </row>
+    <row r="164" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -4552,8 +5382,12 @@
       <c r="P164" s="5"/>
       <c r="Q164" s="5"/>
       <c r="R164" s="5"/>
-    </row>
-    <row r="165" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S164" s="5"/>
+      <c r="T164" s="5"/>
+      <c r="U164" s="5"/>
+      <c r="V164" s="5"/>
+    </row>
+    <row r="165" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -4570,8 +5404,12 @@
       <c r="P165" s="5"/>
       <c r="Q165" s="5"/>
       <c r="R165" s="5"/>
-    </row>
-    <row r="166" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S165" s="5"/>
+      <c r="T165" s="5"/>
+      <c r="U165" s="5"/>
+      <c r="V165" s="5"/>
+    </row>
+    <row r="166" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -4588,8 +5426,12 @@
       <c r="P166" s="5"/>
       <c r="Q166" s="5"/>
       <c r="R166" s="5"/>
-    </row>
-    <row r="167" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S166" s="5"/>
+      <c r="T166" s="5"/>
+      <c r="U166" s="5"/>
+      <c r="V166" s="5"/>
+    </row>
+    <row r="167" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -4606,8 +5448,12 @@
       <c r="P167" s="5"/>
       <c r="Q167" s="5"/>
       <c r="R167" s="5"/>
-    </row>
-    <row r="168" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S167" s="5"/>
+      <c r="T167" s="5"/>
+      <c r="U167" s="5"/>
+      <c r="V167" s="5"/>
+    </row>
+    <row r="168" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -4624,8 +5470,12 @@
       <c r="P168" s="5"/>
       <c r="Q168" s="5"/>
       <c r="R168" s="5"/>
-    </row>
-    <row r="169" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S168" s="5"/>
+      <c r="T168" s="5"/>
+      <c r="U168" s="5"/>
+      <c r="V168" s="5"/>
+    </row>
+    <row r="169" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -4642,8 +5492,12 @@
       <c r="P169" s="5"/>
       <c r="Q169" s="5"/>
       <c r="R169" s="5"/>
-    </row>
-    <row r="170" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S169" s="5"/>
+      <c r="T169" s="5"/>
+      <c r="U169" s="5"/>
+      <c r="V169" s="5"/>
+    </row>
+    <row r="170" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -4660,8 +5514,12 @@
       <c r="P170" s="5"/>
       <c r="Q170" s="5"/>
       <c r="R170" s="5"/>
-    </row>
-    <row r="171" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S170" s="5"/>
+      <c r="T170" s="5"/>
+      <c r="U170" s="5"/>
+      <c r="V170" s="5"/>
+    </row>
+    <row r="171" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -4678,8 +5536,12 @@
       <c r="P171" s="5"/>
       <c r="Q171" s="5"/>
       <c r="R171" s="5"/>
-    </row>
-    <row r="172" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S171" s="5"/>
+      <c r="T171" s="5"/>
+      <c r="U171" s="5"/>
+      <c r="V171" s="5"/>
+    </row>
+    <row r="172" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -4696,8 +5558,12 @@
       <c r="P172" s="5"/>
       <c r="Q172" s="5"/>
       <c r="R172" s="5"/>
-    </row>
-    <row r="173" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S172" s="5"/>
+      <c r="T172" s="5"/>
+      <c r="U172" s="5"/>
+      <c r="V172" s="5"/>
+    </row>
+    <row r="173" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -4714,8 +5580,12 @@
       <c r="P173" s="5"/>
       <c r="Q173" s="5"/>
       <c r="R173" s="5"/>
-    </row>
-    <row r="174" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S173" s="5"/>
+      <c r="T173" s="5"/>
+      <c r="U173" s="5"/>
+      <c r="V173" s="5"/>
+    </row>
+    <row r="174" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -4732,8 +5602,12 @@
       <c r="P174" s="5"/>
       <c r="Q174" s="5"/>
       <c r="R174" s="5"/>
-    </row>
-    <row r="175" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S174" s="5"/>
+      <c r="T174" s="5"/>
+      <c r="U174" s="5"/>
+      <c r="V174" s="5"/>
+    </row>
+    <row r="175" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -4750,8 +5624,12 @@
       <c r="P175" s="5"/>
       <c r="Q175" s="5"/>
       <c r="R175" s="5"/>
-    </row>
-    <row r="176" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S175" s="5"/>
+      <c r="T175" s="5"/>
+      <c r="U175" s="5"/>
+      <c r="V175" s="5"/>
+    </row>
+    <row r="176" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -4768,8 +5646,12 @@
       <c r="P176" s="5"/>
       <c r="Q176" s="5"/>
       <c r="R176" s="5"/>
-    </row>
-    <row r="177" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S176" s="5"/>
+      <c r="T176" s="5"/>
+      <c r="U176" s="5"/>
+      <c r="V176" s="5"/>
+    </row>
+    <row r="177" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -4786,8 +5668,12 @@
       <c r="P177" s="5"/>
       <c r="Q177" s="5"/>
       <c r="R177" s="5"/>
-    </row>
-    <row r="178" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S177" s="5"/>
+      <c r="T177" s="5"/>
+      <c r="U177" s="5"/>
+      <c r="V177" s="5"/>
+    </row>
+    <row r="178" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -4804,8 +5690,12 @@
       <c r="P178" s="5"/>
       <c r="Q178" s="5"/>
       <c r="R178" s="5"/>
-    </row>
-    <row r="179" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S178" s="5"/>
+      <c r="T178" s="5"/>
+      <c r="U178" s="5"/>
+      <c r="V178" s="5"/>
+    </row>
+    <row r="179" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -4822,8 +5712,12 @@
       <c r="P179" s="5"/>
       <c r="Q179" s="5"/>
       <c r="R179" s="5"/>
-    </row>
-    <row r="180" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S179" s="5"/>
+      <c r="T179" s="5"/>
+      <c r="U179" s="5"/>
+      <c r="V179" s="5"/>
+    </row>
+    <row r="180" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -4840,8 +5734,12 @@
       <c r="P180" s="5"/>
       <c r="Q180" s="5"/>
       <c r="R180" s="5"/>
-    </row>
-    <row r="181" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S180" s="5"/>
+      <c r="T180" s="5"/>
+      <c r="U180" s="5"/>
+      <c r="V180" s="5"/>
+    </row>
+    <row r="181" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -4858,8 +5756,12 @@
       <c r="P181" s="5"/>
       <c r="Q181" s="5"/>
       <c r="R181" s="5"/>
-    </row>
-    <row r="182" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S181" s="5"/>
+      <c r="T181" s="5"/>
+      <c r="U181" s="5"/>
+      <c r="V181" s="5"/>
+    </row>
+    <row r="182" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -4876,8 +5778,12 @@
       <c r="P182" s="5"/>
       <c r="Q182" s="5"/>
       <c r="R182" s="5"/>
-    </row>
-    <row r="183" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S182" s="5"/>
+      <c r="T182" s="5"/>
+      <c r="U182" s="5"/>
+      <c r="V182" s="5"/>
+    </row>
+    <row r="183" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -4894,8 +5800,12 @@
       <c r="P183" s="5"/>
       <c r="Q183" s="5"/>
       <c r="R183" s="5"/>
-    </row>
-    <row r="184" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S183" s="5"/>
+      <c r="T183" s="5"/>
+      <c r="U183" s="5"/>
+      <c r="V183" s="5"/>
+    </row>
+    <row r="184" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -4912,8 +5822,12 @@
       <c r="P184" s="5"/>
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
-    </row>
-    <row r="185" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S184" s="5"/>
+      <c r="T184" s="5"/>
+      <c r="U184" s="5"/>
+      <c r="V184" s="5"/>
+    </row>
+    <row r="185" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -4930,8 +5844,12 @@
       <c r="P185" s="5"/>
       <c r="Q185" s="5"/>
       <c r="R185" s="5"/>
-    </row>
-    <row r="186" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S185" s="5"/>
+      <c r="T185" s="5"/>
+      <c r="U185" s="5"/>
+      <c r="V185" s="5"/>
+    </row>
+    <row r="186" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -4948,8 +5866,12 @@
       <c r="P186" s="5"/>
       <c r="Q186" s="5"/>
       <c r="R186" s="5"/>
-    </row>
-    <row r="187" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S186" s="5"/>
+      <c r="T186" s="5"/>
+      <c r="U186" s="5"/>
+      <c r="V186" s="5"/>
+    </row>
+    <row r="187" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -4966,8 +5888,12 @@
       <c r="P187" s="5"/>
       <c r="Q187" s="5"/>
       <c r="R187" s="5"/>
-    </row>
-    <row r="188" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S187" s="5"/>
+      <c r="T187" s="5"/>
+      <c r="U187" s="5"/>
+      <c r="V187" s="5"/>
+    </row>
+    <row r="188" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -4984,8 +5910,12 @@
       <c r="P188" s="5"/>
       <c r="Q188" s="5"/>
       <c r="R188" s="5"/>
-    </row>
-    <row r="189" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S188" s="5"/>
+      <c r="T188" s="5"/>
+      <c r="U188" s="5"/>
+      <c r="V188" s="5"/>
+    </row>
+    <row r="189" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -5002,8 +5932,12 @@
       <c r="P189" s="5"/>
       <c r="Q189" s="5"/>
       <c r="R189" s="5"/>
-    </row>
-    <row r="190" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S189" s="5"/>
+      <c r="T189" s="5"/>
+      <c r="U189" s="5"/>
+      <c r="V189" s="5"/>
+    </row>
+    <row r="190" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -5020,8 +5954,12 @@
       <c r="P190" s="5"/>
       <c r="Q190" s="5"/>
       <c r="R190" s="5"/>
-    </row>
-    <row r="191" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S190" s="5"/>
+      <c r="T190" s="5"/>
+      <c r="U190" s="5"/>
+      <c r="V190" s="5"/>
+    </row>
+    <row r="191" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -5038,8 +5976,12 @@
       <c r="P191" s="5"/>
       <c r="Q191" s="5"/>
       <c r="R191" s="5"/>
-    </row>
-    <row r="192" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S191" s="5"/>
+      <c r="T191" s="5"/>
+      <c r="U191" s="5"/>
+      <c r="V191" s="5"/>
+    </row>
+    <row r="192" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -5056,8 +5998,12 @@
       <c r="P192" s="5"/>
       <c r="Q192" s="5"/>
       <c r="R192" s="5"/>
-    </row>
-    <row r="193" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S192" s="5"/>
+      <c r="T192" s="5"/>
+      <c r="U192" s="5"/>
+      <c r="V192" s="5"/>
+    </row>
+    <row r="193" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -5074,8 +6020,12 @@
       <c r="P193" s="5"/>
       <c r="Q193" s="5"/>
       <c r="R193" s="5"/>
-    </row>
-    <row r="194" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S193" s="5"/>
+      <c r="T193" s="5"/>
+      <c r="U193" s="5"/>
+      <c r="V193" s="5"/>
+    </row>
+    <row r="194" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -5092,8 +6042,12 @@
       <c r="P194" s="5"/>
       <c r="Q194" s="5"/>
       <c r="R194" s="5"/>
-    </row>
-    <row r="195" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S194" s="5"/>
+      <c r="T194" s="5"/>
+      <c r="U194" s="5"/>
+      <c r="V194" s="5"/>
+    </row>
+    <row r="195" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -5110,8 +6064,12 @@
       <c r="P195" s="5"/>
       <c r="Q195" s="5"/>
       <c r="R195" s="5"/>
-    </row>
-    <row r="196" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S195" s="5"/>
+      <c r="T195" s="5"/>
+      <c r="U195" s="5"/>
+      <c r="V195" s="5"/>
+    </row>
+    <row r="196" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -5128,8 +6086,12 @@
       <c r="P196" s="5"/>
       <c r="Q196" s="5"/>
       <c r="R196" s="5"/>
-    </row>
-    <row r="197" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S196" s="5"/>
+      <c r="T196" s="5"/>
+      <c r="U196" s="5"/>
+      <c r="V196" s="5"/>
+    </row>
+    <row r="197" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -5146,8 +6108,12 @@
       <c r="P197" s="5"/>
       <c r="Q197" s="5"/>
       <c r="R197" s="5"/>
-    </row>
-    <row r="198" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S197" s="5"/>
+      <c r="T197" s="5"/>
+      <c r="U197" s="5"/>
+      <c r="V197" s="5"/>
+    </row>
+    <row r="198" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -5164,8 +6130,12 @@
       <c r="P198" s="5"/>
       <c r="Q198" s="5"/>
       <c r="R198" s="5"/>
-    </row>
-    <row r="199" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S198" s="5"/>
+      <c r="T198" s="5"/>
+      <c r="U198" s="5"/>
+      <c r="V198" s="5"/>
+    </row>
+    <row r="199" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -5182,8 +6152,12 @@
       <c r="P199" s="5"/>
       <c r="Q199" s="5"/>
       <c r="R199" s="5"/>
-    </row>
-    <row r="200" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S199" s="5"/>
+      <c r="T199" s="5"/>
+      <c r="U199" s="5"/>
+      <c r="V199" s="5"/>
+    </row>
+    <row r="200" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -5200,8 +6174,12 @@
       <c r="P200" s="5"/>
       <c r="Q200" s="5"/>
       <c r="R200" s="5"/>
-    </row>
-    <row r="201" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S200" s="5"/>
+      <c r="T200" s="5"/>
+      <c r="U200" s="5"/>
+      <c r="V200" s="5"/>
+    </row>
+    <row r="201" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -5218,8 +6196,12 @@
       <c r="P201" s="5"/>
       <c r="Q201" s="5"/>
       <c r="R201" s="5"/>
-    </row>
-    <row r="202" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S201" s="5"/>
+      <c r="T201" s="5"/>
+      <c r="U201" s="5"/>
+      <c r="V201" s="5"/>
+    </row>
+    <row r="202" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -5236,8 +6218,12 @@
       <c r="P202" s="5"/>
       <c r="Q202" s="5"/>
       <c r="R202" s="5"/>
-    </row>
-    <row r="203" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S202" s="5"/>
+      <c r="T202" s="5"/>
+      <c r="U202" s="5"/>
+      <c r="V202" s="5"/>
+    </row>
+    <row r="203" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -5254,8 +6240,12 @@
       <c r="P203" s="5"/>
       <c r="Q203" s="5"/>
       <c r="R203" s="5"/>
-    </row>
-    <row r="204" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S203" s="5"/>
+      <c r="T203" s="5"/>
+      <c r="U203" s="5"/>
+      <c r="V203" s="5"/>
+    </row>
+    <row r="204" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -5272,8 +6262,12 @@
       <c r="P204" s="5"/>
       <c r="Q204" s="5"/>
       <c r="R204" s="5"/>
-    </row>
-    <row r="205" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S204" s="5"/>
+      <c r="T204" s="5"/>
+      <c r="U204" s="5"/>
+      <c r="V204" s="5"/>
+    </row>
+    <row r="205" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -5290,8 +6284,12 @@
       <c r="P205" s="5"/>
       <c r="Q205" s="5"/>
       <c r="R205" s="5"/>
-    </row>
-    <row r="206" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S205" s="5"/>
+      <c r="T205" s="5"/>
+      <c r="U205" s="5"/>
+      <c r="V205" s="5"/>
+    </row>
+    <row r="206" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -5308,8 +6306,12 @@
       <c r="P206" s="5"/>
       <c r="Q206" s="5"/>
       <c r="R206" s="5"/>
-    </row>
-    <row r="207" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S206" s="5"/>
+      <c r="T206" s="5"/>
+      <c r="U206" s="5"/>
+      <c r="V206" s="5"/>
+    </row>
+    <row r="207" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -5326,8 +6328,12 @@
       <c r="P207" s="5"/>
       <c r="Q207" s="5"/>
       <c r="R207" s="5"/>
-    </row>
-    <row r="208" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S207" s="5"/>
+      <c r="T207" s="5"/>
+      <c r="U207" s="5"/>
+      <c r="V207" s="5"/>
+    </row>
+    <row r="208" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -5344,8 +6350,12 @@
       <c r="P208" s="5"/>
       <c r="Q208" s="5"/>
       <c r="R208" s="5"/>
-    </row>
-    <row r="209" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S208" s="5"/>
+      <c r="T208" s="5"/>
+      <c r="U208" s="5"/>
+      <c r="V208" s="5"/>
+    </row>
+    <row r="209" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -5362,8 +6372,12 @@
       <c r="P209" s="5"/>
       <c r="Q209" s="5"/>
       <c r="R209" s="5"/>
-    </row>
-    <row r="210" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S209" s="5"/>
+      <c r="T209" s="5"/>
+      <c r="U209" s="5"/>
+      <c r="V209" s="5"/>
+    </row>
+    <row r="210" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -5380,8 +6394,12 @@
       <c r="P210" s="5"/>
       <c r="Q210" s="5"/>
       <c r="R210" s="5"/>
-    </row>
-    <row r="211" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S210" s="5"/>
+      <c r="T210" s="5"/>
+      <c r="U210" s="5"/>
+      <c r="V210" s="5"/>
+    </row>
+    <row r="211" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -5398,8 +6416,12 @@
       <c r="P211" s="5"/>
       <c r="Q211" s="5"/>
       <c r="R211" s="5"/>
-    </row>
-    <row r="212" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S211" s="5"/>
+      <c r="T211" s="5"/>
+      <c r="U211" s="5"/>
+      <c r="V211" s="5"/>
+    </row>
+    <row r="212" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -5416,8 +6438,12 @@
       <c r="P212" s="5"/>
       <c r="Q212" s="5"/>
       <c r="R212" s="5"/>
-    </row>
-    <row r="213" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S212" s="5"/>
+      <c r="T212" s="5"/>
+      <c r="U212" s="5"/>
+      <c r="V212" s="5"/>
+    </row>
+    <row r="213" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -5434,8 +6460,12 @@
       <c r="P213" s="5"/>
       <c r="Q213" s="5"/>
       <c r="R213" s="5"/>
-    </row>
-    <row r="214" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S213" s="5"/>
+      <c r="T213" s="5"/>
+      <c r="U213" s="5"/>
+      <c r="V213" s="5"/>
+    </row>
+    <row r="214" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -5452,8 +6482,12 @@
       <c r="P214" s="5"/>
       <c r="Q214" s="5"/>
       <c r="R214" s="5"/>
-    </row>
-    <row r="215" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S214" s="5"/>
+      <c r="T214" s="5"/>
+      <c r="U214" s="5"/>
+      <c r="V214" s="5"/>
+    </row>
+    <row r="215" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -5470,8 +6504,12 @@
       <c r="P215" s="5"/>
       <c r="Q215" s="5"/>
       <c r="R215" s="5"/>
-    </row>
-    <row r="216" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S215" s="5"/>
+      <c r="T215" s="5"/>
+      <c r="U215" s="5"/>
+      <c r="V215" s="5"/>
+    </row>
+    <row r="216" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -5488,8 +6526,12 @@
       <c r="P216" s="5"/>
       <c r="Q216" s="5"/>
       <c r="R216" s="5"/>
-    </row>
-    <row r="217" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S216" s="5"/>
+      <c r="T216" s="5"/>
+      <c r="U216" s="5"/>
+      <c r="V216" s="5"/>
+    </row>
+    <row r="217" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -5506,8 +6548,12 @@
       <c r="P217" s="5"/>
       <c r="Q217" s="5"/>
       <c r="R217" s="5"/>
-    </row>
-    <row r="218" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S217" s="5"/>
+      <c r="T217" s="5"/>
+      <c r="U217" s="5"/>
+      <c r="V217" s="5"/>
+    </row>
+    <row r="218" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -5524,8 +6570,12 @@
       <c r="P218" s="5"/>
       <c r="Q218" s="5"/>
       <c r="R218" s="5"/>
-    </row>
-    <row r="219" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S218" s="5"/>
+      <c r="T218" s="5"/>
+      <c r="U218" s="5"/>
+      <c r="V218" s="5"/>
+    </row>
+    <row r="219" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -5542,8 +6592,12 @@
       <c r="P219" s="5"/>
       <c r="Q219" s="5"/>
       <c r="R219" s="5"/>
-    </row>
-    <row r="220" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S219" s="5"/>
+      <c r="T219" s="5"/>
+      <c r="U219" s="5"/>
+      <c r="V219" s="5"/>
+    </row>
+    <row r="220" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -5560,8 +6614,12 @@
       <c r="P220" s="5"/>
       <c r="Q220" s="5"/>
       <c r="R220" s="5"/>
-    </row>
-    <row r="221" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S220" s="5"/>
+      <c r="T220" s="5"/>
+      <c r="U220" s="5"/>
+      <c r="V220" s="5"/>
+    </row>
+    <row r="221" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -5578,8 +6636,12 @@
       <c r="P221" s="5"/>
       <c r="Q221" s="5"/>
       <c r="R221" s="5"/>
-    </row>
-    <row r="222" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S221" s="5"/>
+      <c r="T221" s="5"/>
+      <c r="U221" s="5"/>
+      <c r="V221" s="5"/>
+    </row>
+    <row r="222" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -5596,8 +6658,12 @@
       <c r="P222" s="5"/>
       <c r="Q222" s="5"/>
       <c r="R222" s="5"/>
-    </row>
-    <row r="223" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S222" s="5"/>
+      <c r="T222" s="5"/>
+      <c r="U222" s="5"/>
+      <c r="V222" s="5"/>
+    </row>
+    <row r="223" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -5614,8 +6680,12 @@
       <c r="P223" s="5"/>
       <c r="Q223" s="5"/>
       <c r="R223" s="5"/>
-    </row>
-    <row r="224" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S223" s="5"/>
+      <c r="T223" s="5"/>
+      <c r="U223" s="5"/>
+      <c r="V223" s="5"/>
+    </row>
+    <row r="224" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -5632,8 +6702,12 @@
       <c r="P224" s="5"/>
       <c r="Q224" s="5"/>
       <c r="R224" s="5"/>
-    </row>
-    <row r="225" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S224" s="5"/>
+      <c r="T224" s="5"/>
+      <c r="U224" s="5"/>
+      <c r="V224" s="5"/>
+    </row>
+    <row r="225" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -5650,8 +6724,12 @@
       <c r="P225" s="5"/>
       <c r="Q225" s="5"/>
       <c r="R225" s="5"/>
-    </row>
-    <row r="226" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S225" s="5"/>
+      <c r="T225" s="5"/>
+      <c r="U225" s="5"/>
+      <c r="V225" s="5"/>
+    </row>
+    <row r="226" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -5668,8 +6746,12 @@
       <c r="P226" s="5"/>
       <c r="Q226" s="5"/>
       <c r="R226" s="5"/>
-    </row>
-    <row r="227" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S226" s="5"/>
+      <c r="T226" s="5"/>
+      <c r="U226" s="5"/>
+      <c r="V226" s="5"/>
+    </row>
+    <row r="227" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -5686,8 +6768,12 @@
       <c r="P227" s="5"/>
       <c r="Q227" s="5"/>
       <c r="R227" s="5"/>
-    </row>
-    <row r="228" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S227" s="5"/>
+      <c r="T227" s="5"/>
+      <c r="U227" s="5"/>
+      <c r="V227" s="5"/>
+    </row>
+    <row r="228" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -5704,8 +6790,12 @@
       <c r="P228" s="5"/>
       <c r="Q228" s="5"/>
       <c r="R228" s="5"/>
-    </row>
-    <row r="229" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S228" s="5"/>
+      <c r="T228" s="5"/>
+      <c r="U228" s="5"/>
+      <c r="V228" s="5"/>
+    </row>
+    <row r="229" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -5722,8 +6812,12 @@
       <c r="P229" s="5"/>
       <c r="Q229" s="5"/>
       <c r="R229" s="5"/>
-    </row>
-    <row r="230" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S229" s="5"/>
+      <c r="T229" s="5"/>
+      <c r="U229" s="5"/>
+      <c r="V229" s="5"/>
+    </row>
+    <row r="230" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -5740,8 +6834,12 @@
       <c r="P230" s="5"/>
       <c r="Q230" s="5"/>
       <c r="R230" s="5"/>
-    </row>
-    <row r="231" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S230" s="5"/>
+      <c r="T230" s="5"/>
+      <c r="U230" s="5"/>
+      <c r="V230" s="5"/>
+    </row>
+    <row r="231" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -5758,8 +6856,12 @@
       <c r="P231" s="5"/>
       <c r="Q231" s="5"/>
       <c r="R231" s="5"/>
-    </row>
-    <row r="232" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S231" s="5"/>
+      <c r="T231" s="5"/>
+      <c r="U231" s="5"/>
+      <c r="V231" s="5"/>
+    </row>
+    <row r="232" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -5776,8 +6878,12 @@
       <c r="P232" s="5"/>
       <c r="Q232" s="5"/>
       <c r="R232" s="5"/>
-    </row>
-    <row r="233" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S232" s="5"/>
+      <c r="T232" s="5"/>
+      <c r="U232" s="5"/>
+      <c r="V232" s="5"/>
+    </row>
+    <row r="233" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -5794,8 +6900,12 @@
       <c r="P233" s="5"/>
       <c r="Q233" s="5"/>
       <c r="R233" s="5"/>
-    </row>
-    <row r="234" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S233" s="5"/>
+      <c r="T233" s="5"/>
+      <c r="U233" s="5"/>
+      <c r="V233" s="5"/>
+    </row>
+    <row r="234" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -5812,8 +6922,12 @@
       <c r="P234" s="5"/>
       <c r="Q234" s="5"/>
       <c r="R234" s="5"/>
-    </row>
-    <row r="235" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S234" s="5"/>
+      <c r="T234" s="5"/>
+      <c r="U234" s="5"/>
+      <c r="V234" s="5"/>
+    </row>
+    <row r="235" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -5830,8 +6944,12 @@
       <c r="P235" s="5"/>
       <c r="Q235" s="5"/>
       <c r="R235" s="5"/>
-    </row>
-    <row r="236" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S235" s="5"/>
+      <c r="T235" s="5"/>
+      <c r="U235" s="5"/>
+      <c r="V235" s="5"/>
+    </row>
+    <row r="236" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -5848,8 +6966,12 @@
       <c r="P236" s="5"/>
       <c r="Q236" s="5"/>
       <c r="R236" s="5"/>
-    </row>
-    <row r="237" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S236" s="5"/>
+      <c r="T236" s="5"/>
+      <c r="U236" s="5"/>
+      <c r="V236" s="5"/>
+    </row>
+    <row r="237" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -5866,8 +6988,12 @@
       <c r="P237" s="5"/>
       <c r="Q237" s="5"/>
       <c r="R237" s="5"/>
-    </row>
-    <row r="238" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S237" s="5"/>
+      <c r="T237" s="5"/>
+      <c r="U237" s="5"/>
+      <c r="V237" s="5"/>
+    </row>
+    <row r="238" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -5884,8 +7010,12 @@
       <c r="P238" s="5"/>
       <c r="Q238" s="5"/>
       <c r="R238" s="5"/>
-    </row>
-    <row r="239" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S238" s="5"/>
+      <c r="T238" s="5"/>
+      <c r="U238" s="5"/>
+      <c r="V238" s="5"/>
+    </row>
+    <row r="239" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -5902,8 +7032,12 @@
       <c r="P239" s="5"/>
       <c r="Q239" s="5"/>
       <c r="R239" s="5"/>
-    </row>
-    <row r="240" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S239" s="5"/>
+      <c r="T239" s="5"/>
+      <c r="U239" s="5"/>
+      <c r="V239" s="5"/>
+    </row>
+    <row r="240" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -5920,8 +7054,12 @@
       <c r="P240" s="5"/>
       <c r="Q240" s="5"/>
       <c r="R240" s="5"/>
-    </row>
-    <row r="241" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S240" s="5"/>
+      <c r="T240" s="5"/>
+      <c r="U240" s="5"/>
+      <c r="V240" s="5"/>
+    </row>
+    <row r="241" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -5938,8 +7076,12 @@
       <c r="P241" s="5"/>
       <c r="Q241" s="5"/>
       <c r="R241" s="5"/>
-    </row>
-    <row r="242" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S241" s="5"/>
+      <c r="T241" s="5"/>
+      <c r="U241" s="5"/>
+      <c r="V241" s="5"/>
+    </row>
+    <row r="242" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -5956,8 +7098,12 @@
       <c r="P242" s="5"/>
       <c r="Q242" s="5"/>
       <c r="R242" s="5"/>
-    </row>
-    <row r="243" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S242" s="5"/>
+      <c r="T242" s="5"/>
+      <c r="U242" s="5"/>
+      <c r="V242" s="5"/>
+    </row>
+    <row r="243" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -5974,8 +7120,12 @@
       <c r="P243" s="5"/>
       <c r="Q243" s="5"/>
       <c r="R243" s="5"/>
-    </row>
-    <row r="244" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S243" s="5"/>
+      <c r="T243" s="5"/>
+      <c r="U243" s="5"/>
+      <c r="V243" s="5"/>
+    </row>
+    <row r="244" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -5992,8 +7142,12 @@
       <c r="P244" s="5"/>
       <c r="Q244" s="5"/>
       <c r="R244" s="5"/>
-    </row>
-    <row r="245" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S244" s="5"/>
+      <c r="T244" s="5"/>
+      <c r="U244" s="5"/>
+      <c r="V244" s="5"/>
+    </row>
+    <row r="245" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -6010,8 +7164,12 @@
       <c r="P245" s="5"/>
       <c r="Q245" s="5"/>
       <c r="R245" s="5"/>
-    </row>
-    <row r="246" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S245" s="5"/>
+      <c r="T245" s="5"/>
+      <c r="U245" s="5"/>
+      <c r="V245" s="5"/>
+    </row>
+    <row r="246" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -6028,8 +7186,12 @@
       <c r="P246" s="5"/>
       <c r="Q246" s="5"/>
       <c r="R246" s="5"/>
-    </row>
-    <row r="247" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S246" s="5"/>
+      <c r="T246" s="5"/>
+      <c r="U246" s="5"/>
+      <c r="V246" s="5"/>
+    </row>
+    <row r="247" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -6046,8 +7208,12 @@
       <c r="P247" s="5"/>
       <c r="Q247" s="5"/>
       <c r="R247" s="5"/>
-    </row>
-    <row r="248" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S247" s="5"/>
+      <c r="T247" s="5"/>
+      <c r="U247" s="5"/>
+      <c r="V247" s="5"/>
+    </row>
+    <row r="248" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -6064,8 +7230,12 @@
       <c r="P248" s="5"/>
       <c r="Q248" s="5"/>
       <c r="R248" s="5"/>
-    </row>
-    <row r="249" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S248" s="5"/>
+      <c r="T248" s="5"/>
+      <c r="U248" s="5"/>
+      <c r="V248" s="5"/>
+    </row>
+    <row r="249" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -6082,8 +7252,12 @@
       <c r="P249" s="5"/>
       <c r="Q249" s="5"/>
       <c r="R249" s="5"/>
-    </row>
-    <row r="250" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S249" s="5"/>
+      <c r="T249" s="5"/>
+      <c r="U249" s="5"/>
+      <c r="V249" s="5"/>
+    </row>
+    <row r="250" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -6100,8 +7274,12 @@
       <c r="P250" s="5"/>
       <c r="Q250" s="5"/>
       <c r="R250" s="5"/>
-    </row>
-    <row r="251" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S250" s="5"/>
+      <c r="T250" s="5"/>
+      <c r="U250" s="5"/>
+      <c r="V250" s="5"/>
+    </row>
+    <row r="251" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -6118,8 +7296,12 @@
       <c r="P251" s="5"/>
       <c r="Q251" s="5"/>
       <c r="R251" s="5"/>
-    </row>
-    <row r="252" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S251" s="5"/>
+      <c r="T251" s="5"/>
+      <c r="U251" s="5"/>
+      <c r="V251" s="5"/>
+    </row>
+    <row r="252" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -6136,8 +7318,12 @@
       <c r="P252" s="5"/>
       <c r="Q252" s="5"/>
       <c r="R252" s="5"/>
-    </row>
-    <row r="253" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S252" s="5"/>
+      <c r="T252" s="5"/>
+      <c r="U252" s="5"/>
+      <c r="V252" s="5"/>
+    </row>
+    <row r="253" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -6154,8 +7340,12 @@
       <c r="P253" s="5"/>
       <c r="Q253" s="5"/>
       <c r="R253" s="5"/>
-    </row>
-    <row r="254" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S253" s="5"/>
+      <c r="T253" s="5"/>
+      <c r="U253" s="5"/>
+      <c r="V253" s="5"/>
+    </row>
+    <row r="254" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -6172,8 +7362,12 @@
       <c r="P254" s="5"/>
       <c r="Q254" s="5"/>
       <c r="R254" s="5"/>
-    </row>
-    <row r="255" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S254" s="5"/>
+      <c r="T254" s="5"/>
+      <c r="U254" s="5"/>
+      <c r="V254" s="5"/>
+    </row>
+    <row r="255" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -6190,8 +7384,12 @@
       <c r="P255" s="5"/>
       <c r="Q255" s="5"/>
       <c r="R255" s="5"/>
-    </row>
-    <row r="256" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S255" s="5"/>
+      <c r="T255" s="5"/>
+      <c r="U255" s="5"/>
+      <c r="V255" s="5"/>
+    </row>
+    <row r="256" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -6208,8 +7406,12 @@
       <c r="P256" s="5"/>
       <c r="Q256" s="5"/>
       <c r="R256" s="5"/>
-    </row>
-    <row r="257" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S256" s="5"/>
+      <c r="T256" s="5"/>
+      <c r="U256" s="5"/>
+      <c r="V256" s="5"/>
+    </row>
+    <row r="257" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
@@ -6226,8 +7428,12 @@
       <c r="P257" s="5"/>
       <c r="Q257" s="5"/>
       <c r="R257" s="5"/>
-    </row>
-    <row r="258" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S257" s="5"/>
+      <c r="T257" s="5"/>
+      <c r="U257" s="5"/>
+      <c r="V257" s="5"/>
+    </row>
+    <row r="258" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -6244,8 +7450,12 @@
       <c r="P258" s="5"/>
       <c r="Q258" s="5"/>
       <c r="R258" s="5"/>
-    </row>
-    <row r="259" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S258" s="5"/>
+      <c r="T258" s="5"/>
+      <c r="U258" s="5"/>
+      <c r="V258" s="5"/>
+    </row>
+    <row r="259" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -6262,8 +7472,12 @@
       <c r="P259" s="5"/>
       <c r="Q259" s="5"/>
       <c r="R259" s="5"/>
-    </row>
-    <row r="260" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S259" s="5"/>
+      <c r="T259" s="5"/>
+      <c r="U259" s="5"/>
+      <c r="V259" s="5"/>
+    </row>
+    <row r="260" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -6280,8 +7494,12 @@
       <c r="P260" s="5"/>
       <c r="Q260" s="5"/>
       <c r="R260" s="5"/>
-    </row>
-    <row r="261" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S260" s="5"/>
+      <c r="T260" s="5"/>
+      <c r="U260" s="5"/>
+      <c r="V260" s="5"/>
+    </row>
+    <row r="261" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -6298,8 +7516,12 @@
       <c r="P261" s="5"/>
       <c r="Q261" s="5"/>
       <c r="R261" s="5"/>
-    </row>
-    <row r="262" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S261" s="5"/>
+      <c r="T261" s="5"/>
+      <c r="U261" s="5"/>
+      <c r="V261" s="5"/>
+    </row>
+    <row r="262" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -6316,8 +7538,12 @@
       <c r="P262" s="5"/>
       <c r="Q262" s="5"/>
       <c r="R262" s="5"/>
-    </row>
-    <row r="263" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S262" s="5"/>
+      <c r="T262" s="5"/>
+      <c r="U262" s="5"/>
+      <c r="V262" s="5"/>
+    </row>
+    <row r="263" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
@@ -6334,8 +7560,12 @@
       <c r="P263" s="5"/>
       <c r="Q263" s="5"/>
       <c r="R263" s="5"/>
-    </row>
-    <row r="264" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S263" s="5"/>
+      <c r="T263" s="5"/>
+      <c r="U263" s="5"/>
+      <c r="V263" s="5"/>
+    </row>
+    <row r="264" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
@@ -6352,8 +7582,12 @@
       <c r="P264" s="5"/>
       <c r="Q264" s="5"/>
       <c r="R264" s="5"/>
-    </row>
-    <row r="265" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S264" s="5"/>
+      <c r="T264" s="5"/>
+      <c r="U264" s="5"/>
+      <c r="V264" s="5"/>
+    </row>
+    <row r="265" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
@@ -6370,8 +7604,12 @@
       <c r="P265" s="5"/>
       <c r="Q265" s="5"/>
       <c r="R265" s="5"/>
-    </row>
-    <row r="266" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S265" s="5"/>
+      <c r="T265" s="5"/>
+      <c r="U265" s="5"/>
+      <c r="V265" s="5"/>
+    </row>
+    <row r="266" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -6388,8 +7626,12 @@
       <c r="P266" s="5"/>
       <c r="Q266" s="5"/>
       <c r="R266" s="5"/>
-    </row>
-    <row r="267" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S266" s="5"/>
+      <c r="T266" s="5"/>
+      <c r="U266" s="5"/>
+      <c r="V266" s="5"/>
+    </row>
+    <row r="267" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -6406,8 +7648,12 @@
       <c r="P267" s="5"/>
       <c r="Q267" s="5"/>
       <c r="R267" s="5"/>
-    </row>
-    <row r="268" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S267" s="5"/>
+      <c r="T267" s="5"/>
+      <c r="U267" s="5"/>
+      <c r="V267" s="5"/>
+    </row>
+    <row r="268" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
@@ -6424,8 +7670,12 @@
       <c r="P268" s="5"/>
       <c r="Q268" s="5"/>
       <c r="R268" s="5"/>
-    </row>
-    <row r="269" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S268" s="5"/>
+      <c r="T268" s="5"/>
+      <c r="U268" s="5"/>
+      <c r="V268" s="5"/>
+    </row>
+    <row r="269" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
@@ -6442,8 +7692,12 @@
       <c r="P269" s="5"/>
       <c r="Q269" s="5"/>
       <c r="R269" s="5"/>
-    </row>
-    <row r="270" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S269" s="5"/>
+      <c r="T269" s="5"/>
+      <c r="U269" s="5"/>
+      <c r="V269" s="5"/>
+    </row>
+    <row r="270" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
@@ -6460,8 +7714,12 @@
       <c r="P270" s="5"/>
       <c r="Q270" s="5"/>
       <c r="R270" s="5"/>
-    </row>
-    <row r="271" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S270" s="5"/>
+      <c r="T270" s="5"/>
+      <c r="U270" s="5"/>
+      <c r="V270" s="5"/>
+    </row>
+    <row r="271" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
@@ -6478,8 +7736,12 @@
       <c r="P271" s="5"/>
       <c r="Q271" s="5"/>
       <c r="R271" s="5"/>
-    </row>
-    <row r="272" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S271" s="5"/>
+      <c r="T271" s="5"/>
+      <c r="U271" s="5"/>
+      <c r="V271" s="5"/>
+    </row>
+    <row r="272" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
@@ -6496,8 +7758,12 @@
       <c r="P272" s="5"/>
       <c r="Q272" s="5"/>
       <c r="R272" s="5"/>
-    </row>
-    <row r="273" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S272" s="5"/>
+      <c r="T272" s="5"/>
+      <c r="U272" s="5"/>
+      <c r="V272" s="5"/>
+    </row>
+    <row r="273" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
@@ -6514,8 +7780,12 @@
       <c r="P273" s="5"/>
       <c r="Q273" s="5"/>
       <c r="R273" s="5"/>
-    </row>
-    <row r="274" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S273" s="5"/>
+      <c r="T273" s="5"/>
+      <c r="U273" s="5"/>
+      <c r="V273" s="5"/>
+    </row>
+    <row r="274" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
@@ -6532,8 +7802,12 @@
       <c r="P274" s="5"/>
       <c r="Q274" s="5"/>
       <c r="R274" s="5"/>
-    </row>
-    <row r="275" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S274" s="5"/>
+      <c r="T274" s="5"/>
+      <c r="U274" s="5"/>
+      <c r="V274" s="5"/>
+    </row>
+    <row r="275" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -6550,8 +7824,12 @@
       <c r="P275" s="5"/>
       <c r="Q275" s="5"/>
       <c r="R275" s="5"/>
-    </row>
-    <row r="276" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S275" s="5"/>
+      <c r="T275" s="5"/>
+      <c r="U275" s="5"/>
+      <c r="V275" s="5"/>
+    </row>
+    <row r="276" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -6568,8 +7846,12 @@
       <c r="P276" s="5"/>
       <c r="Q276" s="5"/>
       <c r="R276" s="5"/>
-    </row>
-    <row r="277" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S276" s="5"/>
+      <c r="T276" s="5"/>
+      <c r="U276" s="5"/>
+      <c r="V276" s="5"/>
+    </row>
+    <row r="277" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
@@ -6586,8 +7868,12 @@
       <c r="P277" s="5"/>
       <c r="Q277" s="5"/>
       <c r="R277" s="5"/>
-    </row>
-    <row r="278" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S277" s="5"/>
+      <c r="T277" s="5"/>
+      <c r="U277" s="5"/>
+      <c r="V277" s="5"/>
+    </row>
+    <row r="278" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
@@ -6604,8 +7890,12 @@
       <c r="P278" s="5"/>
       <c r="Q278" s="5"/>
       <c r="R278" s="5"/>
-    </row>
-    <row r="279" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S278" s="5"/>
+      <c r="T278" s="5"/>
+      <c r="U278" s="5"/>
+      <c r="V278" s="5"/>
+    </row>
+    <row r="279" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
@@ -6622,8 +7912,12 @@
       <c r="P279" s="5"/>
       <c r="Q279" s="5"/>
       <c r="R279" s="5"/>
-    </row>
-    <row r="280" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S279" s="5"/>
+      <c r="T279" s="5"/>
+      <c r="U279" s="5"/>
+      <c r="V279" s="5"/>
+    </row>
+    <row r="280" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
@@ -6640,8 +7934,12 @@
       <c r="P280" s="5"/>
       <c r="Q280" s="5"/>
       <c r="R280" s="5"/>
-    </row>
-    <row r="281" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S280" s="5"/>
+      <c r="T280" s="5"/>
+      <c r="U280" s="5"/>
+      <c r="V280" s="5"/>
+    </row>
+    <row r="281" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
@@ -6658,8 +7956,12 @@
       <c r="P281" s="5"/>
       <c r="Q281" s="5"/>
       <c r="R281" s="5"/>
-    </row>
-    <row r="282" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S281" s="5"/>
+      <c r="T281" s="5"/>
+      <c r="U281" s="5"/>
+      <c r="V281" s="5"/>
+    </row>
+    <row r="282" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
@@ -6676,8 +7978,12 @@
       <c r="P282" s="5"/>
       <c r="Q282" s="5"/>
       <c r="R282" s="5"/>
-    </row>
-    <row r="283" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S282" s="5"/>
+      <c r="T282" s="5"/>
+      <c r="U282" s="5"/>
+      <c r="V282" s="5"/>
+    </row>
+    <row r="283" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
@@ -6694,8 +8000,12 @@
       <c r="P283" s="5"/>
       <c r="Q283" s="5"/>
       <c r="R283" s="5"/>
-    </row>
-    <row r="284" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S283" s="5"/>
+      <c r="T283" s="5"/>
+      <c r="U283" s="5"/>
+      <c r="V283" s="5"/>
+    </row>
+    <row r="284" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -6712,8 +8022,12 @@
       <c r="P284" s="5"/>
       <c r="Q284" s="5"/>
       <c r="R284" s="5"/>
-    </row>
-    <row r="285" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S284" s="5"/>
+      <c r="T284" s="5"/>
+      <c r="U284" s="5"/>
+      <c r="V284" s="5"/>
+    </row>
+    <row r="285" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
@@ -6730,8 +8044,12 @@
       <c r="P285" s="5"/>
       <c r="Q285" s="5"/>
       <c r="R285" s="5"/>
-    </row>
-    <row r="286" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S285" s="5"/>
+      <c r="T285" s="5"/>
+      <c r="U285" s="5"/>
+      <c r="V285" s="5"/>
+    </row>
+    <row r="286" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
@@ -6748,8 +8066,12 @@
       <c r="P286" s="5"/>
       <c r="Q286" s="5"/>
       <c r="R286" s="5"/>
-    </row>
-    <row r="287" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S286" s="5"/>
+      <c r="T286" s="5"/>
+      <c r="U286" s="5"/>
+      <c r="V286" s="5"/>
+    </row>
+    <row r="287" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
@@ -6766,8 +8088,12 @@
       <c r="P287" s="5"/>
       <c r="Q287" s="5"/>
       <c r="R287" s="5"/>
-    </row>
-    <row r="288" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S287" s="5"/>
+      <c r="T287" s="5"/>
+      <c r="U287" s="5"/>
+      <c r="V287" s="5"/>
+    </row>
+    <row r="288" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
@@ -6784,8 +8110,12 @@
       <c r="P288" s="5"/>
       <c r="Q288" s="5"/>
       <c r="R288" s="5"/>
-    </row>
-    <row r="289" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S288" s="5"/>
+      <c r="T288" s="5"/>
+      <c r="U288" s="5"/>
+      <c r="V288" s="5"/>
+    </row>
+    <row r="289" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
@@ -6802,8 +8132,12 @@
       <c r="P289" s="5"/>
       <c r="Q289" s="5"/>
       <c r="R289" s="5"/>
-    </row>
-    <row r="290" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S289" s="5"/>
+      <c r="T289" s="5"/>
+      <c r="U289" s="5"/>
+      <c r="V289" s="5"/>
+    </row>
+    <row r="290" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
@@ -6820,8 +8154,12 @@
       <c r="P290" s="5"/>
       <c r="Q290" s="5"/>
       <c r="R290" s="5"/>
-    </row>
-    <row r="291" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S290" s="5"/>
+      <c r="T290" s="5"/>
+      <c r="U290" s="5"/>
+      <c r="V290" s="5"/>
+    </row>
+    <row r="291" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
@@ -6838,8 +8176,12 @@
       <c r="P291" s="5"/>
       <c r="Q291" s="5"/>
       <c r="R291" s="5"/>
-    </row>
-    <row r="292" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S291" s="5"/>
+      <c r="T291" s="5"/>
+      <c r="U291" s="5"/>
+      <c r="V291" s="5"/>
+    </row>
+    <row r="292" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
@@ -6856,8 +8198,12 @@
       <c r="P292" s="5"/>
       <c r="Q292" s="5"/>
       <c r="R292" s="5"/>
-    </row>
-    <row r="293" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S292" s="5"/>
+      <c r="T292" s="5"/>
+      <c r="U292" s="5"/>
+      <c r="V292" s="5"/>
+    </row>
+    <row r="293" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
@@ -6874,8 +8220,12 @@
       <c r="P293" s="5"/>
       <c r="Q293" s="5"/>
       <c r="R293" s="5"/>
-    </row>
-    <row r="294" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S293" s="5"/>
+      <c r="T293" s="5"/>
+      <c r="U293" s="5"/>
+      <c r="V293" s="5"/>
+    </row>
+    <row r="294" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
@@ -6892,8 +8242,12 @@
       <c r="P294" s="5"/>
       <c r="Q294" s="5"/>
       <c r="R294" s="5"/>
-    </row>
-    <row r="295" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S294" s="5"/>
+      <c r="T294" s="5"/>
+      <c r="U294" s="5"/>
+      <c r="V294" s="5"/>
+    </row>
+    <row r="295" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
@@ -6910,8 +8264,12 @@
       <c r="P295" s="5"/>
       <c r="Q295" s="5"/>
       <c r="R295" s="5"/>
-    </row>
-    <row r="296" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S295" s="5"/>
+      <c r="T295" s="5"/>
+      <c r="U295" s="5"/>
+      <c r="V295" s="5"/>
+    </row>
+    <row r="296" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
@@ -6928,8 +8286,12 @@
       <c r="P296" s="5"/>
       <c r="Q296" s="5"/>
       <c r="R296" s="5"/>
-    </row>
-    <row r="297" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S296" s="5"/>
+      <c r="T296" s="5"/>
+      <c r="U296" s="5"/>
+      <c r="V296" s="5"/>
+    </row>
+    <row r="297" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
@@ -6946,8 +8308,12 @@
       <c r="P297" s="5"/>
       <c r="Q297" s="5"/>
       <c r="R297" s="5"/>
-    </row>
-    <row r="298" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S297" s="5"/>
+      <c r="T297" s="5"/>
+      <c r="U297" s="5"/>
+      <c r="V297" s="5"/>
+    </row>
+    <row r="298" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
@@ -6964,8 +8330,12 @@
       <c r="P298" s="5"/>
       <c r="Q298" s="5"/>
       <c r="R298" s="5"/>
-    </row>
-    <row r="299" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S298" s="5"/>
+      <c r="T298" s="5"/>
+      <c r="U298" s="5"/>
+      <c r="V298" s="5"/>
+    </row>
+    <row r="299" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
@@ -6982,8 +8352,12 @@
       <c r="P299" s="5"/>
       <c r="Q299" s="5"/>
       <c r="R299" s="5"/>
-    </row>
-    <row r="300" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S299" s="5"/>
+      <c r="T299" s="5"/>
+      <c r="U299" s="5"/>
+      <c r="V299" s="5"/>
+    </row>
+    <row r="300" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
@@ -7000,8 +8374,12 @@
       <c r="P300" s="5"/>
       <c r="Q300" s="5"/>
       <c r="R300" s="5"/>
-    </row>
-    <row r="301" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S300" s="5"/>
+      <c r="T300" s="5"/>
+      <c r="U300" s="5"/>
+      <c r="V300" s="5"/>
+    </row>
+    <row r="301" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
@@ -7018,8 +8396,12 @@
       <c r="P301" s="5"/>
       <c r="Q301" s="5"/>
       <c r="R301" s="5"/>
-    </row>
-    <row r="302" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S301" s="5"/>
+      <c r="T301" s="5"/>
+      <c r="U301" s="5"/>
+      <c r="V301" s="5"/>
+    </row>
+    <row r="302" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
@@ -7036,8 +8418,12 @@
       <c r="P302" s="5"/>
       <c r="Q302" s="5"/>
       <c r="R302" s="5"/>
-    </row>
-    <row r="303" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S302" s="5"/>
+      <c r="T302" s="5"/>
+      <c r="U302" s="5"/>
+      <c r="V302" s="5"/>
+    </row>
+    <row r="303" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
@@ -7054,8 +8440,12 @@
       <c r="P303" s="5"/>
       <c r="Q303" s="5"/>
       <c r="R303" s="5"/>
-    </row>
-    <row r="304" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S303" s="5"/>
+      <c r="T303" s="5"/>
+      <c r="U303" s="5"/>
+      <c r="V303" s="5"/>
+    </row>
+    <row r="304" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
@@ -7072,8 +8462,12 @@
       <c r="P304" s="5"/>
       <c r="Q304" s="5"/>
       <c r="R304" s="5"/>
-    </row>
-    <row r="305" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S304" s="5"/>
+      <c r="T304" s="5"/>
+      <c r="U304" s="5"/>
+      <c r="V304" s="5"/>
+    </row>
+    <row r="305" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
@@ -7090,8 +8484,12 @@
       <c r="P305" s="5"/>
       <c r="Q305" s="5"/>
       <c r="R305" s="5"/>
-    </row>
-    <row r="306" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S305" s="5"/>
+      <c r="T305" s="5"/>
+      <c r="U305" s="5"/>
+      <c r="V305" s="5"/>
+    </row>
+    <row r="306" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
@@ -7108,8 +8506,12 @@
       <c r="P306" s="5"/>
       <c r="Q306" s="5"/>
       <c r="R306" s="5"/>
-    </row>
-    <row r="307" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S306" s="5"/>
+      <c r="T306" s="5"/>
+      <c r="U306" s="5"/>
+      <c r="V306" s="5"/>
+    </row>
+    <row r="307" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
@@ -7126,8 +8528,12 @@
       <c r="P307" s="5"/>
       <c r="Q307" s="5"/>
       <c r="R307" s="5"/>
-    </row>
-    <row r="308" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S307" s="5"/>
+      <c r="T307" s="5"/>
+      <c r="U307" s="5"/>
+      <c r="V307" s="5"/>
+    </row>
+    <row r="308" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
@@ -7144,8 +8550,12 @@
       <c r="P308" s="5"/>
       <c r="Q308" s="5"/>
       <c r="R308" s="5"/>
-    </row>
-    <row r="309" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S308" s="5"/>
+      <c r="T308" s="5"/>
+      <c r="U308" s="5"/>
+      <c r="V308" s="5"/>
+    </row>
+    <row r="309" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
@@ -7162,8 +8572,12 @@
       <c r="P309" s="5"/>
       <c r="Q309" s="5"/>
       <c r="R309" s="5"/>
-    </row>
-    <row r="310" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S309" s="5"/>
+      <c r="T309" s="5"/>
+      <c r="U309" s="5"/>
+      <c r="V309" s="5"/>
+    </row>
+    <row r="310" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
@@ -7180,8 +8594,12 @@
       <c r="P310" s="5"/>
       <c r="Q310" s="5"/>
       <c r="R310" s="5"/>
-    </row>
-    <row r="311" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S310" s="5"/>
+      <c r="T310" s="5"/>
+      <c r="U310" s="5"/>
+      <c r="V310" s="5"/>
+    </row>
+    <row r="311" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
@@ -7198,8 +8616,12 @@
       <c r="P311" s="5"/>
       <c r="Q311" s="5"/>
       <c r="R311" s="5"/>
-    </row>
-    <row r="312" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S311" s="5"/>
+      <c r="T311" s="5"/>
+      <c r="U311" s="5"/>
+      <c r="V311" s="5"/>
+    </row>
+    <row r="312" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
@@ -7216,8 +8638,12 @@
       <c r="P312" s="5"/>
       <c r="Q312" s="5"/>
       <c r="R312" s="5"/>
-    </row>
-    <row r="313" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S312" s="5"/>
+      <c r="T312" s="5"/>
+      <c r="U312" s="5"/>
+      <c r="V312" s="5"/>
+    </row>
+    <row r="313" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
@@ -7234,8 +8660,12 @@
       <c r="P313" s="5"/>
       <c r="Q313" s="5"/>
       <c r="R313" s="5"/>
-    </row>
-    <row r="314" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S313" s="5"/>
+      <c r="T313" s="5"/>
+      <c r="U313" s="5"/>
+      <c r="V313" s="5"/>
+    </row>
+    <row r="314" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
@@ -7252,8 +8682,12 @@
       <c r="P314" s="5"/>
       <c r="Q314" s="5"/>
       <c r="R314" s="5"/>
-    </row>
-    <row r="315" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S314" s="5"/>
+      <c r="T314" s="5"/>
+      <c r="U314" s="5"/>
+      <c r="V314" s="5"/>
+    </row>
+    <row r="315" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
@@ -7270,8 +8704,12 @@
       <c r="P315" s="5"/>
       <c r="Q315" s="5"/>
       <c r="R315" s="5"/>
-    </row>
-    <row r="316" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S315" s="5"/>
+      <c r="T315" s="5"/>
+      <c r="U315" s="5"/>
+      <c r="V315" s="5"/>
+    </row>
+    <row r="316" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
@@ -7288,8 +8726,12 @@
       <c r="P316" s="5"/>
       <c r="Q316" s="5"/>
       <c r="R316" s="5"/>
-    </row>
-    <row r="317" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S316" s="5"/>
+      <c r="T316" s="5"/>
+      <c r="U316" s="5"/>
+      <c r="V316" s="5"/>
+    </row>
+    <row r="317" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
@@ -7306,8 +8748,12 @@
       <c r="P317" s="5"/>
       <c r="Q317" s="5"/>
       <c r="R317" s="5"/>
-    </row>
-    <row r="318" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S317" s="5"/>
+      <c r="T317" s="5"/>
+      <c r="U317" s="5"/>
+      <c r="V317" s="5"/>
+    </row>
+    <row r="318" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
@@ -7324,8 +8770,12 @@
       <c r="P318" s="5"/>
       <c r="Q318" s="5"/>
       <c r="R318" s="5"/>
-    </row>
-    <row r="319" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S318" s="5"/>
+      <c r="T318" s="5"/>
+      <c r="U318" s="5"/>
+      <c r="V318" s="5"/>
+    </row>
+    <row r="319" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
@@ -7342,8 +8792,12 @@
       <c r="P319" s="5"/>
       <c r="Q319" s="5"/>
       <c r="R319" s="5"/>
-    </row>
-    <row r="320" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S319" s="5"/>
+      <c r="T319" s="5"/>
+      <c r="U319" s="5"/>
+      <c r="V319" s="5"/>
+    </row>
+    <row r="320" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
@@ -7360,8 +8814,12 @@
       <c r="P320" s="5"/>
       <c r="Q320" s="5"/>
       <c r="R320" s="5"/>
-    </row>
-    <row r="321" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S320" s="5"/>
+      <c r="T320" s="5"/>
+      <c r="U320" s="5"/>
+      <c r="V320" s="5"/>
+    </row>
+    <row r="321" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
@@ -7378,8 +8836,12 @@
       <c r="P321" s="5"/>
       <c r="Q321" s="5"/>
       <c r="R321" s="5"/>
-    </row>
-    <row r="322" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S321" s="5"/>
+      <c r="T321" s="5"/>
+      <c r="U321" s="5"/>
+      <c r="V321" s="5"/>
+    </row>
+    <row r="322" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
@@ -7396,8 +8858,12 @@
       <c r="P322" s="5"/>
       <c r="Q322" s="5"/>
       <c r="R322" s="5"/>
-    </row>
-    <row r="323" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S322" s="5"/>
+      <c r="T322" s="5"/>
+      <c r="U322" s="5"/>
+      <c r="V322" s="5"/>
+    </row>
+    <row r="323" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
@@ -7414,8 +8880,12 @@
       <c r="P323" s="5"/>
       <c r="Q323" s="5"/>
       <c r="R323" s="5"/>
-    </row>
-    <row r="324" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S323" s="5"/>
+      <c r="T323" s="5"/>
+      <c r="U323" s="5"/>
+      <c r="V323" s="5"/>
+    </row>
+    <row r="324" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
@@ -7432,8 +8902,12 @@
       <c r="P324" s="5"/>
       <c r="Q324" s="5"/>
       <c r="R324" s="5"/>
-    </row>
-    <row r="325" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S324" s="5"/>
+      <c r="T324" s="5"/>
+      <c r="U324" s="5"/>
+      <c r="V324" s="5"/>
+    </row>
+    <row r="325" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
@@ -7450,8 +8924,12 @@
       <c r="P325" s="5"/>
       <c r="Q325" s="5"/>
       <c r="R325" s="5"/>
-    </row>
-    <row r="326" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S325" s="5"/>
+      <c r="T325" s="5"/>
+      <c r="U325" s="5"/>
+      <c r="V325" s="5"/>
+    </row>
+    <row r="326" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
@@ -7468,8 +8946,12 @@
       <c r="P326" s="5"/>
       <c r="Q326" s="5"/>
       <c r="R326" s="5"/>
-    </row>
-    <row r="327" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S326" s="5"/>
+      <c r="T326" s="5"/>
+      <c r="U326" s="5"/>
+      <c r="V326" s="5"/>
+    </row>
+    <row r="327" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
@@ -7486,8 +8968,12 @@
       <c r="P327" s="5"/>
       <c r="Q327" s="5"/>
       <c r="R327" s="5"/>
-    </row>
-    <row r="328" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S327" s="5"/>
+      <c r="T327" s="5"/>
+      <c r="U327" s="5"/>
+      <c r="V327" s="5"/>
+    </row>
+    <row r="328" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
@@ -7504,8 +8990,12 @@
       <c r="P328" s="5"/>
       <c r="Q328" s="5"/>
       <c r="R328" s="5"/>
-    </row>
-    <row r="329" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S328" s="5"/>
+      <c r="T328" s="5"/>
+      <c r="U328" s="5"/>
+      <c r="V328" s="5"/>
+    </row>
+    <row r="329" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
@@ -7522,8 +9012,12 @@
       <c r="P329" s="5"/>
       <c r="Q329" s="5"/>
       <c r="R329" s="5"/>
-    </row>
-    <row r="330" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S329" s="5"/>
+      <c r="T329" s="5"/>
+      <c r="U329" s="5"/>
+      <c r="V329" s="5"/>
+    </row>
+    <row r="330" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
@@ -7540,8 +9034,12 @@
       <c r="P330" s="5"/>
       <c r="Q330" s="5"/>
       <c r="R330" s="5"/>
-    </row>
-    <row r="331" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S330" s="5"/>
+      <c r="T330" s="5"/>
+      <c r="U330" s="5"/>
+      <c r="V330" s="5"/>
+    </row>
+    <row r="331" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
@@ -7558,8 +9056,12 @@
       <c r="P331" s="5"/>
       <c r="Q331" s="5"/>
       <c r="R331" s="5"/>
-    </row>
-    <row r="332" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S331" s="5"/>
+      <c r="T331" s="5"/>
+      <c r="U331" s="5"/>
+      <c r="V331" s="5"/>
+    </row>
+    <row r="332" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
@@ -7576,8 +9078,12 @@
       <c r="P332" s="5"/>
       <c r="Q332" s="5"/>
       <c r="R332" s="5"/>
-    </row>
-    <row r="333" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S332" s="5"/>
+      <c r="T332" s="5"/>
+      <c r="U332" s="5"/>
+      <c r="V332" s="5"/>
+    </row>
+    <row r="333" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
@@ -7594,8 +9100,12 @@
       <c r="P333" s="5"/>
       <c r="Q333" s="5"/>
       <c r="R333" s="5"/>
-    </row>
-    <row r="334" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S333" s="5"/>
+      <c r="T333" s="5"/>
+      <c r="U333" s="5"/>
+      <c r="V333" s="5"/>
+    </row>
+    <row r="334" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
@@ -7612,8 +9122,12 @@
       <c r="P334" s="5"/>
       <c r="Q334" s="5"/>
       <c r="R334" s="5"/>
-    </row>
-    <row r="335" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S334" s="5"/>
+      <c r="T334" s="5"/>
+      <c r="U334" s="5"/>
+      <c r="V334" s="5"/>
+    </row>
+    <row r="335" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
@@ -7630,8 +9144,12 @@
       <c r="P335" s="5"/>
       <c r="Q335" s="5"/>
       <c r="R335" s="5"/>
-    </row>
-    <row r="336" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S335" s="5"/>
+      <c r="T335" s="5"/>
+      <c r="U335" s="5"/>
+      <c r="V335" s="5"/>
+    </row>
+    <row r="336" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
@@ -7648,8 +9166,12 @@
       <c r="P336" s="5"/>
       <c r="Q336" s="5"/>
       <c r="R336" s="5"/>
-    </row>
-    <row r="337" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S336" s="5"/>
+      <c r="T336" s="5"/>
+      <c r="U336" s="5"/>
+      <c r="V336" s="5"/>
+    </row>
+    <row r="337" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
@@ -7666,8 +9188,12 @@
       <c r="P337" s="5"/>
       <c r="Q337" s="5"/>
       <c r="R337" s="5"/>
-    </row>
-    <row r="338" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S337" s="5"/>
+      <c r="T337" s="5"/>
+      <c r="U337" s="5"/>
+      <c r="V337" s="5"/>
+    </row>
+    <row r="338" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
@@ -7684,8 +9210,12 @@
       <c r="P338" s="5"/>
       <c r="Q338" s="5"/>
       <c r="R338" s="5"/>
-    </row>
-    <row r="339" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S338" s="5"/>
+      <c r="T338" s="5"/>
+      <c r="U338" s="5"/>
+      <c r="V338" s="5"/>
+    </row>
+    <row r="339" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
@@ -7702,8 +9232,12 @@
       <c r="P339" s="5"/>
       <c r="Q339" s="5"/>
       <c r="R339" s="5"/>
-    </row>
-    <row r="340" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S339" s="5"/>
+      <c r="T339" s="5"/>
+      <c r="U339" s="5"/>
+      <c r="V339" s="5"/>
+    </row>
+    <row r="340" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
@@ -7720,8 +9254,12 @@
       <c r="P340" s="5"/>
       <c r="Q340" s="5"/>
       <c r="R340" s="5"/>
-    </row>
-    <row r="341" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S340" s="5"/>
+      <c r="T340" s="5"/>
+      <c r="U340" s="5"/>
+      <c r="V340" s="5"/>
+    </row>
+    <row r="341" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
@@ -7738,8 +9276,12 @@
       <c r="P341" s="5"/>
       <c r="Q341" s="5"/>
       <c r="R341" s="5"/>
-    </row>
-    <row r="342" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S341" s="5"/>
+      <c r="T341" s="5"/>
+      <c r="U341" s="5"/>
+      <c r="V341" s="5"/>
+    </row>
+    <row r="342" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
@@ -7756,8 +9298,12 @@
       <c r="P342" s="5"/>
       <c r="Q342" s="5"/>
       <c r="R342" s="5"/>
-    </row>
-    <row r="343" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S342" s="5"/>
+      <c r="T342" s="5"/>
+      <c r="U342" s="5"/>
+      <c r="V342" s="5"/>
+    </row>
+    <row r="343" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
@@ -7774,8 +9320,12 @@
       <c r="P343" s="5"/>
       <c r="Q343" s="5"/>
       <c r="R343" s="5"/>
-    </row>
-    <row r="344" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S343" s="5"/>
+      <c r="T343" s="5"/>
+      <c r="U343" s="5"/>
+      <c r="V343" s="5"/>
+    </row>
+    <row r="344" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
@@ -7792,8 +9342,12 @@
       <c r="P344" s="5"/>
       <c r="Q344" s="5"/>
       <c r="R344" s="5"/>
-    </row>
-    <row r="345" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S344" s="5"/>
+      <c r="T344" s="5"/>
+      <c r="U344" s="5"/>
+      <c r="V344" s="5"/>
+    </row>
+    <row r="345" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
@@ -7810,8 +9364,12 @@
       <c r="P345" s="5"/>
       <c r="Q345" s="5"/>
       <c r="R345" s="5"/>
-    </row>
-    <row r="346" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S345" s="5"/>
+      <c r="T345" s="5"/>
+      <c r="U345" s="5"/>
+      <c r="V345" s="5"/>
+    </row>
+    <row r="346" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
@@ -7828,8 +9386,12 @@
       <c r="P346" s="5"/>
       <c r="Q346" s="5"/>
       <c r="R346" s="5"/>
-    </row>
-    <row r="347" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S346" s="5"/>
+      <c r="T346" s="5"/>
+      <c r="U346" s="5"/>
+      <c r="V346" s="5"/>
+    </row>
+    <row r="347" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
@@ -7846,8 +9408,12 @@
       <c r="P347" s="5"/>
       <c r="Q347" s="5"/>
       <c r="R347" s="5"/>
-    </row>
-    <row r="348" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S347" s="5"/>
+      <c r="T347" s="5"/>
+      <c r="U347" s="5"/>
+      <c r="V347" s="5"/>
+    </row>
+    <row r="348" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
@@ -7864,8 +9430,12 @@
       <c r="P348" s="5"/>
       <c r="Q348" s="5"/>
       <c r="R348" s="5"/>
-    </row>
-    <row r="349" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S348" s="5"/>
+      <c r="T348" s="5"/>
+      <c r="U348" s="5"/>
+      <c r="V348" s="5"/>
+    </row>
+    <row r="349" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
@@ -7882,8 +9452,12 @@
       <c r="P349" s="5"/>
       <c r="Q349" s="5"/>
       <c r="R349" s="5"/>
-    </row>
-    <row r="350" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S349" s="5"/>
+      <c r="T349" s="5"/>
+      <c r="U349" s="5"/>
+      <c r="V349" s="5"/>
+    </row>
+    <row r="350" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
@@ -7900,8 +9474,12 @@
       <c r="P350" s="5"/>
       <c r="Q350" s="5"/>
       <c r="R350" s="5"/>
-    </row>
-    <row r="351" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S350" s="5"/>
+      <c r="T350" s="5"/>
+      <c r="U350" s="5"/>
+      <c r="V350" s="5"/>
+    </row>
+    <row r="351" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
@@ -7918,8 +9496,12 @@
       <c r="P351" s="5"/>
       <c r="Q351" s="5"/>
       <c r="R351" s="5"/>
-    </row>
-    <row r="352" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S351" s="5"/>
+      <c r="T351" s="5"/>
+      <c r="U351" s="5"/>
+      <c r="V351" s="5"/>
+    </row>
+    <row r="352" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
@@ -7936,8 +9518,12 @@
       <c r="P352" s="5"/>
       <c r="Q352" s="5"/>
       <c r="R352" s="5"/>
-    </row>
-    <row r="353" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S352" s="5"/>
+      <c r="T352" s="5"/>
+      <c r="U352" s="5"/>
+      <c r="V352" s="5"/>
+    </row>
+    <row r="353" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
@@ -7954,8 +9540,12 @@
       <c r="P353" s="5"/>
       <c r="Q353" s="5"/>
       <c r="R353" s="5"/>
-    </row>
-    <row r="354" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S353" s="5"/>
+      <c r="T353" s="5"/>
+      <c r="U353" s="5"/>
+      <c r="V353" s="5"/>
+    </row>
+    <row r="354" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
@@ -7972,8 +9562,12 @@
       <c r="P354" s="5"/>
       <c r="Q354" s="5"/>
       <c r="R354" s="5"/>
-    </row>
-    <row r="355" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S354" s="5"/>
+      <c r="T354" s="5"/>
+      <c r="U354" s="5"/>
+      <c r="V354" s="5"/>
+    </row>
+    <row r="355" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
@@ -7990,8 +9584,12 @@
       <c r="P355" s="5"/>
       <c r="Q355" s="5"/>
       <c r="R355" s="5"/>
-    </row>
-    <row r="356" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S355" s="5"/>
+      <c r="T355" s="5"/>
+      <c r="U355" s="5"/>
+      <c r="V355" s="5"/>
+    </row>
+    <row r="356" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
@@ -8008,8 +9606,12 @@
       <c r="P356" s="5"/>
       <c r="Q356" s="5"/>
       <c r="R356" s="5"/>
-    </row>
-    <row r="357" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S356" s="5"/>
+      <c r="T356" s="5"/>
+      <c r="U356" s="5"/>
+      <c r="V356" s="5"/>
+    </row>
+    <row r="357" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
@@ -8026,8 +9628,12 @@
       <c r="P357" s="5"/>
       <c r="Q357" s="5"/>
       <c r="R357" s="5"/>
-    </row>
-    <row r="358" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S357" s="5"/>
+      <c r="T357" s="5"/>
+      <c r="U357" s="5"/>
+      <c r="V357" s="5"/>
+    </row>
+    <row r="358" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
@@ -8044,8 +9650,12 @@
       <c r="P358" s="5"/>
       <c r="Q358" s="5"/>
       <c r="R358" s="5"/>
-    </row>
-    <row r="359" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S358" s="5"/>
+      <c r="T358" s="5"/>
+      <c r="U358" s="5"/>
+      <c r="V358" s="5"/>
+    </row>
+    <row r="359" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
@@ -8062,8 +9672,12 @@
       <c r="P359" s="5"/>
       <c r="Q359" s="5"/>
       <c r="R359" s="5"/>
-    </row>
-    <row r="360" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S359" s="5"/>
+      <c r="T359" s="5"/>
+      <c r="U359" s="5"/>
+      <c r="V359" s="5"/>
+    </row>
+    <row r="360" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
@@ -8080,8 +9694,12 @@
       <c r="P360" s="5"/>
       <c r="Q360" s="5"/>
       <c r="R360" s="5"/>
-    </row>
-    <row r="361" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S360" s="5"/>
+      <c r="T360" s="5"/>
+      <c r="U360" s="5"/>
+      <c r="V360" s="5"/>
+    </row>
+    <row r="361" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
@@ -8098,8 +9716,12 @@
       <c r="P361" s="5"/>
       <c r="Q361" s="5"/>
       <c r="R361" s="5"/>
-    </row>
-    <row r="362" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S361" s="5"/>
+      <c r="T361" s="5"/>
+      <c r="U361" s="5"/>
+      <c r="V361" s="5"/>
+    </row>
+    <row r="362" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
@@ -8116,8 +9738,12 @@
       <c r="P362" s="5"/>
       <c r="Q362" s="5"/>
       <c r="R362" s="5"/>
-    </row>
-    <row r="363" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S362" s="5"/>
+      <c r="T362" s="5"/>
+      <c r="U362" s="5"/>
+      <c r="V362" s="5"/>
+    </row>
+    <row r="363" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
@@ -8134,8 +9760,12 @@
       <c r="P363" s="5"/>
       <c r="Q363" s="5"/>
       <c r="R363" s="5"/>
-    </row>
-    <row r="364" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S363" s="5"/>
+      <c r="T363" s="5"/>
+      <c r="U363" s="5"/>
+      <c r="V363" s="5"/>
+    </row>
+    <row r="364" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
@@ -8152,8 +9782,12 @@
       <c r="P364" s="5"/>
       <c r="Q364" s="5"/>
       <c r="R364" s="5"/>
-    </row>
-    <row r="365" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S364" s="5"/>
+      <c r="T364" s="5"/>
+      <c r="U364" s="5"/>
+      <c r="V364" s="5"/>
+    </row>
+    <row r="365" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
@@ -8170,8 +9804,12 @@
       <c r="P365" s="5"/>
       <c r="Q365" s="5"/>
       <c r="R365" s="5"/>
-    </row>
-    <row r="366" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S365" s="5"/>
+      <c r="T365" s="5"/>
+      <c r="U365" s="5"/>
+      <c r="V365" s="5"/>
+    </row>
+    <row r="366" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
@@ -8188,8 +9826,12 @@
       <c r="P366" s="5"/>
       <c r="Q366" s="5"/>
       <c r="R366" s="5"/>
-    </row>
-    <row r="367" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S366" s="5"/>
+      <c r="T366" s="5"/>
+      <c r="U366" s="5"/>
+      <c r="V366" s="5"/>
+    </row>
+    <row r="367" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
@@ -8206,8 +9848,12 @@
       <c r="P367" s="5"/>
       <c r="Q367" s="5"/>
       <c r="R367" s="5"/>
-    </row>
-    <row r="368" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S367" s="5"/>
+      <c r="T367" s="5"/>
+      <c r="U367" s="5"/>
+      <c r="V367" s="5"/>
+    </row>
+    <row r="368" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
@@ -8224,8 +9870,12 @@
       <c r="P368" s="5"/>
       <c r="Q368" s="5"/>
       <c r="R368" s="5"/>
-    </row>
-    <row r="369" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S368" s="5"/>
+      <c r="T368" s="5"/>
+      <c r="U368" s="5"/>
+      <c r="V368" s="5"/>
+    </row>
+    <row r="369" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
@@ -8242,8 +9892,12 @@
       <c r="P369" s="5"/>
       <c r="Q369" s="5"/>
       <c r="R369" s="5"/>
-    </row>
-    <row r="370" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S369" s="5"/>
+      <c r="T369" s="5"/>
+      <c r="U369" s="5"/>
+      <c r="V369" s="5"/>
+    </row>
+    <row r="370" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
@@ -8260,8 +9914,12 @@
       <c r="P370" s="5"/>
       <c r="Q370" s="5"/>
       <c r="R370" s="5"/>
-    </row>
-    <row r="371" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S370" s="5"/>
+      <c r="T370" s="5"/>
+      <c r="U370" s="5"/>
+      <c r="V370" s="5"/>
+    </row>
+    <row r="371" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
@@ -8278,8 +9936,12 @@
       <c r="P371" s="5"/>
       <c r="Q371" s="5"/>
       <c r="R371" s="5"/>
-    </row>
-    <row r="372" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S371" s="5"/>
+      <c r="T371" s="5"/>
+      <c r="U371" s="5"/>
+      <c r="V371" s="5"/>
+    </row>
+    <row r="372" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
@@ -8296,8 +9958,12 @@
       <c r="P372" s="5"/>
       <c r="Q372" s="5"/>
       <c r="R372" s="5"/>
-    </row>
-    <row r="373" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S372" s="5"/>
+      <c r="T372" s="5"/>
+      <c r="U372" s="5"/>
+      <c r="V372" s="5"/>
+    </row>
+    <row r="373" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
@@ -8314,8 +9980,12 @@
       <c r="P373" s="5"/>
       <c r="Q373" s="5"/>
       <c r="R373" s="5"/>
-    </row>
-    <row r="374" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S373" s="5"/>
+      <c r="T373" s="5"/>
+      <c r="U373" s="5"/>
+      <c r="V373" s="5"/>
+    </row>
+    <row r="374" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
@@ -8332,8 +10002,12 @@
       <c r="P374" s="5"/>
       <c r="Q374" s="5"/>
       <c r="R374" s="5"/>
-    </row>
-    <row r="375" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S374" s="5"/>
+      <c r="T374" s="5"/>
+      <c r="U374" s="5"/>
+      <c r="V374" s="5"/>
+    </row>
+    <row r="375" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
@@ -8350,8 +10024,12 @@
       <c r="P375" s="5"/>
       <c r="Q375" s="5"/>
       <c r="R375" s="5"/>
-    </row>
-    <row r="376" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S375" s="5"/>
+      <c r="T375" s="5"/>
+      <c r="U375" s="5"/>
+      <c r="V375" s="5"/>
+    </row>
+    <row r="376" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
@@ -8368,8 +10046,12 @@
       <c r="P376" s="5"/>
       <c r="Q376" s="5"/>
       <c r="R376" s="5"/>
-    </row>
-    <row r="377" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S376" s="5"/>
+      <c r="T376" s="5"/>
+      <c r="U376" s="5"/>
+      <c r="V376" s="5"/>
+    </row>
+    <row r="377" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
@@ -8386,8 +10068,12 @@
       <c r="P377" s="5"/>
       <c r="Q377" s="5"/>
       <c r="R377" s="5"/>
-    </row>
-    <row r="378" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S377" s="5"/>
+      <c r="T377" s="5"/>
+      <c r="U377" s="5"/>
+      <c r="V377" s="5"/>
+    </row>
+    <row r="378" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
@@ -8404,8 +10090,12 @@
       <c r="P378" s="5"/>
       <c r="Q378" s="5"/>
       <c r="R378" s="5"/>
-    </row>
-    <row r="379" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S378" s="5"/>
+      <c r="T378" s="5"/>
+      <c r="U378" s="5"/>
+      <c r="V378" s="5"/>
+    </row>
+    <row r="379" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
@@ -8422,8 +10112,12 @@
       <c r="P379" s="5"/>
       <c r="Q379" s="5"/>
       <c r="R379" s="5"/>
-    </row>
-    <row r="380" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S379" s="5"/>
+      <c r="T379" s="5"/>
+      <c r="U379" s="5"/>
+      <c r="V379" s="5"/>
+    </row>
+    <row r="380" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
@@ -8440,8 +10134,12 @@
       <c r="P380" s="5"/>
       <c r="Q380" s="5"/>
       <c r="R380" s="5"/>
-    </row>
-    <row r="381" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S380" s="5"/>
+      <c r="T380" s="5"/>
+      <c r="U380" s="5"/>
+      <c r="V380" s="5"/>
+    </row>
+    <row r="381" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
@@ -8458,8 +10156,12 @@
       <c r="P381" s="5"/>
       <c r="Q381" s="5"/>
       <c r="R381" s="5"/>
-    </row>
-    <row r="382" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S381" s="5"/>
+      <c r="T381" s="5"/>
+      <c r="U381" s="5"/>
+      <c r="V381" s="5"/>
+    </row>
+    <row r="382" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
@@ -8476,8 +10178,12 @@
       <c r="P382" s="5"/>
       <c r="Q382" s="5"/>
       <c r="R382" s="5"/>
-    </row>
-    <row r="383" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S382" s="5"/>
+      <c r="T382" s="5"/>
+      <c r="U382" s="5"/>
+      <c r="V382" s="5"/>
+    </row>
+    <row r="383" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
@@ -8494,8 +10200,12 @@
       <c r="P383" s="5"/>
       <c r="Q383" s="5"/>
       <c r="R383" s="5"/>
-    </row>
-    <row r="384" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S383" s="5"/>
+      <c r="T383" s="5"/>
+      <c r="U383" s="5"/>
+      <c r="V383" s="5"/>
+    </row>
+    <row r="384" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
@@ -8512,8 +10222,12 @@
       <c r="P384" s="5"/>
       <c r="Q384" s="5"/>
       <c r="R384" s="5"/>
-    </row>
-    <row r="385" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S384" s="5"/>
+      <c r="T384" s="5"/>
+      <c r="U384" s="5"/>
+      <c r="V384" s="5"/>
+    </row>
+    <row r="385" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
@@ -8530,8 +10244,12 @@
       <c r="P385" s="5"/>
       <c r="Q385" s="5"/>
       <c r="R385" s="5"/>
-    </row>
-    <row r="386" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S385" s="5"/>
+      <c r="T385" s="5"/>
+      <c r="U385" s="5"/>
+      <c r="V385" s="5"/>
+    </row>
+    <row r="386" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
@@ -8548,8 +10266,12 @@
       <c r="P386" s="5"/>
       <c r="Q386" s="5"/>
       <c r="R386" s="5"/>
-    </row>
-    <row r="387" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S386" s="5"/>
+      <c r="T386" s="5"/>
+      <c r="U386" s="5"/>
+      <c r="V386" s="5"/>
+    </row>
+    <row r="387" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
@@ -8566,8 +10288,12 @@
       <c r="P387" s="5"/>
       <c r="Q387" s="5"/>
       <c r="R387" s="5"/>
-    </row>
-    <row r="388" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S387" s="5"/>
+      <c r="T387" s="5"/>
+      <c r="U387" s="5"/>
+      <c r="V387" s="5"/>
+    </row>
+    <row r="388" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
@@ -8584,8 +10310,12 @@
       <c r="P388" s="5"/>
       <c r="Q388" s="5"/>
       <c r="R388" s="5"/>
-    </row>
-    <row r="389" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S388" s="5"/>
+      <c r="T388" s="5"/>
+      <c r="U388" s="5"/>
+      <c r="V388" s="5"/>
+    </row>
+    <row r="389" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
@@ -8602,8 +10332,12 @@
       <c r="P389" s="5"/>
       <c r="Q389" s="5"/>
       <c r="R389" s="5"/>
-    </row>
-    <row r="390" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S389" s="5"/>
+      <c r="T389" s="5"/>
+      <c r="U389" s="5"/>
+      <c r="V389" s="5"/>
+    </row>
+    <row r="390" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
@@ -8620,8 +10354,12 @@
       <c r="P390" s="5"/>
       <c r="Q390" s="5"/>
       <c r="R390" s="5"/>
-    </row>
-    <row r="391" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S390" s="5"/>
+      <c r="T390" s="5"/>
+      <c r="U390" s="5"/>
+      <c r="V390" s="5"/>
+    </row>
+    <row r="391" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
@@ -8638,8 +10376,12 @@
       <c r="P391" s="5"/>
       <c r="Q391" s="5"/>
       <c r="R391" s="5"/>
-    </row>
-    <row r="392" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S391" s="5"/>
+      <c r="T391" s="5"/>
+      <c r="U391" s="5"/>
+      <c r="V391" s="5"/>
+    </row>
+    <row r="392" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
@@ -8656,8 +10398,12 @@
       <c r="P392" s="5"/>
       <c r="Q392" s="5"/>
       <c r="R392" s="5"/>
-    </row>
-    <row r="393" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S392" s="5"/>
+      <c r="T392" s="5"/>
+      <c r="U392" s="5"/>
+      <c r="V392" s="5"/>
+    </row>
+    <row r="393" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
@@ -8674,8 +10420,12 @@
       <c r="P393" s="5"/>
       <c r="Q393" s="5"/>
       <c r="R393" s="5"/>
-    </row>
-    <row r="394" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S393" s="5"/>
+      <c r="T393" s="5"/>
+      <c r="U393" s="5"/>
+      <c r="V393" s="5"/>
+    </row>
+    <row r="394" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
@@ -8692,8 +10442,12 @@
       <c r="P394" s="5"/>
       <c r="Q394" s="5"/>
       <c r="R394" s="5"/>
-    </row>
-    <row r="395" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S394" s="5"/>
+      <c r="T394" s="5"/>
+      <c r="U394" s="5"/>
+      <c r="V394" s="5"/>
+    </row>
+    <row r="395" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
@@ -8710,8 +10464,12 @@
       <c r="P395" s="5"/>
       <c r="Q395" s="5"/>
       <c r="R395" s="5"/>
-    </row>
-    <row r="396" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S395" s="5"/>
+      <c r="T395" s="5"/>
+      <c r="U395" s="5"/>
+      <c r="V395" s="5"/>
+    </row>
+    <row r="396" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
@@ -8728,8 +10486,12 @@
       <c r="P396" s="5"/>
       <c r="Q396" s="5"/>
       <c r="R396" s="5"/>
-    </row>
-    <row r="397" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S396" s="5"/>
+      <c r="T396" s="5"/>
+      <c r="U396" s="5"/>
+      <c r="V396" s="5"/>
+    </row>
+    <row r="397" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
@@ -8746,8 +10508,12 @@
       <c r="P397" s="5"/>
       <c r="Q397" s="5"/>
       <c r="R397" s="5"/>
-    </row>
-    <row r="398" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S397" s="5"/>
+      <c r="T397" s="5"/>
+      <c r="U397" s="5"/>
+      <c r="V397" s="5"/>
+    </row>
+    <row r="398" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
@@ -8764,8 +10530,12 @@
       <c r="P398" s="5"/>
       <c r="Q398" s="5"/>
       <c r="R398" s="5"/>
-    </row>
-    <row r="399" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S398" s="5"/>
+      <c r="T398" s="5"/>
+      <c r="U398" s="5"/>
+      <c r="V398" s="5"/>
+    </row>
+    <row r="399" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
@@ -8782,8 +10552,12 @@
       <c r="P399" s="5"/>
       <c r="Q399" s="5"/>
       <c r="R399" s="5"/>
-    </row>
-    <row r="400" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S399" s="5"/>
+      <c r="T399" s="5"/>
+      <c r="U399" s="5"/>
+      <c r="V399" s="5"/>
+    </row>
+    <row r="400" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
@@ -8800,8 +10574,12 @@
       <c r="P400" s="5"/>
       <c r="Q400" s="5"/>
       <c r="R400" s="5"/>
-    </row>
-    <row r="401" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S400" s="5"/>
+      <c r="T400" s="5"/>
+      <c r="U400" s="5"/>
+      <c r="V400" s="5"/>
+    </row>
+    <row r="401" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
@@ -8818,8 +10596,12 @@
       <c r="P401" s="5"/>
       <c r="Q401" s="5"/>
       <c r="R401" s="5"/>
-    </row>
-    <row r="402" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S401" s="5"/>
+      <c r="T401" s="5"/>
+      <c r="U401" s="5"/>
+      <c r="V401" s="5"/>
+    </row>
+    <row r="402" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
@@ -8836,8 +10618,12 @@
       <c r="P402" s="5"/>
       <c r="Q402" s="5"/>
       <c r="R402" s="5"/>
-    </row>
-    <row r="403" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S402" s="5"/>
+      <c r="T402" s="5"/>
+      <c r="U402" s="5"/>
+      <c r="V402" s="5"/>
+    </row>
+    <row r="403" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
@@ -8854,8 +10640,12 @@
       <c r="P403" s="5"/>
       <c r="Q403" s="5"/>
       <c r="R403" s="5"/>
-    </row>
-    <row r="404" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S403" s="5"/>
+      <c r="T403" s="5"/>
+      <c r="U403" s="5"/>
+      <c r="V403" s="5"/>
+    </row>
+    <row r="404" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
@@ -8872,8 +10662,12 @@
       <c r="P404" s="5"/>
       <c r="Q404" s="5"/>
       <c r="R404" s="5"/>
-    </row>
-    <row r="405" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S404" s="5"/>
+      <c r="T404" s="5"/>
+      <c r="U404" s="5"/>
+      <c r="V404" s="5"/>
+    </row>
+    <row r="405" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
@@ -8890,8 +10684,12 @@
       <c r="P405" s="5"/>
       <c r="Q405" s="5"/>
       <c r="R405" s="5"/>
-    </row>
-    <row r="406" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S405" s="5"/>
+      <c r="T405" s="5"/>
+      <c r="U405" s="5"/>
+      <c r="V405" s="5"/>
+    </row>
+    <row r="406" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
@@ -8908,8 +10706,12 @@
       <c r="P406" s="5"/>
       <c r="Q406" s="5"/>
       <c r="R406" s="5"/>
-    </row>
-    <row r="407" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S406" s="5"/>
+      <c r="T406" s="5"/>
+      <c r="U406" s="5"/>
+      <c r="V406" s="5"/>
+    </row>
+    <row r="407" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
@@ -8926,8 +10728,12 @@
       <c r="P407" s="5"/>
       <c r="Q407" s="5"/>
       <c r="R407" s="5"/>
-    </row>
-    <row r="408" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S407" s="5"/>
+      <c r="T407" s="5"/>
+      <c r="U407" s="5"/>
+      <c r="V407" s="5"/>
+    </row>
+    <row r="408" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
@@ -8944,8 +10750,12 @@
       <c r="P408" s="5"/>
       <c r="Q408" s="5"/>
       <c r="R408" s="5"/>
-    </row>
-    <row r="409" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S408" s="5"/>
+      <c r="T408" s="5"/>
+      <c r="U408" s="5"/>
+      <c r="V408" s="5"/>
+    </row>
+    <row r="409" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
@@ -8962,8 +10772,12 @@
       <c r="P409" s="5"/>
       <c r="Q409" s="5"/>
       <c r="R409" s="5"/>
-    </row>
-    <row r="410" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S409" s="5"/>
+      <c r="T409" s="5"/>
+      <c r="U409" s="5"/>
+      <c r="V409" s="5"/>
+    </row>
+    <row r="410" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
@@ -8980,8 +10794,12 @@
       <c r="P410" s="5"/>
       <c r="Q410" s="5"/>
       <c r="R410" s="5"/>
-    </row>
-    <row r="411" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S410" s="5"/>
+      <c r="T410" s="5"/>
+      <c r="U410" s="5"/>
+      <c r="V410" s="5"/>
+    </row>
+    <row r="411" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
@@ -8998,8 +10816,12 @@
       <c r="P411" s="5"/>
       <c r="Q411" s="5"/>
       <c r="R411" s="5"/>
-    </row>
-    <row r="412" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S411" s="5"/>
+      <c r="T411" s="5"/>
+      <c r="U411" s="5"/>
+      <c r="V411" s="5"/>
+    </row>
+    <row r="412" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
@@ -9016,8 +10838,12 @@
       <c r="P412" s="5"/>
       <c r="Q412" s="5"/>
       <c r="R412" s="5"/>
-    </row>
-    <row r="413" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S412" s="5"/>
+      <c r="T412" s="5"/>
+      <c r="U412" s="5"/>
+      <c r="V412" s="5"/>
+    </row>
+    <row r="413" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
@@ -9034,8 +10860,12 @@
       <c r="P413" s="5"/>
       <c r="Q413" s="5"/>
       <c r="R413" s="5"/>
-    </row>
-    <row r="414" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S413" s="5"/>
+      <c r="T413" s="5"/>
+      <c r="U413" s="5"/>
+      <c r="V413" s="5"/>
+    </row>
+    <row r="414" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
@@ -9052,8 +10882,12 @@
       <c r="P414" s="5"/>
       <c r="Q414" s="5"/>
       <c r="R414" s="5"/>
-    </row>
-    <row r="415" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S414" s="5"/>
+      <c r="T414" s="5"/>
+      <c r="U414" s="5"/>
+      <c r="V414" s="5"/>
+    </row>
+    <row r="415" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
@@ -9070,8 +10904,12 @@
       <c r="P415" s="5"/>
       <c r="Q415" s="5"/>
       <c r="R415" s="5"/>
-    </row>
-    <row r="416" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S415" s="5"/>
+      <c r="T415" s="5"/>
+      <c r="U415" s="5"/>
+      <c r="V415" s="5"/>
+    </row>
+    <row r="416" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
@@ -9088,8 +10926,12 @@
       <c r="P416" s="5"/>
       <c r="Q416" s="5"/>
       <c r="R416" s="5"/>
-    </row>
-    <row r="417" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S416" s="5"/>
+      <c r="T416" s="5"/>
+      <c r="U416" s="5"/>
+      <c r="V416" s="5"/>
+    </row>
+    <row r="417" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
@@ -9106,8 +10948,12 @@
       <c r="P417" s="5"/>
       <c r="Q417" s="5"/>
       <c r="R417" s="5"/>
-    </row>
-    <row r="418" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S417" s="5"/>
+      <c r="T417" s="5"/>
+      <c r="U417" s="5"/>
+      <c r="V417" s="5"/>
+    </row>
+    <row r="418" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
@@ -9124,8 +10970,12 @@
       <c r="P418" s="5"/>
       <c r="Q418" s="5"/>
       <c r="R418" s="5"/>
-    </row>
-    <row r="419" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S418" s="5"/>
+      <c r="T418" s="5"/>
+      <c r="U418" s="5"/>
+      <c r="V418" s="5"/>
+    </row>
+    <row r="419" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
       <c r="E419" s="5"/>
@@ -9142,8 +10992,12 @@
       <c r="P419" s="5"/>
       <c r="Q419" s="5"/>
       <c r="R419" s="5"/>
-    </row>
-    <row r="420" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S419" s="5"/>
+      <c r="T419" s="5"/>
+      <c r="U419" s="5"/>
+      <c r="V419" s="5"/>
+    </row>
+    <row r="420" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
@@ -9160,8 +11014,12 @@
       <c r="P420" s="5"/>
       <c r="Q420" s="5"/>
       <c r="R420" s="5"/>
-    </row>
-    <row r="421" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S420" s="5"/>
+      <c r="T420" s="5"/>
+      <c r="U420" s="5"/>
+      <c r="V420" s="5"/>
+    </row>
+    <row r="421" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
@@ -9178,8 +11036,12 @@
       <c r="P421" s="5"/>
       <c r="Q421" s="5"/>
       <c r="R421" s="5"/>
-    </row>
-    <row r="422" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S421" s="5"/>
+      <c r="T421" s="5"/>
+      <c r="U421" s="5"/>
+      <c r="V421" s="5"/>
+    </row>
+    <row r="422" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
@@ -9196,8 +11058,12 @@
       <c r="P422" s="5"/>
       <c r="Q422" s="5"/>
       <c r="R422" s="5"/>
-    </row>
-    <row r="423" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S422" s="5"/>
+      <c r="T422" s="5"/>
+      <c r="U422" s="5"/>
+      <c r="V422" s="5"/>
+    </row>
+    <row r="423" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
@@ -9214,8 +11080,12 @@
       <c r="P423" s="5"/>
       <c r="Q423" s="5"/>
       <c r="R423" s="5"/>
-    </row>
-    <row r="424" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S423" s="5"/>
+      <c r="T423" s="5"/>
+      <c r="U423" s="5"/>
+      <c r="V423" s="5"/>
+    </row>
+    <row r="424" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
@@ -9232,8 +11102,12 @@
       <c r="P424" s="5"/>
       <c r="Q424" s="5"/>
       <c r="R424" s="5"/>
-    </row>
-    <row r="425" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S424" s="5"/>
+      <c r="T424" s="5"/>
+      <c r="U424" s="5"/>
+      <c r="V424" s="5"/>
+    </row>
+    <row r="425" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C425" s="5"/>
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
@@ -9250,8 +11124,12 @@
       <c r="P425" s="5"/>
       <c r="Q425" s="5"/>
       <c r="R425" s="5"/>
-    </row>
-    <row r="426" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S425" s="5"/>
+      <c r="T425" s="5"/>
+      <c r="U425" s="5"/>
+      <c r="V425" s="5"/>
+    </row>
+    <row r="426" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C426" s="5"/>
       <c r="D426" s="5"/>
       <c r="E426" s="5"/>
@@ -9268,8 +11146,12 @@
       <c r="P426" s="5"/>
       <c r="Q426" s="5"/>
       <c r="R426" s="5"/>
-    </row>
-    <row r="427" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S426" s="5"/>
+      <c r="T426" s="5"/>
+      <c r="U426" s="5"/>
+      <c r="V426" s="5"/>
+    </row>
+    <row r="427" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C427" s="5"/>
       <c r="D427" s="5"/>
       <c r="E427" s="5"/>
@@ -9286,8 +11168,12 @@
       <c r="P427" s="5"/>
       <c r="Q427" s="5"/>
       <c r="R427" s="5"/>
-    </row>
-    <row r="428" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S427" s="5"/>
+      <c r="T427" s="5"/>
+      <c r="U427" s="5"/>
+      <c r="V427" s="5"/>
+    </row>
+    <row r="428" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
@@ -9304,8 +11190,12 @@
       <c r="P428" s="5"/>
       <c r="Q428" s="5"/>
       <c r="R428" s="5"/>
-    </row>
-    <row r="429" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S428" s="5"/>
+      <c r="T428" s="5"/>
+      <c r="U428" s="5"/>
+      <c r="V428" s="5"/>
+    </row>
+    <row r="429" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
@@ -9322,8 +11212,12 @@
       <c r="P429" s="5"/>
       <c r="Q429" s="5"/>
       <c r="R429" s="5"/>
-    </row>
-    <row r="430" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S429" s="5"/>
+      <c r="T429" s="5"/>
+      <c r="U429" s="5"/>
+      <c r="V429" s="5"/>
+    </row>
+    <row r="430" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
@@ -9340,8 +11234,12 @@
       <c r="P430" s="5"/>
       <c r="Q430" s="5"/>
       <c r="R430" s="5"/>
-    </row>
-    <row r="431" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S430" s="5"/>
+      <c r="T430" s="5"/>
+      <c r="U430" s="5"/>
+      <c r="V430" s="5"/>
+    </row>
+    <row r="431" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
@@ -9358,8 +11256,12 @@
       <c r="P431" s="5"/>
       <c r="Q431" s="5"/>
       <c r="R431" s="5"/>
-    </row>
-    <row r="432" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S431" s="5"/>
+      <c r="T431" s="5"/>
+      <c r="U431" s="5"/>
+      <c r="V431" s="5"/>
+    </row>
+    <row r="432" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
       <c r="E432" s="5"/>
@@ -9376,8 +11278,12 @@
       <c r="P432" s="5"/>
       <c r="Q432" s="5"/>
       <c r="R432" s="5"/>
-    </row>
-    <row r="433" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S432" s="5"/>
+      <c r="T432" s="5"/>
+      <c r="U432" s="5"/>
+      <c r="V432" s="5"/>
+    </row>
+    <row r="433" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
@@ -9394,8 +11300,12 @@
       <c r="P433" s="5"/>
       <c r="Q433" s="5"/>
       <c r="R433" s="5"/>
-    </row>
-    <row r="434" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S433" s="5"/>
+      <c r="T433" s="5"/>
+      <c r="U433" s="5"/>
+      <c r="V433" s="5"/>
+    </row>
+    <row r="434" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
       <c r="E434" s="5"/>
@@ -9412,8 +11322,12 @@
       <c r="P434" s="5"/>
       <c r="Q434" s="5"/>
       <c r="R434" s="5"/>
-    </row>
-    <row r="435" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S434" s="5"/>
+      <c r="T434" s="5"/>
+      <c r="U434" s="5"/>
+      <c r="V434" s="5"/>
+    </row>
+    <row r="435" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C435" s="5"/>
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
@@ -9430,8 +11344,12 @@
       <c r="P435" s="5"/>
       <c r="Q435" s="5"/>
       <c r="R435" s="5"/>
-    </row>
-    <row r="436" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S435" s="5"/>
+      <c r="T435" s="5"/>
+      <c r="U435" s="5"/>
+      <c r="V435" s="5"/>
+    </row>
+    <row r="436" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C436" s="5"/>
       <c r="D436" s="5"/>
       <c r="E436" s="5"/>
@@ -9448,8 +11366,12 @@
       <c r="P436" s="5"/>
       <c r="Q436" s="5"/>
       <c r="R436" s="5"/>
-    </row>
-    <row r="437" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S436" s="5"/>
+      <c r="T436" s="5"/>
+      <c r="U436" s="5"/>
+      <c r="V436" s="5"/>
+    </row>
+    <row r="437" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C437" s="5"/>
       <c r="D437" s="5"/>
       <c r="E437" s="5"/>
@@ -9466,8 +11388,12 @@
       <c r="P437" s="5"/>
       <c r="Q437" s="5"/>
       <c r="R437" s="5"/>
-    </row>
-    <row r="438" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S437" s="5"/>
+      <c r="T437" s="5"/>
+      <c r="U437" s="5"/>
+      <c r="V437" s="5"/>
+    </row>
+    <row r="438" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
@@ -9484,8 +11410,12 @@
       <c r="P438" s="5"/>
       <c r="Q438" s="5"/>
       <c r="R438" s="5"/>
-    </row>
-    <row r="439" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S438" s="5"/>
+      <c r="T438" s="5"/>
+      <c r="U438" s="5"/>
+      <c r="V438" s="5"/>
+    </row>
+    <row r="439" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C439" s="5"/>
       <c r="D439" s="5"/>
       <c r="E439" s="5"/>
@@ -9502,8 +11432,12 @@
       <c r="P439" s="5"/>
       <c r="Q439" s="5"/>
       <c r="R439" s="5"/>
-    </row>
-    <row r="440" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S439" s="5"/>
+      <c r="T439" s="5"/>
+      <c r="U439" s="5"/>
+      <c r="V439" s="5"/>
+    </row>
+    <row r="440" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C440" s="5"/>
       <c r="D440" s="5"/>
       <c r="E440" s="5"/>
@@ -9520,8 +11454,12 @@
       <c r="P440" s="5"/>
       <c r="Q440" s="5"/>
       <c r="R440" s="5"/>
-    </row>
-    <row r="441" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S440" s="5"/>
+      <c r="T440" s="5"/>
+      <c r="U440" s="5"/>
+      <c r="V440" s="5"/>
+    </row>
+    <row r="441" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C441" s="5"/>
       <c r="D441" s="5"/>
       <c r="E441" s="5"/>
@@ -9538,8 +11476,12 @@
       <c r="P441" s="5"/>
       <c r="Q441" s="5"/>
       <c r="R441" s="5"/>
-    </row>
-    <row r="442" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S441" s="5"/>
+      <c r="T441" s="5"/>
+      <c r="U441" s="5"/>
+      <c r="V441" s="5"/>
+    </row>
+    <row r="442" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C442" s="5"/>
       <c r="D442" s="5"/>
       <c r="E442" s="5"/>
@@ -9556,8 +11498,12 @@
       <c r="P442" s="5"/>
       <c r="Q442" s="5"/>
       <c r="R442" s="5"/>
-    </row>
-    <row r="443" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S442" s="5"/>
+      <c r="T442" s="5"/>
+      <c r="U442" s="5"/>
+      <c r="V442" s="5"/>
+    </row>
+    <row r="443" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C443" s="5"/>
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
@@ -9574,8 +11520,12 @@
       <c r="P443" s="5"/>
       <c r="Q443" s="5"/>
       <c r="R443" s="5"/>
-    </row>
-    <row r="444" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S443" s="5"/>
+      <c r="T443" s="5"/>
+      <c r="U443" s="5"/>
+      <c r="V443" s="5"/>
+    </row>
+    <row r="444" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C444" s="5"/>
       <c r="D444" s="5"/>
       <c r="E444" s="5"/>
@@ -9592,8 +11542,12 @@
       <c r="P444" s="5"/>
       <c r="Q444" s="5"/>
       <c r="R444" s="5"/>
-    </row>
-    <row r="445" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S444" s="5"/>
+      <c r="T444" s="5"/>
+      <c r="U444" s="5"/>
+      <c r="V444" s="5"/>
+    </row>
+    <row r="445" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C445" s="5"/>
       <c r="D445" s="5"/>
       <c r="E445" s="5"/>
@@ -9610,8 +11564,12 @@
       <c r="P445" s="5"/>
       <c r="Q445" s="5"/>
       <c r="R445" s="5"/>
-    </row>
-    <row r="446" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S445" s="5"/>
+      <c r="T445" s="5"/>
+      <c r="U445" s="5"/>
+      <c r="V445" s="5"/>
+    </row>
+    <row r="446" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C446" s="5"/>
       <c r="D446" s="5"/>
       <c r="E446" s="5"/>
@@ -9628,8 +11586,12 @@
       <c r="P446" s="5"/>
       <c r="Q446" s="5"/>
       <c r="R446" s="5"/>
-    </row>
-    <row r="447" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S446" s="5"/>
+      <c r="T446" s="5"/>
+      <c r="U446" s="5"/>
+      <c r="V446" s="5"/>
+    </row>
+    <row r="447" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
       <c r="E447" s="5"/>
@@ -9646,8 +11608,12 @@
       <c r="P447" s="5"/>
       <c r="Q447" s="5"/>
       <c r="R447" s="5"/>
-    </row>
-    <row r="448" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S447" s="5"/>
+      <c r="T447" s="5"/>
+      <c r="U447" s="5"/>
+      <c r="V447" s="5"/>
+    </row>
+    <row r="448" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C448" s="5"/>
       <c r="D448" s="5"/>
       <c r="E448" s="5"/>
@@ -9664,8 +11630,12 @@
       <c r="P448" s="5"/>
       <c r="Q448" s="5"/>
       <c r="R448" s="5"/>
-    </row>
-    <row r="449" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S448" s="5"/>
+      <c r="T448" s="5"/>
+      <c r="U448" s="5"/>
+      <c r="V448" s="5"/>
+    </row>
+    <row r="449" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C449" s="5"/>
       <c r="D449" s="5"/>
       <c r="E449" s="5"/>
@@ -9682,8 +11652,12 @@
       <c r="P449" s="5"/>
       <c r="Q449" s="5"/>
       <c r="R449" s="5"/>
-    </row>
-    <row r="450" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S449" s="5"/>
+      <c r="T449" s="5"/>
+      <c r="U449" s="5"/>
+      <c r="V449" s="5"/>
+    </row>
+    <row r="450" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C450" s="5"/>
       <c r="D450" s="5"/>
       <c r="E450" s="5"/>
@@ -9700,8 +11674,12 @@
       <c r="P450" s="5"/>
       <c r="Q450" s="5"/>
       <c r="R450" s="5"/>
-    </row>
-    <row r="451" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S450" s="5"/>
+      <c r="T450" s="5"/>
+      <c r="U450" s="5"/>
+      <c r="V450" s="5"/>
+    </row>
+    <row r="451" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C451" s="5"/>
       <c r="D451" s="5"/>
       <c r="E451" s="5"/>
@@ -9718,8 +11696,12 @@
       <c r="P451" s="5"/>
       <c r="Q451" s="5"/>
       <c r="R451" s="5"/>
-    </row>
-    <row r="452" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S451" s="5"/>
+      <c r="T451" s="5"/>
+      <c r="U451" s="5"/>
+      <c r="V451" s="5"/>
+    </row>
+    <row r="452" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C452" s="5"/>
       <c r="D452" s="5"/>
       <c r="E452" s="5"/>
@@ -9736,8 +11718,12 @@
       <c r="P452" s="5"/>
       <c r="Q452" s="5"/>
       <c r="R452" s="5"/>
-    </row>
-    <row r="453" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S452" s="5"/>
+      <c r="T452" s="5"/>
+      <c r="U452" s="5"/>
+      <c r="V452" s="5"/>
+    </row>
+    <row r="453" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>
       <c r="E453" s="5"/>
@@ -9754,8 +11740,12 @@
       <c r="P453" s="5"/>
       <c r="Q453" s="5"/>
       <c r="R453" s="5"/>
-    </row>
-    <row r="454" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S453" s="5"/>
+      <c r="T453" s="5"/>
+      <c r="U453" s="5"/>
+      <c r="V453" s="5"/>
+    </row>
+    <row r="454" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C454" s="5"/>
       <c r="D454" s="5"/>
       <c r="E454" s="5"/>
@@ -9772,8 +11762,12 @@
       <c r="P454" s="5"/>
       <c r="Q454" s="5"/>
       <c r="R454" s="5"/>
-    </row>
-    <row r="455" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S454" s="5"/>
+      <c r="T454" s="5"/>
+      <c r="U454" s="5"/>
+      <c r="V454" s="5"/>
+    </row>
+    <row r="455" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C455" s="5"/>
       <c r="D455" s="5"/>
       <c r="E455" s="5"/>
@@ -9790,8 +11784,12 @@
       <c r="P455" s="5"/>
       <c r="Q455" s="5"/>
       <c r="R455" s="5"/>
-    </row>
-    <row r="456" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S455" s="5"/>
+      <c r="T455" s="5"/>
+      <c r="U455" s="5"/>
+      <c r="V455" s="5"/>
+    </row>
+    <row r="456" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C456" s="5"/>
       <c r="D456" s="5"/>
       <c r="E456" s="5"/>
@@ -9808,8 +11806,12 @@
       <c r="P456" s="5"/>
       <c r="Q456" s="5"/>
       <c r="R456" s="5"/>
-    </row>
-    <row r="457" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S456" s="5"/>
+      <c r="T456" s="5"/>
+      <c r="U456" s="5"/>
+      <c r="V456" s="5"/>
+    </row>
+    <row r="457" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C457" s="5"/>
       <c r="D457" s="5"/>
       <c r="E457" s="5"/>
@@ -9826,8 +11828,12 @@
       <c r="P457" s="5"/>
       <c r="Q457" s="5"/>
       <c r="R457" s="5"/>
-    </row>
-    <row r="458" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S457" s="5"/>
+      <c r="T457" s="5"/>
+      <c r="U457" s="5"/>
+      <c r="V457" s="5"/>
+    </row>
+    <row r="458" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C458" s="5"/>
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
@@ -9844,8 +11850,12 @@
       <c r="P458" s="5"/>
       <c r="Q458" s="5"/>
       <c r="R458" s="5"/>
-    </row>
-    <row r="459" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S458" s="5"/>
+      <c r="T458" s="5"/>
+      <c r="U458" s="5"/>
+      <c r="V458" s="5"/>
+    </row>
+    <row r="459" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C459" s="5"/>
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
@@ -9862,8 +11872,12 @@
       <c r="P459" s="5"/>
       <c r="Q459" s="5"/>
       <c r="R459" s="5"/>
-    </row>
-    <row r="460" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S459" s="5"/>
+      <c r="T459" s="5"/>
+      <c r="U459" s="5"/>
+      <c r="V459" s="5"/>
+    </row>
+    <row r="460" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C460" s="5"/>
       <c r="D460" s="5"/>
       <c r="E460" s="5"/>
@@ -9880,8 +11894,12 @@
       <c r="P460" s="5"/>
       <c r="Q460" s="5"/>
       <c r="R460" s="5"/>
-    </row>
-    <row r="461" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S460" s="5"/>
+      <c r="T460" s="5"/>
+      <c r="U460" s="5"/>
+      <c r="V460" s="5"/>
+    </row>
+    <row r="461" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C461" s="5"/>
       <c r="D461" s="5"/>
       <c r="E461" s="5"/>
@@ -9898,8 +11916,12 @@
       <c r="P461" s="5"/>
       <c r="Q461" s="5"/>
       <c r="R461" s="5"/>
-    </row>
-    <row r="462" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S461" s="5"/>
+      <c r="T461" s="5"/>
+      <c r="U461" s="5"/>
+      <c r="V461" s="5"/>
+    </row>
+    <row r="462" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C462" s="5"/>
       <c r="D462" s="5"/>
       <c r="E462" s="5"/>
@@ -9916,8 +11938,12 @@
       <c r="P462" s="5"/>
       <c r="Q462" s="5"/>
       <c r="R462" s="5"/>
-    </row>
-    <row r="463" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S462" s="5"/>
+      <c r="T462" s="5"/>
+      <c r="U462" s="5"/>
+      <c r="V462" s="5"/>
+    </row>
+    <row r="463" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C463" s="5"/>
       <c r="D463" s="5"/>
       <c r="E463" s="5"/>
@@ -9934,8 +11960,12 @@
       <c r="P463" s="5"/>
       <c r="Q463" s="5"/>
       <c r="R463" s="5"/>
-    </row>
-    <row r="464" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S463" s="5"/>
+      <c r="T463" s="5"/>
+      <c r="U463" s="5"/>
+      <c r="V463" s="5"/>
+    </row>
+    <row r="464" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C464" s="5"/>
       <c r="D464" s="5"/>
       <c r="E464" s="5"/>
@@ -9952,8 +11982,12 @@
       <c r="P464" s="5"/>
       <c r="Q464" s="5"/>
       <c r="R464" s="5"/>
-    </row>
-    <row r="465" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S464" s="5"/>
+      <c r="T464" s="5"/>
+      <c r="U464" s="5"/>
+      <c r="V464" s="5"/>
+    </row>
+    <row r="465" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C465" s="5"/>
       <c r="D465" s="5"/>
       <c r="E465" s="5"/>
@@ -9970,8 +12004,12 @@
       <c r="P465" s="5"/>
       <c r="Q465" s="5"/>
       <c r="R465" s="5"/>
-    </row>
-    <row r="466" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S465" s="5"/>
+      <c r="T465" s="5"/>
+      <c r="U465" s="5"/>
+      <c r="V465" s="5"/>
+    </row>
+    <row r="466" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C466" s="5"/>
       <c r="D466" s="5"/>
       <c r="E466" s="5"/>
@@ -9988,8 +12026,12 @@
       <c r="P466" s="5"/>
       <c r="Q466" s="5"/>
       <c r="R466" s="5"/>
-    </row>
-    <row r="467" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S466" s="5"/>
+      <c r="T466" s="5"/>
+      <c r="U466" s="5"/>
+      <c r="V466" s="5"/>
+    </row>
+    <row r="467" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C467" s="5"/>
       <c r="D467" s="5"/>
       <c r="E467" s="5"/>
@@ -10006,8 +12048,12 @@
       <c r="P467" s="5"/>
       <c r="Q467" s="5"/>
       <c r="R467" s="5"/>
-    </row>
-    <row r="468" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S467" s="5"/>
+      <c r="T467" s="5"/>
+      <c r="U467" s="5"/>
+      <c r="V467" s="5"/>
+    </row>
+    <row r="468" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C468" s="5"/>
       <c r="D468" s="5"/>
       <c r="E468" s="5"/>
@@ -10024,8 +12070,12 @@
       <c r="P468" s="5"/>
       <c r="Q468" s="5"/>
       <c r="R468" s="5"/>
-    </row>
-    <row r="469" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S468" s="5"/>
+      <c r="T468" s="5"/>
+      <c r="U468" s="5"/>
+      <c r="V468" s="5"/>
+    </row>
+    <row r="469" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C469" s="5"/>
       <c r="D469" s="5"/>
       <c r="E469" s="5"/>
@@ -10042,8 +12092,12 @@
       <c r="P469" s="5"/>
       <c r="Q469" s="5"/>
       <c r="R469" s="5"/>
-    </row>
-    <row r="470" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S469" s="5"/>
+      <c r="T469" s="5"/>
+      <c r="U469" s="5"/>
+      <c r="V469" s="5"/>
+    </row>
+    <row r="470" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C470" s="5"/>
       <c r="D470" s="5"/>
       <c r="E470" s="5"/>
@@ -10060,8 +12114,12 @@
       <c r="P470" s="5"/>
       <c r="Q470" s="5"/>
       <c r="R470" s="5"/>
-    </row>
-    <row r="471" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S470" s="5"/>
+      <c r="T470" s="5"/>
+      <c r="U470" s="5"/>
+      <c r="V470" s="5"/>
+    </row>
+    <row r="471" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C471" s="5"/>
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
@@ -10078,8 +12136,12 @@
       <c r="P471" s="5"/>
       <c r="Q471" s="5"/>
       <c r="R471" s="5"/>
-    </row>
-    <row r="472" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S471" s="5"/>
+      <c r="T471" s="5"/>
+      <c r="U471" s="5"/>
+      <c r="V471" s="5"/>
+    </row>
+    <row r="472" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
       <c r="E472" s="5"/>
@@ -10096,8 +12158,12 @@
       <c r="P472" s="5"/>
       <c r="Q472" s="5"/>
       <c r="R472" s="5"/>
-    </row>
-    <row r="473" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S472" s="5"/>
+      <c r="T472" s="5"/>
+      <c r="U472" s="5"/>
+      <c r="V472" s="5"/>
+    </row>
+    <row r="473" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C473" s="5"/>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
@@ -10114,8 +12180,12 @@
       <c r="P473" s="5"/>
       <c r="Q473" s="5"/>
       <c r="R473" s="5"/>
-    </row>
-    <row r="474" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S473" s="5"/>
+      <c r="T473" s="5"/>
+      <c r="U473" s="5"/>
+      <c r="V473" s="5"/>
+    </row>
+    <row r="474" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C474" s="5"/>
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
@@ -10132,8 +12202,12 @@
       <c r="P474" s="5"/>
       <c r="Q474" s="5"/>
       <c r="R474" s="5"/>
-    </row>
-    <row r="475" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S474" s="5"/>
+      <c r="T474" s="5"/>
+      <c r="U474" s="5"/>
+      <c r="V474" s="5"/>
+    </row>
+    <row r="475" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C475" s="5"/>
       <c r="D475" s="5"/>
       <c r="E475" s="5"/>
@@ -10150,8 +12224,12 @@
       <c r="P475" s="5"/>
       <c r="Q475" s="5"/>
       <c r="R475" s="5"/>
-    </row>
-    <row r="476" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S475" s="5"/>
+      <c r="T475" s="5"/>
+      <c r="U475" s="5"/>
+      <c r="V475" s="5"/>
+    </row>
+    <row r="476" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C476" s="5"/>
       <c r="D476" s="5"/>
       <c r="E476" s="5"/>
@@ -10168,8 +12246,12 @@
       <c r="P476" s="5"/>
       <c r="Q476" s="5"/>
       <c r="R476" s="5"/>
-    </row>
-    <row r="477" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S476" s="5"/>
+      <c r="T476" s="5"/>
+      <c r="U476" s="5"/>
+      <c r="V476" s="5"/>
+    </row>
+    <row r="477" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C477" s="5"/>
       <c r="D477" s="5"/>
       <c r="E477" s="5"/>
@@ -10186,8 +12268,12 @@
       <c r="P477" s="5"/>
       <c r="Q477" s="5"/>
       <c r="R477" s="5"/>
-    </row>
-    <row r="478" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S477" s="5"/>
+      <c r="T477" s="5"/>
+      <c r="U477" s="5"/>
+      <c r="V477" s="5"/>
+    </row>
+    <row r="478" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C478" s="5"/>
       <c r="D478" s="5"/>
       <c r="E478" s="5"/>
@@ -10204,8 +12290,12 @@
       <c r="P478" s="5"/>
       <c r="Q478" s="5"/>
       <c r="R478" s="5"/>
-    </row>
-    <row r="479" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S478" s="5"/>
+      <c r="T478" s="5"/>
+      <c r="U478" s="5"/>
+      <c r="V478" s="5"/>
+    </row>
+    <row r="479" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C479" s="5"/>
       <c r="D479" s="5"/>
       <c r="E479" s="5"/>
@@ -10222,8 +12312,12 @@
       <c r="P479" s="5"/>
       <c r="Q479" s="5"/>
       <c r="R479" s="5"/>
-    </row>
-    <row r="480" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S479" s="5"/>
+      <c r="T479" s="5"/>
+      <c r="U479" s="5"/>
+      <c r="V479" s="5"/>
+    </row>
+    <row r="480" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C480" s="5"/>
       <c r="D480" s="5"/>
       <c r="E480" s="5"/>
@@ -10240,8 +12334,12 @@
       <c r="P480" s="5"/>
       <c r="Q480" s="5"/>
       <c r="R480" s="5"/>
-    </row>
-    <row r="481" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S480" s="5"/>
+      <c r="T480" s="5"/>
+      <c r="U480" s="5"/>
+      <c r="V480" s="5"/>
+    </row>
+    <row r="481" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C481" s="5"/>
       <c r="D481" s="5"/>
       <c r="E481" s="5"/>
@@ -10258,8 +12356,12 @@
       <c r="P481" s="5"/>
       <c r="Q481" s="5"/>
       <c r="R481" s="5"/>
-    </row>
-    <row r="482" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S481" s="5"/>
+      <c r="T481" s="5"/>
+      <c r="U481" s="5"/>
+      <c r="V481" s="5"/>
+    </row>
+    <row r="482" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C482" s="5"/>
       <c r="D482" s="5"/>
       <c r="E482" s="5"/>
@@ -10276,8 +12378,12 @@
       <c r="P482" s="5"/>
       <c r="Q482" s="5"/>
       <c r="R482" s="5"/>
-    </row>
-    <row r="483" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S482" s="5"/>
+      <c r="T482" s="5"/>
+      <c r="U482" s="5"/>
+      <c r="V482" s="5"/>
+    </row>
+    <row r="483" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C483" s="5"/>
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
@@ -10294,6 +12400,32 @@
       <c r="P483" s="5"/>
       <c r="Q483" s="5"/>
       <c r="R483" s="5"/>
+      <c r="S483" s="5"/>
+      <c r="T483" s="5"/>
+      <c r="U483" s="5"/>
+      <c r="V483" s="5"/>
+    </row>
+    <row r="484" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C484" s="5"/>
+      <c r="D484" s="5"/>
+      <c r="E484" s="5"/>
+      <c r="F484" s="5"/>
+      <c r="G484" s="5"/>
+      <c r="H484" s="5"/>
+      <c r="I484" s="5"/>
+      <c r="J484" s="5"/>
+      <c r="K484" s="5"/>
+      <c r="L484" s="5"/>
+      <c r="M484" s="5"/>
+      <c r="N484" s="5"/>
+      <c r="O484" s="5"/>
+      <c r="P484" s="5"/>
+      <c r="Q484" s="5"/>
+      <c r="R484" s="5"/>
+      <c r="S484" s="5"/>
+      <c r="T484" s="5"/>
+      <c r="U484" s="5"/>
+      <c r="V484" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3091C23A-7801-431E-A94A-507FE017E28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF63A772-1255-4050-B43C-E2FF6781ACD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{479CF3AA-260E-4E31-88AC-4C0599CDC74D}"/>
   </bookViews>
@@ -702,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="I3">
-        <v>192.18</v>
+        <v>216.1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -713,10 +713,10 @@
         <v>5</v>
       </c>
       <c r="I4" s="5">
-        <v>10616.352407</v>
+        <v>10664.912097</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -725,7 +725,7 @@
       </c>
       <c r="I5" s="5">
         <f>I3*I4</f>
-        <v>2040250.60557726</v>
+        <v>2304687.5041617001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -739,11 +739,11 @@
         <v>7</v>
       </c>
       <c r="I6" s="5">
-        <f>66207+28358</f>
-        <v>94565</v>
+        <f>57741+35439</f>
+        <v>93180</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -751,10 +751,10 @@
         <v>8</v>
       </c>
       <c r="I7" s="5">
-        <v>53374</v>
+        <v>50718</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
       </c>
       <c r="I8" s="5">
         <f>I5-I6+I7</f>
-        <v>1999059.60557726</v>
+        <v>2262225.5041617001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -818,10 +818,10 @@
   <dimension ref="A1:V484"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +927,9 @@
       <c r="K3" s="5">
         <v>92887</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="5">
+        <v>100068</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -976,7 +978,9 @@
       <c r="K4" s="5">
         <v>33513</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5">
+        <v>36761</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -1025,7 +1029,9 @@
       <c r="K5" s="5">
         <v>29267</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5">
+        <v>30873</v>
+      </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -1074,7 +1080,9 @@
       <c r="K6" s="5">
         <v>63970</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5">
+        <v>68246</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -1125,7 +1133,9 @@
       <c r="K7" s="5">
         <v>91697</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5">
+        <v>99456</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -1172,7 +1182,7 @@
         <v>147977</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" ref="I8:K8" si="3">SUM(I6:I7)</f>
+        <f t="shared" ref="I8:L8" si="3">SUM(I6:I7)</f>
         <v>158877</v>
       </c>
       <c r="J8" s="7">
@@ -1183,7 +1193,10 @@
         <f t="shared" si="3"/>
         <v>155667</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7">
+        <f t="shared" si="3"/>
+        <v>167702</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="5"/>
@@ -1235,7 +1248,9 @@
       <c r="K9" s="5">
         <v>76976</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5">
+        <v>80809</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -1266,7 +1281,7 @@
         <v>65010</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" ref="E10:K10" si="5">E8-E9</f>
+        <f t="shared" ref="E10:J10" si="5">E8-E9</f>
         <v>68061</v>
       </c>
       <c r="F10" s="5">
@@ -1290,10 +1305,13 @@
         <v>88899</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="5"/>
+        <f>K8-K9</f>
         <v>78691</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5">
+        <f>L8-L9</f>
+        <v>86893</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -1350,7 +1368,9 @@
       <c r="K11" s="5">
         <v>24593</v>
       </c>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5">
+        <v>25976</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -1401,7 +1421,9 @@
       <c r="K12" s="5">
         <v>22994</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5">
+        <v>27166</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -1452,7 +1474,9 @@
       <c r="K13" s="5">
         <v>9763</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5">
+        <v>11416</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -1503,7 +1527,9 @@
       <c r="K14" s="5">
         <v>2628</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5">
+        <v>2965</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -1554,7 +1580,9 @@
       <c r="K15" s="5">
         <v>308</v>
       </c>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5">
+        <v>199</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -1609,10 +1637,13 @@
         <v>21203</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="8"/>
+        <f>K10-SUM(K11:K15)</f>
         <v>18405</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5">
+        <f>L10-SUM(L11:L15)</f>
+        <v>19171</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -1678,7 +1709,9 @@
       <c r="K17" s="5">
         <v>1066</v>
       </c>
-      <c r="L17" s="5"/>
+      <c r="L17" s="5">
+        <v>1085</v>
+      </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -1729,7 +1762,9 @@
       <c r="K18" s="5">
         <v>541</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5">
+        <v>516</v>
+      </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -1780,7 +1815,9 @@
       <c r="K19" s="5">
         <v>-2749</v>
       </c>
-      <c r="L19" s="5"/>
+      <c r="L19" s="5">
+        <v>-1117</v>
+      </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -1838,7 +1875,10 @@
         <f t="shared" si="10"/>
         <v>21679</v>
       </c>
-      <c r="L20" s="5"/>
+      <c r="L20" s="5">
+        <f t="shared" si="10"/>
+        <v>20857</v>
+      </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -1906,7 +1946,9 @@
       <c r="K21" s="5">
         <v>4553</v>
       </c>
-      <c r="L21" s="5"/>
+      <c r="L21" s="5">
+        <v>2678</v>
+      </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -1957,7 +1999,9 @@
       <c r="K22" s="5">
         <v>-1</v>
       </c>
-      <c r="L22" s="5"/>
+      <c r="L22" s="5">
+        <v>15</v>
+      </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -2015,7 +2059,10 @@
         <f t="shared" si="12"/>
         <v>17127</v>
       </c>
-      <c r="L23" s="5"/>
+      <c r="L23" s="5">
+        <f t="shared" si="12"/>
+        <v>18164</v>
+      </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -2110,7 +2157,10 @@
         <f>K23/K26</f>
         <v>1.6152975572951052</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="8">
+        <f>L23/L26</f>
+        <v>1.7076243301682805</v>
+      </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="5"/>
@@ -2171,7 +2221,9 @@
       <c r="K26" s="5">
         <v>10603</v>
       </c>
-      <c r="L26" s="5"/>
+      <c r="L26" s="5">
+        <v>10637</v>
+      </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -2224,7 +2276,7 @@
         <v>0.17247354125690739</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" ref="H28:K28" si="16">H5/D5-1</f>
+        <f t="shared" ref="H28:L28" si="16">H5/D5-1</f>
         <v>0.18703703703703711</v>
       </c>
       <c r="I28" s="9">
@@ -2239,7 +2291,10 @@
         <f t="shared" si="16"/>
         <v>0.1689499540679793</v>
       </c>
-      <c r="L28" s="5"/>
+      <c r="L28" s="9">
+        <f t="shared" si="16"/>
+        <v>0.17472698907956308</v>
+      </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
@@ -2268,7 +2323,7 @@
         <v>4.2976690608483636E-2</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" ref="I29:K31" si="18">I6/E6-1</f>
+        <f t="shared" ref="I29:L31" si="18">I6/E6-1</f>
         <v>7.0127115290243847E-2</v>
       </c>
       <c r="J29" s="9">
@@ -2279,7 +2334,10 @@
         <f t="shared" si="18"/>
         <v>5.0151850939834208E-2</v>
       </c>
-      <c r="L29" s="9"/>
+      <c r="L29" s="9">
+        <f t="shared" si="18"/>
+        <v>0.10844743296139292</v>
+      </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="5"/>
@@ -2319,7 +2377,10 @@
         <f t="shared" si="18"/>
         <v>0.11285468093885775</v>
       </c>
-      <c r="L30" s="9"/>
+      <c r="L30" s="9">
+        <f t="shared" si="18"/>
+        <v>0.15100453661697988</v>
+      </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="5"/>
@@ -2359,7 +2420,10 @@
         <f t="shared" si="18"/>
         <v>8.6202926461660834E-2</v>
       </c>
-      <c r="L31" s="9"/>
+      <c r="L31" s="11">
+        <f t="shared" si="18"/>
+        <v>0.13329774221669588</v>
+      </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="5"/>
@@ -2408,10 +2472,13 @@
         <v>0.47339077276987307</v>
       </c>
       <c r="K32" s="9">
-        <f t="shared" ref="K32" si="21">K10/K8</f>
+        <f>K10/K8</f>
         <v>0.50550855351487467</v>
       </c>
-      <c r="L32" s="9"/>
+      <c r="L32" s="9">
+        <f>L10/L8</f>
+        <v>0.51813931855314788</v>
+      </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="5"/>
@@ -2428,23 +2495,23 @@
         <v>37</v>
       </c>
       <c r="C33" s="9">
-        <f t="shared" ref="C33:G33" si="22">C16/C8</f>
+        <f t="shared" ref="C33:G33" si="21">C16/C8</f>
         <v>3.7484885126964934E-2</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>5.7157527365812637E-2</v>
       </c>
       <c r="E33" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>7.8192377850618167E-2</v>
       </c>
       <c r="F33" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.1928067428743003</v>
       </c>
       <c r="G33" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.10680817511321374</v>
       </c>
       <c r="H33" s="9">
@@ -2452,18 +2519,21 @@
         <v>9.9150543665569649E-2</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" ref="I33:J33" si="23">I16/I8</f>
+        <f t="shared" ref="I33:J33" si="22">I16/I8</f>
         <v>0.1095879202150091</v>
       </c>
       <c r="J33" s="9">
+        <f t="shared" si="22"/>
+        <v>0.1129068330919315</v>
+      </c>
+      <c r="K33" s="9">
+        <f t="shared" ref="K33:L33" si="23">K16/K8</f>
+        <v>0.11823315153500742</v>
+      </c>
+      <c r="L33" s="9">
         <f t="shared" si="23"/>
-        <v>0.1129068330919315</v>
-      </c>
-      <c r="K33" s="9">
-        <f t="shared" ref="K33" si="24">K16/K8</f>
-        <v>0.11823315153500742</v>
-      </c>
-      <c r="L33" s="9"/>
+        <v>0.11431586981669867</v>
+      </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="5"/>
@@ -2480,23 +2550,23 @@
         <v>39</v>
       </c>
       <c r="C34" s="9">
-        <f t="shared" ref="C34:G34" si="25">C21/C20</f>
+        <f t="shared" ref="C34:G34" si="24">C21/C20</f>
         <v>0.23015294974508377</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.10630702102340341</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.18918697185987365</v>
       </c>
       <c r="F34" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.11637574592673715</v>
       </c>
       <c r="G34" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.1900177154740815</v>
       </c>
       <c r="H34" s="9">
@@ -2504,18 +2574,21 @@
         <v>0.11590685470646113</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" ref="I34:J34" si="26">I21/I20</f>
+        <f t="shared" ref="I34:J34" si="25">I21/I20</f>
         <v>0.15002494871652713</v>
       </c>
       <c r="J34" s="9">
+        <f t="shared" si="25"/>
+        <v>0.10403150029084075</v>
+      </c>
+      <c r="K34" s="9">
+        <f t="shared" ref="K34:L34" si="26">K21/K20</f>
+        <v>0.21001891231145348</v>
+      </c>
+      <c r="L34" s="9">
         <f t="shared" si="26"/>
-        <v>0.10403150029084075</v>
-      </c>
-      <c r="K34" s="9">
-        <f t="shared" ref="K34" si="27">K21/K20</f>
-        <v>0.21001891231145348</v>
-      </c>
-      <c r="L34" s="9"/>
+        <v>0.1283981397132857</v>
+      </c>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="5"/>

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5296871-FD9A-499F-A174-D1EA2270D733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D638E65-BA11-4DE2-884F-02665FE8EB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{479CF3AA-260E-4E31-88AC-4C0599CDC74D}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{479CF3AA-260E-4E31-88AC-4C0599CDC74D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -251,13 +251,19 @@
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -329,27 +335,30 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -688,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE24186-A05E-45BD-BBFF-EE190D3291BA}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -715,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="2">
-        <v>216.1</v>
+        <v>245.94</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -726,10 +735,10 @@
         <v>5</v>
       </c>
       <c r="I4" s="4">
-        <v>10664.912097</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>64</v>
+        <v>10690.216011</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -738,7 +747,7 @@
       </c>
       <c r="I5" s="4">
         <f>I3*I4</f>
-        <v>2304687.5041617001</v>
+        <v>2629151.7257453399</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -752,11 +761,11 @@
         <v>7</v>
       </c>
       <c r="I6" s="4">
-        <f>57741+35439</f>
-        <v>93180</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>64</v>
+        <f>66922+27275</f>
+        <v>94197</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -764,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="I7" s="4">
-        <v>50718</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>64</v>
+        <v>50742</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -776,7 +785,7 @@
       </c>
       <c r="I8" s="4">
         <f>I5-I6+I7</f>
-        <v>2262225.5041617001</v>
+        <v>2585696.7257453399</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -830,11 +839,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4851AB-88E4-47B4-A48F-9BD557A151E9}">
   <dimension ref="A1:V484"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -944,7 +953,9 @@
       <c r="L3" s="4">
         <v>100068</v>
       </c>
-      <c r="M3" s="4"/>
+      <c r="M3" s="4">
+        <v>106267</v>
+      </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -995,7 +1006,9 @@
       <c r="L4" s="4">
         <v>36761</v>
       </c>
-      <c r="M4" s="4"/>
+      <c r="M4" s="4">
+        <v>40896</v>
+      </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -1046,7 +1059,9 @@
       <c r="L5" s="4">
         <v>30873</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="4">
+        <v>33006</v>
+      </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -1097,7 +1112,9 @@
       <c r="L6" s="4">
         <v>68246</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4">
+        <v>74058</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1150,7 +1167,9 @@
       <c r="L7" s="4">
         <v>99456</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="4">
+        <v>106111</v>
+      </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1196,7 +1215,7 @@
         <v>147977</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" ref="I8:L8" si="3">SUM(I6:I7)</f>
+        <f t="shared" ref="I8:M8" si="3">SUM(I6:I7)</f>
         <v>158877</v>
       </c>
       <c r="J8" s="9">
@@ -1211,7 +1230,10 @@
         <f t="shared" si="3"/>
         <v>167702</v>
       </c>
-      <c r="M8" s="9"/>
+      <c r="M8" s="9">
+        <f t="shared" si="3"/>
+        <v>180169</v>
+      </c>
       <c r="N8" s="9"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1265,7 +1287,9 @@
       <c r="L9" s="4">
         <v>80809</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="4">
+        <v>88670</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1326,7 +1350,10 @@
         <f>L8-L9</f>
         <v>86893</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4">
+        <f>M8-M9</f>
+        <v>91499</v>
+      </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1385,7 +1412,9 @@
       <c r="L11" s="4">
         <v>25976</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4">
+        <v>27679</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1438,7 +1467,9 @@
       <c r="L12" s="4">
         <v>27166</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="M12" s="4">
+        <v>28962</v>
+      </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1491,7 +1522,9 @@
       <c r="L13" s="4">
         <v>11416</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4">
+        <v>11686</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1544,7 +1577,9 @@
       <c r="L14" s="4">
         <v>2965</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="M14" s="4">
+        <v>2875</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1597,7 +1632,9 @@
       <c r="L15" s="4">
         <v>199</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="4">
+        <v>2875</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1658,7 +1695,10 @@
         <f>L10-SUM(L11:L15)</f>
         <v>19171</v>
       </c>
-      <c r="M16" s="4"/>
+      <c r="M16" s="4">
+        <f>M10-SUM(M11:M15)</f>
+        <v>17422</v>
+      </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4">
@@ -1726,7 +1766,9 @@
       <c r="L17" s="4">
         <v>1085</v>
       </c>
-      <c r="M17" s="4"/>
+      <c r="M17" s="4">
+        <v>1100</v>
+      </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -1779,7 +1821,9 @@
       <c r="L18" s="4">
         <v>516</v>
       </c>
-      <c r="M18" s="4"/>
+      <c r="M18" s="4">
+        <v>538</v>
+      </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -1832,7 +1876,9 @@
       <c r="L19" s="4">
         <v>-1117</v>
       </c>
-      <c r="M19" s="4"/>
+      <c r="M19" s="4">
+        <v>-10186</v>
+      </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -1893,7 +1939,10 @@
         <f t="shared" si="10"/>
         <v>20857</v>
       </c>
-      <c r="M20" s="4"/>
+      <c r="M20" s="4">
+        <f t="shared" si="10"/>
+        <v>28170</v>
+      </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4">
@@ -1963,7 +2012,9 @@
       <c r="L21" s="4">
         <v>2678</v>
       </c>
-      <c r="M21" s="4"/>
+      <c r="M21" s="4">
+        <v>6910</v>
+      </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -2016,7 +2067,9 @@
       <c r="L22" s="4">
         <v>15</v>
       </c>
-      <c r="M22" s="4"/>
+      <c r="M22" s="4">
+        <v>73</v>
+      </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -2077,7 +2130,10 @@
         <f t="shared" si="12"/>
         <v>18164</v>
       </c>
-      <c r="M23" s="4"/>
+      <c r="M23" s="4">
+        <f t="shared" si="12"/>
+        <v>21187</v>
+      </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4">
@@ -2175,7 +2231,10 @@
         <f>L23/L26</f>
         <v>1.7076243301682805</v>
       </c>
-      <c r="M25" s="10"/>
+      <c r="M25" s="10">
+        <f>M23/M26</f>
+        <v>1.984916619823871</v>
+      </c>
       <c r="N25" s="10"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -2238,7 +2297,9 @@
       <c r="L26" s="4">
         <v>10637</v>
       </c>
-      <c r="M26" s="4"/>
+      <c r="M26" s="4">
+        <v>10674</v>
+      </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -2290,7 +2351,7 @@
         <v>0.17247354125690739</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" ref="H28:L28" si="16">H5/D5-1</f>
+        <f t="shared" ref="H28:M28" si="16">H5/D5-1</f>
         <v>0.18703703703703711</v>
       </c>
       <c r="I28" s="11">
@@ -2309,7 +2370,10 @@
         <f t="shared" si="16"/>
         <v>0.17472698907956308</v>
       </c>
-      <c r="M28" s="4"/>
+      <c r="M28" s="11">
+        <f t="shared" si="16"/>
+        <v>0.20231677109135937</v>
+      </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -2337,7 +2401,7 @@
         <v>4.2976690608483636E-2</v>
       </c>
       <c r="I29" s="11">
-        <f t="shared" ref="I29:L31" si="18">I6/E6-1</f>
+        <f t="shared" ref="I29:M31" si="18">I6/E6-1</f>
         <v>7.0127115290243847E-2</v>
       </c>
       <c r="J29" s="11">
@@ -2352,7 +2416,10 @@
         <f t="shared" si="18"/>
         <v>0.10844743296139292</v>
       </c>
-      <c r="M29" s="11"/>
+      <c r="M29" s="11">
+        <f t="shared" si="18"/>
+        <v>9.5516338515702515E-2</v>
+      </c>
       <c r="N29" s="11"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -2395,7 +2462,10 @@
         <f t="shared" si="18"/>
         <v>0.15100453661697988</v>
       </c>
-      <c r="M30" s="11"/>
+      <c r="M30" s="11">
+        <f t="shared" si="18"/>
+        <v>0.16252903282352427</v>
+      </c>
       <c r="N30" s="11"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -2438,7 +2508,10 @@
         <f t="shared" si="18"/>
         <v>0.13329774221669588</v>
       </c>
-      <c r="M31" s="11"/>
+      <c r="M31" s="12">
+        <f t="shared" si="18"/>
+        <v>0.13401562214795093</v>
+      </c>
       <c r="N31" s="11"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -2493,7 +2566,10 @@
         <f>L10/L8</f>
         <v>0.51813931855314788</v>
       </c>
-      <c r="M32" s="11"/>
+      <c r="M32" s="11">
+        <f>M10/M8</f>
+        <v>0.50785096215220149</v>
+      </c>
       <c r="N32" s="11"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -2548,7 +2624,10 @@
         <f t="shared" si="23"/>
         <v>0.11431586981669867</v>
       </c>
-      <c r="M33" s="11"/>
+      <c r="M33" s="11">
+        <f t="shared" ref="M33" si="24">M16/M8</f>
+        <v>9.6698100117112273E-2</v>
+      </c>
       <c r="N33" s="11"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -2564,23 +2643,23 @@
         <v>39</v>
       </c>
       <c r="C34" s="11">
-        <f t="shared" ref="C34:G34" si="24">C21/C20</f>
+        <f t="shared" ref="C34:G34" si="25">C21/C20</f>
         <v>0.23015294974508377</v>
       </c>
       <c r="D34" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.10630702102340341</v>
       </c>
       <c r="E34" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.18918697185987365</v>
       </c>
       <c r="F34" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.11637574592673715</v>
       </c>
       <c r="G34" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.1900177154740815</v>
       </c>
       <c r="H34" s="11">
@@ -2588,22 +2667,25 @@
         <v>0.11590685470646113</v>
       </c>
       <c r="I34" s="11">
-        <f t="shared" ref="I34:J34" si="25">I21/I20</f>
+        <f t="shared" ref="I34:J34" si="26">I21/I20</f>
         <v>0.15002494871652713</v>
       </c>
       <c r="J34" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.10403150029084075</v>
       </c>
       <c r="K34" s="11">
-        <f t="shared" ref="K34:L34" si="26">K21/K20</f>
+        <f t="shared" ref="K34:L34" si="27">K21/K20</f>
         <v>0.21001891231145348</v>
       </c>
       <c r="L34" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.1283981397132857</v>
       </c>
-      <c r="M34" s="11"/>
+      <c r="M34" s="11">
+        <f t="shared" ref="M34" si="28">M21/M20</f>
+        <v>0.2452964146254881</v>
+      </c>
       <c r="N34" s="11"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D638E65-BA11-4DE2-884F-02665FE8EB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6262B9-D6D7-462E-A4B2-CC8437E08778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{479CF3AA-260E-4E31-88AC-4C0599CDC74D}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{479CF3AA-260E-4E31-88AC-4C0599CDC74D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>Amazon</t>
   </si>
@@ -242,6 +242,9 @@
   <si>
     <t>AWS Growth</t>
   </si>
+  <si>
+    <t>FY25</t>
+  </si>
 </sst>
 </file>
 
@@ -338,7 +341,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -359,6 +362,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -697,7 +701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE24186-A05E-45BD-BBFF-EE190D3291BA}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -724,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="2">
-        <v>245.94</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -735,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="I4" s="4">
-        <v>10690.216011</v>
+        <v>10709</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -747,7 +751,7 @@
       </c>
       <c r="I5" s="4">
         <f>I3*I4</f>
-        <v>2629151.7257453399</v>
+        <v>2184636</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -761,11 +765,11 @@
         <v>7</v>
       </c>
       <c r="I6" s="4">
-        <f>66922+27275</f>
-        <v>94197</v>
+        <f>86810+36219</f>
+        <v>123029</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -773,10 +777,10 @@
         <v>8</v>
       </c>
       <c r="I7" s="4">
-        <v>50742</v>
+        <v>65648</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -785,7 +789,7 @@
       </c>
       <c r="I8" s="4">
         <f>I5-I6+I7</f>
-        <v>2585696.7257453399</v>
+        <v>2127255</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -837,13 +841,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4851AB-88E4-47B4-A48F-9BD557A151E9}">
-  <dimension ref="A1:V484"/>
+  <dimension ref="A1:AA484"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -853,12 +857,12 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
@@ -916,8 +920,11 @@
       <c r="V2" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W2" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
@@ -956,7 +963,9 @@
       <c r="M3" s="4">
         <v>106267</v>
       </c>
-      <c r="N3" s="4"/>
+      <c r="N3" s="4">
+        <v>127083</v>
+      </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -969,8 +978,11 @@
       <c r="V3" s="4">
         <v>387497</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W3" s="4">
+        <v>426305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
@@ -1009,7 +1021,9 @@
       <c r="M4" s="4">
         <v>40896</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="N4" s="14">
+        <v>50724</v>
+      </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1022,8 +1036,11 @@
       <c r="V4" s="4">
         <v>142906</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W4" s="4">
+        <v>161894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1062,7 +1079,9 @@
       <c r="M5" s="4">
         <v>33006</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4">
+        <v>35579</v>
+      </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -1075,8 +1094,11 @@
       <c r="V5" s="4">
         <v>106556</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W5" s="4">
+        <v>128725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1115,7 +1137,9 @@
       <c r="M6" s="4">
         <v>74058</v>
       </c>
-      <c r="N6" s="4"/>
+      <c r="N6" s="4">
+        <v>89992</v>
+      </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -1130,8 +1154,11 @@
       <c r="V6" s="4">
         <v>272311</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6" s="4">
+        <v>296266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1170,7 +1197,9 @@
       <c r="M7" s="4">
         <v>106111</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4">
+        <v>123394</v>
+      </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1185,8 +1214,11 @@
       <c r="V7" s="4">
         <v>365648</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="4">
+        <v>420658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1215,7 +1247,7 @@
         <v>147977</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" ref="I8:M8" si="3">SUM(I6:I7)</f>
+        <f t="shared" ref="I8:N8" si="3">SUM(I6:I7)</f>
         <v>158877</v>
       </c>
       <c r="J8" s="9">
@@ -1234,7 +1266,10 @@
         <f t="shared" si="3"/>
         <v>180169</v>
       </c>
-      <c r="N8" s="9"/>
+      <c r="N8" s="9">
+        <f t="shared" si="3"/>
+        <v>213386</v>
+      </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -1250,8 +1285,11 @@
       <c r="V8" s="9">
         <v>637959</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="9">
+        <v>716924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1290,7 +1328,9 @@
       <c r="M9" s="4">
         <v>88670</v>
       </c>
-      <c r="N9" s="4"/>
+      <c r="N9" s="4">
+        <v>109959</v>
+      </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -1305,8 +1345,11 @@
       <c r="V9" s="4">
         <v>326288</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="4">
+        <v>356414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1354,7 +1397,10 @@
         <f>M8-M9</f>
         <v>91499</v>
       </c>
-      <c r="N10" s="4"/>
+      <c r="N10" s="4">
+        <f>N8-N9</f>
+        <v>103427</v>
+      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1375,8 +1421,12 @@
         <f>+V8-V9</f>
         <v>311671</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="4">
+        <f>+W8-W9</f>
+        <v>360510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1415,7 +1465,9 @@
       <c r="M11" s="4">
         <v>27679</v>
       </c>
-      <c r="N11" s="4"/>
+      <c r="N11" s="4">
+        <v>30826</v>
+      </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -1430,8 +1482,11 @@
       <c r="V11" s="4">
         <v>98505</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="4">
+        <v>109074</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1470,7 +1525,9 @@
       <c r="M12" s="4">
         <v>28962</v>
       </c>
-      <c r="N12" s="4"/>
+      <c r="N12" s="4">
+        <v>29399</v>
+      </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -1485,8 +1542,11 @@
       <c r="V12" s="4">
         <v>88544</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="4">
+        <v>108521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1525,7 +1585,9 @@
       <c r="M13" s="4">
         <v>11686</v>
       </c>
-      <c r="N13" s="4"/>
+      <c r="N13" s="4">
+        <v>14264</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1540,8 +1602,11 @@
       <c r="V13" s="4">
         <v>43907</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="4">
+        <v>47129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1580,7 +1645,9 @@
       <c r="M14" s="4">
         <v>2875</v>
       </c>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4">
+        <v>2704</v>
+      </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -1595,8 +1662,11 @@
       <c r="V14" s="4">
         <v>11359</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="4">
+        <v>11172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1635,7 +1705,9 @@
       <c r="M15" s="4">
         <v>2875</v>
       </c>
-      <c r="N15" s="4"/>
+      <c r="N15" s="4">
+        <v>1257</v>
+      </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -1650,8 +1722,11 @@
       <c r="V15" s="4">
         <v>763</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="4">
+        <v>4639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1680,7 +1755,7 @@
         <v>14672</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" ref="I16:V16" si="8">I10-SUM(I11:I15)</f>
+        <f t="shared" ref="I16:W16" si="8">I10-SUM(I11:I15)</f>
         <v>17411</v>
       </c>
       <c r="J16" s="4">
@@ -1699,7 +1774,10 @@
         <f>M10-SUM(M11:M15)</f>
         <v>17422</v>
       </c>
-      <c r="N16" s="4"/>
+      <c r="N16" s="4">
+        <f>N10-SUM(N11:N15)</f>
+        <v>24977</v>
+      </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4">
         <f t="shared" si="8"/>
@@ -1729,8 +1807,12 @@
         <f t="shared" si="8"/>
         <v>68593</v>
       </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="4">
+        <f t="shared" si="8"/>
+        <v>79975</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
@@ -1769,7 +1851,9 @@
       <c r="M17" s="4">
         <v>1100</v>
       </c>
-      <c r="N17" s="4"/>
+      <c r="N17" s="4">
+        <v>1130</v>
+      </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -1784,8 +1868,11 @@
       <c r="V17" s="4">
         <v>4677</v>
       </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="4">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1824,7 +1911,9 @@
       <c r="M18" s="4">
         <v>538</v>
       </c>
-      <c r="N18" s="4"/>
+      <c r="N18" s="4">
+        <v>679</v>
+      </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1839,8 +1928,11 @@
       <c r="V18" s="4">
         <v>2406</v>
       </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="4">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1879,7 +1971,9 @@
       <c r="M19" s="4">
         <v>-10186</v>
       </c>
-      <c r="N19" s="4"/>
+      <c r="N19" s="4">
+        <v>-1177</v>
+      </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -1894,8 +1988,11 @@
       <c r="V19" s="4">
         <v>2250</v>
       </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="4">
+        <v>-15229</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
@@ -1924,7 +2021,7 @@
         <v>15245</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" ref="I20:V20" si="10">I16+I17-I18-I19</f>
+        <f t="shared" ref="I20:W20" si="10">I16+I17-I18-I19</f>
         <v>18037</v>
       </c>
       <c r="J20" s="4">
@@ -1943,7 +2040,10 @@
         <f t="shared" si="10"/>
         <v>28170</v>
       </c>
-      <c r="N20" s="4"/>
+      <c r="N20" s="4">
+        <f t="shared" si="10"/>
+        <v>26605</v>
+      </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4">
         <f t="shared" si="10"/>
@@ -1973,8 +2073,12 @@
         <f t="shared" si="10"/>
         <v>68614</v>
       </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="4">
+        <f t="shared" si="10"/>
+        <v>97311</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
@@ -2015,7 +2119,9 @@
       <c r="M21" s="4">
         <v>6910</v>
       </c>
-      <c r="N21" s="4"/>
+      <c r="N21" s="4">
+        <v>4946</v>
+      </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -2030,8 +2136,11 @@
       <c r="V21" s="4">
         <v>9265</v>
       </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="4">
+        <v>19087</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
@@ -2070,7 +2179,9 @@
       <c r="M22" s="4">
         <v>73</v>
       </c>
-      <c r="N22" s="4"/>
+      <c r="N22" s="4">
+        <v>467</v>
+      </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -2085,8 +2196,11 @@
       <c r="V22" s="4">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
@@ -2119,7 +2233,7 @@
         <v>15328</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" ref="J23:V23" si="12">+J20-J21-J22</f>
+        <f t="shared" ref="J23:W23" si="12">+J20-J21-J22</f>
         <v>20004</v>
       </c>
       <c r="K23" s="4">
@@ -2134,7 +2248,10 @@
         <f t="shared" si="12"/>
         <v>21187</v>
       </c>
-      <c r="N23" s="4"/>
+      <c r="N23" s="4">
+        <f t="shared" si="12"/>
+        <v>21192</v>
+      </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4">
         <f t="shared" si="12"/>
@@ -2164,8 +2281,12 @@
         <f t="shared" si="12"/>
         <v>59248</v>
       </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="4">
+        <f t="shared" si="12"/>
+        <v>77670</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2187,7 +2308,7 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>35</v>
       </c>
@@ -2235,7 +2356,10 @@
         <f>M23/M26</f>
         <v>1.984916619823871</v>
       </c>
-      <c r="N25" s="10"/>
+      <c r="N25" s="10">
+        <f>N23/N26</f>
+        <v>1.9788962554860399</v>
+      </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="10" t="e">
@@ -2262,8 +2386,12 @@
         <f>+V23/V26</f>
         <v>5.6572137878353859</v>
       </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="10">
+        <f>+W23/W26</f>
+        <v>7.2888513513513518</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
@@ -2300,7 +2428,9 @@
       <c r="M26" s="4">
         <v>10674</v>
       </c>
-      <c r="N26" s="4"/>
+      <c r="N26" s="4">
+        <v>10709</v>
+      </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -2315,8 +2445,15 @@
       <c r="V26" s="4">
         <v>10473</v>
       </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="4">
+        <v>10656</v>
+      </c>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -2338,7 +2475,7 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>67</v>
       </c>
@@ -2351,7 +2488,7 @@
         <v>0.17247354125690739</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" ref="H28:M28" si="16">H5/D5-1</f>
+        <f t="shared" ref="H28:N28" si="16">H5/D5-1</f>
         <v>0.18703703703703711</v>
       </c>
       <c r="I28" s="11">
@@ -2374,7 +2511,10 @@
         <f t="shared" si="16"/>
         <v>0.20231677109135937</v>
       </c>
-      <c r="N28" s="4"/>
+      <c r="N28" s="11">
+        <f t="shared" si="16"/>
+        <v>0.28046498236521988</v>
+      </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -2384,7 +2524,7 @@
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
@@ -2401,7 +2541,7 @@
         <v>4.2976690608483636E-2</v>
       </c>
       <c r="I29" s="11">
-        <f t="shared" ref="I29:M31" si="18">I6/E6-1</f>
+        <f t="shared" ref="I29:N31" si="18">I6/E6-1</f>
         <v>7.0127115290243847E-2</v>
       </c>
       <c r="J29" s="11">
@@ -2420,7 +2560,10 @@
         <f t="shared" si="18"/>
         <v>9.5516338515702515E-2</v>
       </c>
-      <c r="N29" s="11"/>
+      <c r="N29" s="11">
+        <f t="shared" si="18"/>
+        <v>9.4447011894048138E-2</v>
+      </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -2430,7 +2573,7 @@
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
@@ -2466,7 +2609,10 @@
         <f t="shared" si="18"/>
         <v>0.16252903282352427</v>
       </c>
-      <c r="N30" s="11"/>
+      <c r="N30" s="11">
+        <f t="shared" si="18"/>
+        <v>0.168880131860637</v>
+      </c>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -2476,7 +2622,7 @@
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
@@ -2512,7 +2658,10 @@
         <f t="shared" si="18"/>
         <v>0.13401562214795093</v>
       </c>
-      <c r="N31" s="11"/>
+      <c r="N31" s="12">
+        <f t="shared" si="18"/>
+        <v>0.13628908579705201</v>
+      </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -2522,7 +2671,7 @@
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
@@ -2570,7 +2719,10 @@
         <f>M10/M8</f>
         <v>0.50785096215220149</v>
       </c>
-      <c r="N32" s="11"/>
+      <c r="N32" s="11">
+        <f>N10/N8</f>
+        <v>0.48469440356911886</v>
+      </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -2625,10 +2777,13 @@
         <v>0.11431586981669867</v>
       </c>
       <c r="M33" s="11">
-        <f t="shared" ref="M33" si="24">M16/M8</f>
+        <f t="shared" ref="M33:N33" si="24">M16/M8</f>
         <v>9.6698100117112273E-2</v>
       </c>
-      <c r="N33" s="11"/>
+      <c r="N33" s="11">
+        <f t="shared" si="24"/>
+        <v>0.11705079058607407</v>
+      </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
@@ -2683,10 +2838,13 @@
         <v>0.1283981397132857</v>
       </c>
       <c r="M34" s="11">
-        <f t="shared" ref="M34" si="28">M21/M20</f>
+        <f t="shared" ref="M34:N34" si="28">M21/M20</f>
         <v>0.2452964146254881</v>
       </c>
-      <c r="N34" s="11"/>
+      <c r="N34" s="11">
+        <f t="shared" si="28"/>
+        <v>0.18590490509302762</v>
+      </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
